--- a/USA/UCA.xlsx
+++ b/USA/UCA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UCA actual\UCA\USA\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UCA actual\UCA\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <sheet name="Settings" sheetId="7" r:id="rId7"/>
     <sheet name="VoltageSupply" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="249">
   <si>
     <t>device</t>
   </si>
@@ -774,10 +774,10 @@
     <t>0.150</t>
   </si>
   <si>
-    <t>tolerance</t>
-  </si>
-  <si>
-    <t>--</t>
+    <t>lowerLimit</t>
+  </si>
+  <si>
+    <t>upperLimit</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -967,9 +967,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,9 +974,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,19 +1336,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="B59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="35.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" style="9"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1373,11 +1368,14 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1399,8 +1397,11 @@
       <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1422,8 +1423,11 @@
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1445,8 +1449,11 @@
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1468,8 +1475,11 @@
       <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1491,8 +1501,11 @@
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1514,8 +1527,11 @@
       <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1537,8 +1553,11 @@
       <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1560,8 +1579,11 @@
       <c r="G9" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1583,8 +1605,11 @@
       <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1606,8 +1631,11 @@
       <c r="G11" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1629,8 +1657,11 @@
       <c r="G12" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1652,8 +1683,11 @@
       <c r="G13" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1675,8 +1709,11 @@
       <c r="G14" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1698,8 +1735,11 @@
       <c r="G15" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1721,8 +1761,11 @@
       <c r="G16" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1744,8 +1787,11 @@
       <c r="G17" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1767,8 +1813,11 @@
       <c r="G18" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1790,8 +1839,11 @@
       <c r="G19" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1813,8 +1865,11 @@
       <c r="G20" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1836,8 +1891,11 @@
       <c r="G21" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1859,8 +1917,11 @@
       <c r="G22" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
@@ -1882,8 +1943,11 @@
       <c r="G23" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1905,8 +1969,11 @@
       <c r="G24" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1928,8 +1995,11 @@
       <c r="G25" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
@@ -1951,8 +2021,11 @@
       <c r="G26" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -1974,8 +2047,11 @@
       <c r="G27" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
@@ -1997,8 +2073,11 @@
       <c r="G28" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2020,8 +2099,11 @@
       <c r="G29" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
@@ -2043,8 +2125,11 @@
       <c r="G30" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -2066,8 +2151,11 @@
       <c r="G31" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
@@ -2089,8 +2177,11 @@
       <c r="G32" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
@@ -2112,8 +2203,11 @@
       <c r="G33" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -2135,8 +2229,11 @@
       <c r="G34" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
@@ -2158,8 +2255,11 @@
       <c r="G35" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -2181,8 +2281,11 @@
       <c r="G36" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
@@ -2204,8 +2307,11 @@
       <c r="G37" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>19</v>
       </c>
@@ -2227,8 +2333,11 @@
       <c r="G38" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -2250,8 +2359,11 @@
       <c r="G39" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>16</v>
       </c>
@@ -2273,8 +2385,11 @@
       <c r="G40" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>29</v>
       </c>
@@ -2296,8 +2411,11 @@
       <c r="G41" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2319,8 +2437,11 @@
       <c r="G42" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2342,8 +2463,11 @@
       <c r="G43" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>19</v>
       </c>
@@ -2365,8 +2489,11 @@
       <c r="G44" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2388,8 +2515,11 @@
       <c r="G45" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2411,8 +2541,11 @@
       <c r="G46" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
@@ -2434,8 +2567,11 @@
       <c r="G47" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2457,8 +2593,11 @@
       <c r="G48" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2480,8 +2619,11 @@
       <c r="G49" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>19</v>
       </c>
@@ -2503,8 +2645,11 @@
       <c r="G50" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>16</v>
       </c>
@@ -2526,8 +2671,11 @@
       <c r="G51" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2549,8 +2697,11 @@
       <c r="G52" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>29</v>
       </c>
@@ -2572,8 +2723,11 @@
       <c r="G53" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2592,11 +2746,14 @@
       <c r="F54" s="3">
         <v>8</v>
       </c>
-      <c r="G54" s="29" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>16</v>
       </c>
@@ -2618,8 +2775,11 @@
       <c r="G55" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>19</v>
       </c>
@@ -2641,8 +2801,11 @@
       <c r="G56" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2664,8 +2827,11 @@
       <c r="G57" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2687,8 +2853,11 @@
       <c r="G58" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>29</v>
       </c>
@@ -2710,8 +2879,11 @@
       <c r="G59" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2733,8 +2905,11 @@
       <c r="G60" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>16</v>
       </c>
@@ -2756,8 +2931,11 @@
       <c r="G61" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H61" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>19</v>
       </c>
@@ -2779,8 +2957,11 @@
       <c r="G62" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
@@ -2802,8 +2983,11 @@
       <c r="G63" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>16</v>
       </c>
@@ -2825,8 +3009,11 @@
       <c r="G64" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H64" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
@@ -2848,8 +3035,11 @@
       <c r="G65" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2871,8 +3061,11 @@
       <c r="G66" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H66" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>16</v>
       </c>
@@ -2894,8 +3087,11 @@
       <c r="G67" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H67" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>19</v>
       </c>
@@ -2917,8 +3113,11 @@
       <c r="G68" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>16</v>
       </c>
@@ -2940,8 +3139,11 @@
       <c r="G69" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H69" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
@@ -2963,8 +3165,11 @@
       <c r="G70" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H70" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>29</v>
       </c>
@@ -2986,8 +3191,11 @@
       <c r="G71" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H71" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3009,8 +3217,11 @@
       <c r="G72" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>6</v>
       </c>
@@ -3032,8 +3243,11 @@
       <c r="G73" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H73" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
@@ -3053,6 +3267,9 @@
         <v>0</v>
       </c>
       <c r="G74" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3067,7 +3284,7 @@
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="H2" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,7 +3294,7 @@
     <col min="8" max="1024" width="35.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3096,11 +3313,14 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3122,8 +3342,11 @@
       <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -3145,8 +3368,11 @@
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -3168,8 +3394,11 @@
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -3191,8 +3420,11 @@
       <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
@@ -3214,8 +3446,11 @@
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
@@ -3237,8 +3472,11 @@
       <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
@@ -3260,8 +3498,11 @@
       <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
@@ -3283,8 +3524,11 @@
       <c r="G9" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
@@ -3306,8 +3550,11 @@
       <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
@@ -3329,8 +3576,11 @@
       <c r="G11" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
@@ -3352,8 +3602,11 @@
       <c r="G12" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
@@ -3375,8 +3628,11 @@
       <c r="G13" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
@@ -3398,8 +3654,11 @@
       <c r="G14" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
@@ -3421,8 +3680,11 @@
       <c r="G15" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
@@ -3444,8 +3706,11 @@
       <c r="G16" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
@@ -3465,6 +3730,9 @@
         <v>0</v>
       </c>
       <c r="G17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3478,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3488,7 +3756,7 @@
     <col min="8" max="1024" width="30.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3507,11 +3775,14 @@
       <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3533,8 +3804,11 @@
       <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -3556,8 +3830,11 @@
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
@@ -3579,8 +3856,11 @@
       <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -3602,8 +3882,11 @@
       <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
@@ -3625,8 +3908,11 @@
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
@@ -3648,8 +3934,11 @@
       <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
@@ -3671,8 +3960,11 @@
       <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
@@ -3694,8 +3986,11 @@
       <c r="G9" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
@@ -3717,8 +4012,11 @@
       <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
@@ -3740,8 +4038,11 @@
       <c r="G11" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -3761,6 +4062,9 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3774,8 +4078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ402"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,11 +4087,12 @@
     <col min="1" max="4" width="35.7109375" style="8"/>
     <col min="5" max="5" width="47.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="14" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="26" customWidth="1"/>
-    <col min="8" max="1024" width="35.7109375" style="8"/>
+    <col min="7" max="7" width="20.42578125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="8" customWidth="1"/>
+    <col min="9" max="1024" width="35.7109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3806,11 +4111,14 @@
       <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
@@ -3829,11 +4137,14 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
@@ -3852,11 +4163,14 @@
       <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -3875,11 +4189,14 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
@@ -3898,11 +4215,14 @@
       <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>29</v>
       </c>
@@ -3921,11 +4241,14 @@
       <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
@@ -3944,11 +4267,14 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
@@ -3967,11 +4293,14 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>29</v>
       </c>
@@ -3990,11 +4319,14 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
@@ -4013,11 +4345,14 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
@@ -4036,11 +4371,14 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
@@ -4059,11 +4397,14 @@
       <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
@@ -4082,11 +4423,14 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
@@ -4105,11 +4449,14 @@
       <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
@@ -4128,11 +4475,14 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>29</v>
       </c>
@@ -4151,11 +4501,14 @@
       <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>16</v>
       </c>
@@ -4174,11 +4527,14 @@
       <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -4197,11 +4553,14 @@
       <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>29</v>
       </c>
@@ -4220,11 +4579,14 @@
       <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>133</v>
       </c>
@@ -4243,11 +4605,14 @@
       <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>16</v>
       </c>
@@ -4266,11 +4631,14 @@
       <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>11</v>
       </c>
@@ -4289,11 +4657,14 @@
       <c r="F22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>11</v>
       </c>
@@ -4312,11 +4683,14 @@
       <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>11</v>
       </c>
@@ -4335,11 +4709,14 @@
       <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>16</v>
       </c>
@@ -4358,11 +4735,14 @@
       <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>16</v>
       </c>
@@ -4381,11 +4761,14 @@
       <c r="F26" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>29</v>
       </c>
@@ -4404,11 +4787,14 @@
       <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>16</v>
       </c>
@@ -4427,11 +4813,14 @@
       <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
@@ -4450,11 +4839,14 @@
       <c r="F29" s="7">
         <v>1</v>
       </c>
-      <c r="G29" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>29</v>
       </c>
@@ -4473,11 +4865,14 @@
       <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="25">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>133</v>
       </c>
@@ -4496,11 +4891,14 @@
       <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>16</v>
       </c>
@@ -4519,11 +4917,14 @@
       <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="25">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>11</v>
       </c>
@@ -4542,11 +4943,14 @@
       <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="25">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>11</v>
       </c>
@@ -4565,11 +4969,14 @@
       <c r="F34" s="7">
         <v>2</v>
       </c>
-      <c r="G34" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="25">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>11</v>
       </c>
@@ -4588,11 +4995,14 @@
       <c r="F35" s="7">
         <v>2</v>
       </c>
-      <c r="G35" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="25">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>16</v>
       </c>
@@ -4611,11 +5021,14 @@
       <c r="F36" s="7">
         <v>2</v>
       </c>
-      <c r="G36" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="25">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>29</v>
       </c>
@@ -4632,11 +5045,14 @@
       <c r="F37" s="7">
         <v>2</v>
       </c>
-      <c r="G37" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="25">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>16</v>
       </c>
@@ -4655,11 +5071,14 @@
       <c r="F38" s="7">
         <v>2</v>
       </c>
-      <c r="G38" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="25">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>16</v>
       </c>
@@ -4678,11 +5097,14 @@
       <c r="F39" s="7">
         <v>2</v>
       </c>
-      <c r="G39" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="25">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>29</v>
       </c>
@@ -4701,11 +5123,14 @@
       <c r="F40" s="7">
         <v>2</v>
       </c>
-      <c r="G40" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="25">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>16</v>
       </c>
@@ -4724,11 +5149,14 @@
       <c r="F41" s="7">
         <v>2</v>
       </c>
-      <c r="G41" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="25">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>11</v>
       </c>
@@ -4747,11 +5175,14 @@
       <c r="F42" s="7">
         <v>2</v>
       </c>
-      <c r="G42" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="25">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>11</v>
       </c>
@@ -4770,11 +5201,14 @@
       <c r="F43" s="7">
         <v>2</v>
       </c>
-      <c r="G43" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="25">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>11</v>
       </c>
@@ -4793,11 +5227,14 @@
       <c r="F44" s="7">
         <v>2</v>
       </c>
-      <c r="G44" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="25">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>16</v>
       </c>
@@ -4816,11 +5253,14 @@
       <c r="F45" s="7">
         <v>2</v>
       </c>
-      <c r="G45" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="25">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>16</v>
       </c>
@@ -4839,11 +5279,14 @@
       <c r="F46" s="7">
         <v>2</v>
       </c>
-      <c r="G46" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="25">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>29</v>
       </c>
@@ -4862,11 +5305,14 @@
       <c r="F47" s="7">
         <v>2</v>
       </c>
-      <c r="G47" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="25">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>16</v>
       </c>
@@ -4885,11 +5331,14 @@
       <c r="F48" s="7">
         <v>2</v>
       </c>
-      <c r="G48" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="25">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>16</v>
       </c>
@@ -4908,11 +5357,14 @@
       <c r="F49" s="7">
         <v>2</v>
       </c>
-      <c r="G49" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="25">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>29</v>
       </c>
@@ -4931,11 +5383,14 @@
       <c r="F50" s="7">
         <v>2</v>
       </c>
-      <c r="G50" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="25">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>133</v>
       </c>
@@ -4954,11 +5409,14 @@
       <c r="F51" s="7">
         <v>2</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>16</v>
       </c>
@@ -4977,11 +5435,14 @@
       <c r="F52" s="7">
         <v>2</v>
       </c>
-      <c r="G52" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="25">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>11</v>
       </c>
@@ -5000,11 +5461,14 @@
       <c r="F53" s="7">
         <v>2</v>
       </c>
-      <c r="G53" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="25">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>11</v>
       </c>
@@ -5023,11 +5487,14 @@
       <c r="F54" s="7">
         <v>2</v>
       </c>
-      <c r="G54" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="25">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>11</v>
       </c>
@@ -5046,11 +5513,14 @@
       <c r="F55" s="7">
         <v>2</v>
       </c>
-      <c r="G55" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="25">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>16</v>
       </c>
@@ -5069,11 +5539,14 @@
       <c r="F56" s="7">
         <v>2</v>
       </c>
-      <c r="G56" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="25">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>16</v>
       </c>
@@ -5092,11 +5565,14 @@
       <c r="F57" s="7">
         <v>2</v>
       </c>
-      <c r="G57" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="25">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>29</v>
       </c>
@@ -5115,11 +5591,14 @@
       <c r="F58" s="7">
         <v>2</v>
       </c>
-      <c r="G58" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="25">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>16</v>
       </c>
@@ -5138,11 +5617,14 @@
       <c r="F59" s="7">
         <v>2</v>
       </c>
-      <c r="G59" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="25">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>16</v>
       </c>
@@ -5161,11 +5643,14 @@
       <c r="F60" s="7">
         <v>2</v>
       </c>
-      <c r="G60" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="25">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>29</v>
       </c>
@@ -5184,11 +5669,14 @@
       <c r="F61" s="7">
         <v>2</v>
       </c>
-      <c r="G61" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="25">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>133</v>
       </c>
@@ -5207,11 +5695,14 @@
       <c r="F62" s="7">
         <v>2</v>
       </c>
-      <c r="G62" s="26">
+      <c r="G62" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H62" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>16</v>
       </c>
@@ -5230,11 +5721,14 @@
       <c r="F63" s="7">
         <v>2</v>
       </c>
-      <c r="G63" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="25">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>11</v>
       </c>
@@ -5253,11 +5747,14 @@
       <c r="F64" s="7">
         <v>2</v>
       </c>
-      <c r="G64" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="25">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>11</v>
       </c>
@@ -5276,11 +5773,14 @@
       <c r="F65" s="7">
         <v>3</v>
       </c>
-      <c r="G65" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="25">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>11</v>
       </c>
@@ -5299,11 +5799,14 @@
       <c r="F66" s="7">
         <v>3</v>
       </c>
-      <c r="G66" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="25">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>16</v>
       </c>
@@ -5322,11 +5825,14 @@
       <c r="F67" s="7">
         <v>3</v>
       </c>
-      <c r="G67" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="25">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>29</v>
       </c>
@@ -5345,11 +5851,14 @@
       <c r="F68" s="7">
         <v>3</v>
       </c>
-      <c r="G68" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="25">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>16</v>
       </c>
@@ -5368,11 +5877,14 @@
       <c r="F69" s="7">
         <v>3</v>
       </c>
-      <c r="G69" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="25">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>11</v>
       </c>
@@ -5391,11 +5903,14 @@
       <c r="F70" s="7">
         <v>3</v>
       </c>
-      <c r="G70" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="25">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>11</v>
       </c>
@@ -5416,11 +5931,14 @@
       <c r="F71" s="7">
         <v>3</v>
       </c>
-      <c r="G71" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="25">
+        <v>0</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>11</v>
       </c>
@@ -5439,11 +5957,14 @@
       <c r="F72" s="7">
         <v>3</v>
       </c>
-      <c r="G72" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="25">
+        <v>0</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>16</v>
       </c>
@@ -5462,11 +5983,14 @@
       <c r="F73" s="7">
         <v>3</v>
       </c>
-      <c r="G73" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="25">
+        <v>0</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>19</v>
       </c>
@@ -5486,11 +6010,14 @@
       <c r="F74" s="7">
         <v>3</v>
       </c>
-      <c r="G74" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="25">
+        <v>0</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>16</v>
       </c>
@@ -5509,11 +6036,14 @@
       <c r="F75" s="7">
         <v>3</v>
       </c>
-      <c r="G75" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="25">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>29</v>
       </c>
@@ -5532,11 +6062,14 @@
       <c r="F76" s="7">
         <v>3</v>
       </c>
-      <c r="G76" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="25">
+        <v>0</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>133</v>
       </c>
@@ -5556,11 +6089,14 @@
       <c r="F77" s="7">
         <v>3</v>
       </c>
-      <c r="G77" s="26">
+      <c r="G77" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>16</v>
       </c>
@@ -5579,11 +6115,14 @@
       <c r="F78" s="7">
         <v>3</v>
       </c>
-      <c r="G78" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="25">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>11</v>
       </c>
@@ -5602,11 +6141,14 @@
       <c r="F79" s="7">
         <v>3</v>
       </c>
-      <c r="G79" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="25">
+        <v>0</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>11</v>
       </c>
@@ -5627,11 +6169,14 @@
       <c r="F80" s="7">
         <v>3</v>
       </c>
-      <c r="G80" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="25">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>11</v>
       </c>
@@ -5650,11 +6195,14 @@
       <c r="F81" s="7">
         <v>3</v>
       </c>
-      <c r="G81" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G81" s="25">
+        <v>0</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>16</v>
       </c>
@@ -5673,11 +6221,14 @@
       <c r="F82" s="7">
         <v>3</v>
       </c>
-      <c r="G82" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="25">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>19</v>
       </c>
@@ -5697,11 +6248,14 @@
       <c r="F83" s="7">
         <v>3</v>
       </c>
-      <c r="G83" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="25">
+        <v>0</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>16</v>
       </c>
@@ -5720,11 +6274,14 @@
       <c r="F84" s="7">
         <v>3</v>
       </c>
-      <c r="G84" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="25">
+        <v>0</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>29</v>
       </c>
@@ -5743,11 +6300,14 @@
       <c r="F85" s="7">
         <v>3</v>
       </c>
-      <c r="G85" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="25">
+        <v>0</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>133</v>
       </c>
@@ -5767,11 +6327,14 @@
       <c r="F86" s="7">
         <v>3</v>
       </c>
-      <c r="G86" s="26">
+      <c r="G86" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H86" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>16</v>
       </c>
@@ -5790,11 +6353,14 @@
       <c r="F87" s="7">
         <v>3</v>
       </c>
-      <c r="G87" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="25">
+        <v>0</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>11</v>
       </c>
@@ -5813,11 +6379,14 @@
       <c r="F88" s="7">
         <v>3</v>
       </c>
-      <c r="G88" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="25">
+        <v>0</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>11</v>
       </c>
@@ -5838,11 +6407,14 @@
       <c r="F89" s="7">
         <v>3</v>
       </c>
-      <c r="G89" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="25">
+        <v>0</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>11</v>
       </c>
@@ -5861,11 +6433,14 @@
       <c r="F90" s="7">
         <v>3</v>
       </c>
-      <c r="G90" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="25">
+        <v>0</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>16</v>
       </c>
@@ -5884,11 +6459,14 @@
       <c r="F91" s="7">
         <v>3</v>
       </c>
-      <c r="G91" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="25">
+        <v>0</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>19</v>
       </c>
@@ -5908,11 +6486,14 @@
       <c r="F92" s="7">
         <v>3</v>
       </c>
-      <c r="G92" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G92" s="25">
+        <v>0</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>16</v>
       </c>
@@ -5931,11 +6512,14 @@
       <c r="F93" s="7">
         <v>3</v>
       </c>
-      <c r="G93" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="25">
+        <v>0</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>29</v>
       </c>
@@ -5954,11 +6538,14 @@
       <c r="F94" s="7">
         <v>3</v>
       </c>
-      <c r="G94" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G94" s="25">
+        <v>0</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>133</v>
       </c>
@@ -5969,7 +6556,7 @@
         <f>45/1000000</f>
         <v>4.5000000000000003E-5</v>
       </c>
-      <c r="D95" s="27">
+      <c r="D95" s="26">
         <v>0.1</v>
       </c>
       <c r="E95" s="18" t="s">
@@ -5978,11 +6565,14 @@
       <c r="F95" s="7">
         <v>3</v>
       </c>
-      <c r="G95" s="26">
+      <c r="G95" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>16</v>
       </c>
@@ -6001,11 +6591,14 @@
       <c r="F96" s="7">
         <v>3</v>
       </c>
-      <c r="G96" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G96" s="25">
+        <v>0</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>11</v>
       </c>
@@ -6024,11 +6617,14 @@
       <c r="F97" s="7">
         <v>3</v>
       </c>
-      <c r="G97" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="25">
+        <v>0</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>11</v>
       </c>
@@ -6049,11 +6645,14 @@
       <c r="F98" s="7">
         <v>3</v>
       </c>
-      <c r="G98" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="25">
+        <v>0</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>11</v>
       </c>
@@ -6072,11 +6671,14 @@
       <c r="F99" s="7">
         <v>3</v>
       </c>
-      <c r="G99" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G99" s="25">
+        <v>0</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>16</v>
       </c>
@@ -6095,11 +6697,14 @@
       <c r="F100" s="7">
         <v>3</v>
       </c>
-      <c r="G100" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="25">
+        <v>0</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>19</v>
       </c>
@@ -6119,11 +6724,14 @@
       <c r="F101" s="7">
         <v>3</v>
       </c>
-      <c r="G101" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="25">
+        <v>0</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>16</v>
       </c>
@@ -6142,11 +6750,14 @@
       <c r="F102" s="7">
         <v>3</v>
       </c>
-      <c r="G102" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="25">
+        <v>0</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>29</v>
       </c>
@@ -6165,11 +6776,14 @@
       <c r="F103" s="7">
         <v>3</v>
       </c>
-      <c r="G103" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="25">
+        <v>0</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>133</v>
       </c>
@@ -6189,11 +6803,14 @@
       <c r="F104" s="7">
         <v>3</v>
       </c>
-      <c r="G104" s="26">
+      <c r="G104" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H104" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>16</v>
       </c>
@@ -6212,11 +6829,14 @@
       <c r="F105" s="7">
         <v>3</v>
       </c>
-      <c r="G105" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="25">
+        <v>0</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>11</v>
       </c>
@@ -6235,11 +6855,14 @@
       <c r="F106" s="7">
         <v>3</v>
       </c>
-      <c r="G106" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="25">
+        <v>0</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>11</v>
       </c>
@@ -6258,11 +6881,14 @@
       <c r="F107" s="7">
         <v>4</v>
       </c>
-      <c r="G107" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="25">
+        <v>0</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>11</v>
       </c>
@@ -6281,11 +6907,14 @@
       <c r="F108" s="7">
         <v>4</v>
       </c>
-      <c r="G108" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="25">
+        <v>0</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>16</v>
       </c>
@@ -6304,11 +6933,14 @@
       <c r="F109" s="7">
         <v>4</v>
       </c>
-      <c r="G109" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="25">
+        <v>0</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>29</v>
       </c>
@@ -6327,11 +6959,14 @@
       <c r="F110" s="7">
         <v>4</v>
       </c>
-      <c r="G110" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G110" s="25">
+        <v>0</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>16</v>
       </c>
@@ -6350,11 +6985,14 @@
       <c r="F111" s="7">
         <v>4</v>
       </c>
-      <c r="G111" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G111" s="25">
+        <v>0</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>11</v>
       </c>
@@ -6373,11 +7011,14 @@
       <c r="F112" s="7">
         <v>4</v>
       </c>
-      <c r="G112" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G112" s="25">
+        <v>0</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>11</v>
       </c>
@@ -6398,11 +7039,14 @@
       <c r="F113" s="7">
         <v>4</v>
       </c>
-      <c r="G113" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G113" s="25">
+        <v>0</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>11</v>
       </c>
@@ -6421,11 +7065,14 @@
       <c r="F114" s="7">
         <v>4</v>
       </c>
-      <c r="G114" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G114" s="25">
+        <v>0</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>16</v>
       </c>
@@ -6444,11 +7091,14 @@
       <c r="F115" s="7">
         <v>4</v>
       </c>
-      <c r="G115" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G115" s="25">
+        <v>0</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>19</v>
       </c>
@@ -6468,11 +7118,14 @@
       <c r="F116" s="7">
         <v>4</v>
       </c>
-      <c r="G116" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="25">
+        <v>0</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>16</v>
       </c>
@@ -6491,11 +7144,14 @@
       <c r="F117" s="7">
         <v>4</v>
       </c>
-      <c r="G117" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="25">
+        <v>0</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>29</v>
       </c>
@@ -6514,11 +7170,14 @@
       <c r="F118" s="7">
         <v>4</v>
       </c>
-      <c r="G118" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="25">
+        <v>0</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>133</v>
       </c>
@@ -6538,11 +7197,14 @@
       <c r="F119" s="7">
         <v>4</v>
       </c>
-      <c r="G119" s="26">
+      <c r="G119" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H119" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>16</v>
       </c>
@@ -6561,11 +7223,14 @@
       <c r="F120" s="7">
         <v>4</v>
       </c>
-      <c r="G120" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G120" s="25">
+        <v>0</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>11</v>
       </c>
@@ -6584,11 +7249,14 @@
       <c r="F121" s="7">
         <v>4</v>
       </c>
-      <c r="G121" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G121" s="25">
+        <v>0</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>11</v>
       </c>
@@ -6609,11 +7277,14 @@
       <c r="F122" s="7">
         <v>4</v>
       </c>
-      <c r="G122" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G122" s="25">
+        <v>0</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>11</v>
       </c>
@@ -6632,11 +7303,14 @@
       <c r="F123" s="7">
         <v>4</v>
       </c>
-      <c r="G123" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G123" s="25">
+        <v>0</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>16</v>
       </c>
@@ -6655,11 +7329,14 @@
       <c r="F124" s="7">
         <v>4</v>
       </c>
-      <c r="G124" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G124" s="25">
+        <v>0</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>19</v>
       </c>
@@ -6679,11 +7356,14 @@
       <c r="F125" s="7">
         <v>4</v>
       </c>
-      <c r="G125" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G125" s="25">
+        <v>0</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>16</v>
       </c>
@@ -6702,11 +7382,14 @@
       <c r="F126" s="7">
         <v>4</v>
       </c>
-      <c r="G126" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G126" s="25">
+        <v>0</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>29</v>
       </c>
@@ -6725,11 +7408,14 @@
       <c r="F127" s="7">
         <v>4</v>
       </c>
-      <c r="G127" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G127" s="25">
+        <v>0</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>133</v>
       </c>
@@ -6749,11 +7435,14 @@
       <c r="F128" s="7">
         <v>4</v>
       </c>
-      <c r="G128" s="26">
+      <c r="G128" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H128" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>16</v>
       </c>
@@ -6772,11 +7461,14 @@
       <c r="F129" s="7">
         <v>4</v>
       </c>
-      <c r="G129" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G129" s="25">
+        <v>0</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>11</v>
       </c>
@@ -6795,11 +7487,14 @@
       <c r="F130" s="7">
         <v>4</v>
       </c>
-      <c r="G130" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G130" s="25">
+        <v>0</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>11</v>
       </c>
@@ -6820,11 +7515,14 @@
       <c r="F131" s="7">
         <v>4</v>
       </c>
-      <c r="G131" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G131" s="25">
+        <v>0</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>11</v>
       </c>
@@ -6843,11 +7541,14 @@
       <c r="F132" s="7">
         <v>4</v>
       </c>
-      <c r="G132" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G132" s="25">
+        <v>0</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>16</v>
       </c>
@@ -6866,11 +7567,14 @@
       <c r="F133" s="7">
         <v>4</v>
       </c>
-      <c r="G133" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G133" s="25">
+        <v>0</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>19</v>
       </c>
@@ -6890,11 +7594,14 @@
       <c r="F134" s="7">
         <v>4</v>
       </c>
-      <c r="G134" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G134" s="25">
+        <v>0</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>16</v>
       </c>
@@ -6913,11 +7620,14 @@
       <c r="F135" s="7">
         <v>4</v>
       </c>
-      <c r="G135" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G135" s="25">
+        <v>0</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>29</v>
       </c>
@@ -6936,11 +7646,14 @@
       <c r="F136" s="7">
         <v>4</v>
       </c>
-      <c r="G136" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G136" s="25">
+        <v>0</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>133</v>
       </c>
@@ -6960,11 +7673,14 @@
       <c r="F137" s="7">
         <v>4</v>
       </c>
-      <c r="G137" s="26">
+      <c r="G137" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H137" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>16</v>
       </c>
@@ -6983,11 +7699,14 @@
       <c r="F138" s="7">
         <v>4</v>
       </c>
-      <c r="G138" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G138" s="25">
+        <v>0</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>11</v>
       </c>
@@ -7006,11 +7725,14 @@
       <c r="F139" s="7">
         <v>4</v>
       </c>
-      <c r="G139" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G139" s="25">
+        <v>0</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>11</v>
       </c>
@@ -7031,11 +7753,14 @@
       <c r="F140" s="7">
         <v>4</v>
       </c>
-      <c r="G140" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G140" s="25">
+        <v>0</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>11</v>
       </c>
@@ -7054,11 +7779,14 @@
       <c r="F141" s="7">
         <v>4</v>
       </c>
-      <c r="G141" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G141" s="25">
+        <v>0</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>16</v>
       </c>
@@ -7077,11 +7805,14 @@
       <c r="F142" s="7">
         <v>4</v>
       </c>
-      <c r="G142" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G142" s="25">
+        <v>0</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>19</v>
       </c>
@@ -7101,11 +7832,14 @@
       <c r="F143" s="7">
         <v>4</v>
       </c>
-      <c r="G143" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G143" s="25">
+        <v>0</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>16</v>
       </c>
@@ -7124,11 +7858,14 @@
       <c r="F144" s="7">
         <v>4</v>
       </c>
-      <c r="G144" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G144" s="25">
+        <v>0</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>29</v>
       </c>
@@ -7147,11 +7884,14 @@
       <c r="F145" s="7">
         <v>4</v>
       </c>
-      <c r="G145" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G145" s="25">
+        <v>0</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>133</v>
       </c>
@@ -7171,11 +7911,14 @@
       <c r="F146" s="7">
         <v>4</v>
       </c>
-      <c r="G146" s="26">
+      <c r="G146" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H146" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>16</v>
       </c>
@@ -7194,11 +7937,14 @@
       <c r="F147" s="7">
         <v>4</v>
       </c>
-      <c r="G147" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G147" s="25">
+        <v>0</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>11</v>
       </c>
@@ -7217,11 +7963,14 @@
       <c r="F148" s="7">
         <v>4</v>
       </c>
-      <c r="G148" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G148" s="25">
+        <v>0</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>11</v>
       </c>
@@ -7240,11 +7989,14 @@
       <c r="F149" s="7">
         <v>5</v>
       </c>
-      <c r="G149" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G149" s="25">
+        <v>0</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>11</v>
       </c>
@@ -7263,11 +8015,14 @@
       <c r="F150" s="7">
         <v>5</v>
       </c>
-      <c r="G150" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="25">
+        <v>0</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>16</v>
       </c>
@@ -7286,11 +8041,14 @@
       <c r="F151" s="7">
         <v>5</v>
       </c>
-      <c r="G151" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G151" s="25">
+        <v>0</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
         <v>29</v>
       </c>
@@ -7309,11 +8067,14 @@
       <c r="F152" s="7">
         <v>5</v>
       </c>
-      <c r="G152" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="25">
+        <v>0</v>
+      </c>
+      <c r="H152" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>16</v>
       </c>
@@ -7332,11 +8093,14 @@
       <c r="F153" s="7">
         <v>5</v>
       </c>
-      <c r="G153" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="25">
+        <v>0</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>11</v>
       </c>
@@ -7355,11 +8119,14 @@
       <c r="F154" s="7">
         <v>5</v>
       </c>
-      <c r="G154" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G154" s="25">
+        <v>0</v>
+      </c>
+      <c r="H154" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>11</v>
       </c>
@@ -7380,11 +8147,14 @@
       <c r="F155" s="7">
         <v>5</v>
       </c>
-      <c r="G155" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G155" s="25">
+        <v>0</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>11</v>
       </c>
@@ -7403,11 +8173,14 @@
       <c r="F156" s="7">
         <v>5</v>
       </c>
-      <c r="G156" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="25">
+        <v>0</v>
+      </c>
+      <c r="H156" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
         <v>16</v>
       </c>
@@ -7426,11 +8199,14 @@
       <c r="F157" s="7">
         <v>5</v>
       </c>
-      <c r="G157" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G157" s="25">
+        <v>0</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>19</v>
       </c>
@@ -7450,11 +8226,14 @@
       <c r="F158" s="7">
         <v>5</v>
       </c>
-      <c r="G158" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G158" s="25">
+        <v>0</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>16</v>
       </c>
@@ -7473,11 +8252,14 @@
       <c r="F159" s="7">
         <v>5</v>
       </c>
-      <c r="G159" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G159" s="25">
+        <v>0</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>29</v>
       </c>
@@ -7496,11 +8278,14 @@
       <c r="F160" s="7">
         <v>5</v>
       </c>
-      <c r="G160" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G160" s="25">
+        <v>0</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>133</v>
       </c>
@@ -7520,11 +8305,14 @@
       <c r="F161" s="7">
         <v>5</v>
       </c>
-      <c r="G161" s="26">
+      <c r="G161" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H161" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>16</v>
       </c>
@@ -7543,11 +8331,14 @@
       <c r="F162" s="7">
         <v>5</v>
       </c>
-      <c r="G162" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="25">
+        <v>0</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>11</v>
       </c>
@@ -7566,11 +8357,14 @@
       <c r="F163" s="7">
         <v>5</v>
       </c>
-      <c r="G163" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="25">
+        <v>0</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>11</v>
       </c>
@@ -7591,11 +8385,14 @@
       <c r="F164" s="7">
         <v>5</v>
       </c>
-      <c r="G164" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G164" s="25">
+        <v>0</v>
+      </c>
+      <c r="H164" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>11</v>
       </c>
@@ -7614,11 +8411,14 @@
       <c r="F165" s="7">
         <v>5</v>
       </c>
-      <c r="G165" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G165" s="25">
+        <v>0</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>16</v>
       </c>
@@ -7637,11 +8437,14 @@
       <c r="F166" s="7">
         <v>5</v>
       </c>
-      <c r="G166" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G166" s="25">
+        <v>0</v>
+      </c>
+      <c r="H166" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>19</v>
       </c>
@@ -7661,11 +8464,14 @@
       <c r="F167" s="7">
         <v>5</v>
       </c>
-      <c r="G167" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G167" s="25">
+        <v>0</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17" t="s">
         <v>16</v>
       </c>
@@ -7684,11 +8490,14 @@
       <c r="F168" s="7">
         <v>5</v>
       </c>
-      <c r="G168" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G168" s="25">
+        <v>0</v>
+      </c>
+      <c r="H168" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="s">
         <v>29</v>
       </c>
@@ -7707,11 +8516,14 @@
       <c r="F169" s="7">
         <v>5</v>
       </c>
-      <c r="G169" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G169" s="25">
+        <v>0</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
         <v>133</v>
       </c>
@@ -7731,11 +8543,14 @@
       <c r="F170" s="7">
         <v>5</v>
       </c>
-      <c r="G170" s="26">
+      <c r="G170" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H170" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>16</v>
       </c>
@@ -7754,11 +8569,14 @@
       <c r="F171" s="7">
         <v>5</v>
       </c>
-      <c r="G171" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G171" s="25">
+        <v>0</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>11</v>
       </c>
@@ -7777,11 +8595,14 @@
       <c r="F172" s="7">
         <v>5</v>
       </c>
-      <c r="G172" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G172" s="25">
+        <v>0</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
         <v>11</v>
       </c>
@@ -7802,11 +8623,14 @@
       <c r="F173" s="7">
         <v>5</v>
       </c>
-      <c r="G173" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G173" s="25">
+        <v>0</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
         <v>11</v>
       </c>
@@ -7825,11 +8649,14 @@
       <c r="F174" s="7">
         <v>5</v>
       </c>
-      <c r="G174" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G174" s="25">
+        <v>0</v>
+      </c>
+      <c r="H174" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>16</v>
       </c>
@@ -7848,11 +8675,14 @@
       <c r="F175" s="7">
         <v>5</v>
       </c>
-      <c r="G175" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G175" s="25">
+        <v>0</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
         <v>19</v>
       </c>
@@ -7872,11 +8702,14 @@
       <c r="F176" s="7">
         <v>5</v>
       </c>
-      <c r="G176" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G176" s="25">
+        <v>0</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="s">
         <v>16</v>
       </c>
@@ -7895,11 +8728,14 @@
       <c r="F177" s="7">
         <v>5</v>
       </c>
-      <c r="G177" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G177" s="25">
+        <v>0</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="s">
         <v>29</v>
       </c>
@@ -7918,11 +8754,14 @@
       <c r="F178" s="7">
         <v>5</v>
       </c>
-      <c r="G178" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G178" s="25">
+        <v>0</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
         <v>133</v>
       </c>
@@ -7942,11 +8781,14 @@
       <c r="F179" s="7">
         <v>5</v>
       </c>
-      <c r="G179" s="26">
+      <c r="G179" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H179" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
         <v>16</v>
       </c>
@@ -7965,11 +8807,14 @@
       <c r="F180" s="7">
         <v>5</v>
       </c>
-      <c r="G180" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G180" s="25">
+        <v>0</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
         <v>11</v>
       </c>
@@ -7988,11 +8833,14 @@
       <c r="F181" s="7">
         <v>5</v>
       </c>
-      <c r="G181" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G181" s="25">
+        <v>0</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
         <v>11</v>
       </c>
@@ -8013,11 +8861,14 @@
       <c r="F182" s="7">
         <v>5</v>
       </c>
-      <c r="G182" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G182" s="25">
+        <v>0</v>
+      </c>
+      <c r="H182" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>11</v>
       </c>
@@ -8036,11 +8887,14 @@
       <c r="F183" s="7">
         <v>5</v>
       </c>
-      <c r="G183" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G183" s="25">
+        <v>0</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
         <v>16</v>
       </c>
@@ -8059,11 +8913,14 @@
       <c r="F184" s="7">
         <v>5</v>
       </c>
-      <c r="G184" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G184" s="25">
+        <v>0</v>
+      </c>
+      <c r="H184" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
         <v>19</v>
       </c>
@@ -8083,11 +8940,14 @@
       <c r="F185" s="7">
         <v>5</v>
       </c>
-      <c r="G185" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G185" s="25">
+        <v>0</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
         <v>16</v>
       </c>
@@ -8106,11 +8966,14 @@
       <c r="F186" s="7">
         <v>5</v>
       </c>
-      <c r="G186" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G186" s="25">
+        <v>0</v>
+      </c>
+      <c r="H186" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
         <v>29</v>
       </c>
@@ -8129,11 +8992,14 @@
       <c r="F187" s="7">
         <v>5</v>
       </c>
-      <c r="G187" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G187" s="25">
+        <v>0</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="s">
         <v>133</v>
       </c>
@@ -8153,11 +9019,14 @@
       <c r="F188" s="7">
         <v>5</v>
       </c>
-      <c r="G188" s="26">
+      <c r="G188" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H188" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
         <v>16</v>
       </c>
@@ -8176,11 +9045,14 @@
       <c r="F189" s="7">
         <v>5</v>
       </c>
-      <c r="G189" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G189" s="25">
+        <v>0</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
         <v>11</v>
       </c>
@@ -8199,11 +9071,14 @@
       <c r="F190" s="7">
         <v>5</v>
       </c>
-      <c r="G190" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G190" s="25">
+        <v>0</v>
+      </c>
+      <c r="H190" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
         <v>11</v>
       </c>
@@ -8222,11 +9097,14 @@
       <c r="F191" s="7">
         <v>6</v>
       </c>
-      <c r="G191" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G191" s="25">
+        <v>0</v>
+      </c>
+      <c r="H191" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
         <v>11</v>
       </c>
@@ -8245,11 +9123,14 @@
       <c r="F192" s="7">
         <v>6</v>
       </c>
-      <c r="G192" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G192" s="25">
+        <v>0</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
         <v>16</v>
       </c>
@@ -8268,11 +9149,14 @@
       <c r="F193" s="7">
         <v>6</v>
       </c>
-      <c r="G193" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G193" s="25">
+        <v>0</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
         <v>29</v>
       </c>
@@ -8291,11 +9175,14 @@
       <c r="F194" s="7">
         <v>6</v>
       </c>
-      <c r="G194" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G194" s="25">
+        <v>0</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
         <v>16</v>
       </c>
@@ -8314,11 +9201,14 @@
       <c r="F195" s="7">
         <v>6</v>
       </c>
-      <c r="G195" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G195" s="25">
+        <v>0</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
         <v>11</v>
       </c>
@@ -8337,11 +9227,14 @@
       <c r="F196" s="7">
         <v>6</v>
       </c>
-      <c r="G196" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G196" s="25">
+        <v>0</v>
+      </c>
+      <c r="H196" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="s">
         <v>11</v>
       </c>
@@ -8362,11 +9255,14 @@
       <c r="F197" s="7">
         <v>6</v>
       </c>
-      <c r="G197" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G197" s="25">
+        <v>0</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="17" t="s">
         <v>11</v>
       </c>
@@ -8385,11 +9281,14 @@
       <c r="F198" s="7">
         <v>6</v>
       </c>
-      <c r="G198" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G198" s="25">
+        <v>0</v>
+      </c>
+      <c r="H198" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="s">
         <v>16</v>
       </c>
@@ -8408,11 +9307,14 @@
       <c r="F199" s="7">
         <v>6</v>
       </c>
-      <c r="G199" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G199" s="25">
+        <v>0</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="17" t="s">
         <v>19</v>
       </c>
@@ -8432,11 +9334,14 @@
       <c r="F200" s="7">
         <v>6</v>
       </c>
-      <c r="G200" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G200" s="25">
+        <v>0</v>
+      </c>
+      <c r="H200" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="s">
         <v>16</v>
       </c>
@@ -8455,11 +9360,14 @@
       <c r="F201" s="7">
         <v>6</v>
       </c>
-      <c r="G201" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G201" s="25">
+        <v>0</v>
+      </c>
+      <c r="H201" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="17" t="s">
         <v>29</v>
       </c>
@@ -8478,11 +9386,14 @@
       <c r="F202" s="7">
         <v>6</v>
       </c>
-      <c r="G202" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G202" s="25">
+        <v>0</v>
+      </c>
+      <c r="H202" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
         <v>133</v>
       </c>
@@ -8502,11 +9413,14 @@
       <c r="F203" s="7">
         <v>6</v>
       </c>
-      <c r="G203" s="26">
+      <c r="G203" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H203" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="17" t="s">
         <v>16</v>
       </c>
@@ -8525,11 +9439,14 @@
       <c r="F204" s="7">
         <v>6</v>
       </c>
-      <c r="G204" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G204" s="25">
+        <v>0</v>
+      </c>
+      <c r="H204" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
         <v>11</v>
       </c>
@@ -8548,11 +9465,14 @@
       <c r="F205" s="7">
         <v>6</v>
       </c>
-      <c r="G205" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G205" s="25">
+        <v>0</v>
+      </c>
+      <c r="H205" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="17" t="s">
         <v>11</v>
       </c>
@@ -8573,11 +9493,14 @@
       <c r="F206" s="7">
         <v>6</v>
       </c>
-      <c r="G206" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G206" s="25">
+        <v>0</v>
+      </c>
+      <c r="H206" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="s">
         <v>11</v>
       </c>
@@ -8596,11 +9519,14 @@
       <c r="F207" s="7">
         <v>6</v>
       </c>
-      <c r="G207" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G207" s="25">
+        <v>0</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="17" t="s">
         <v>16</v>
       </c>
@@ -8619,11 +9545,14 @@
       <c r="F208" s="7">
         <v>6</v>
       </c>
-      <c r="G208" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G208" s="25">
+        <v>0</v>
+      </c>
+      <c r="H208" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="s">
         <v>19</v>
       </c>
@@ -8643,11 +9572,14 @@
       <c r="F209" s="7">
         <v>6</v>
       </c>
-      <c r="G209" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G209" s="25">
+        <v>0</v>
+      </c>
+      <c r="H209" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="17" t="s">
         <v>16</v>
       </c>
@@ -8666,11 +9598,14 @@
       <c r="F210" s="7">
         <v>6</v>
       </c>
-      <c r="G210" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G210" s="25">
+        <v>0</v>
+      </c>
+      <c r="H210" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="s">
         <v>29</v>
       </c>
@@ -8689,11 +9624,14 @@
       <c r="F211" s="7">
         <v>6</v>
       </c>
-      <c r="G211" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G211" s="25">
+        <v>0</v>
+      </c>
+      <c r="H211" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="17" t="s">
         <v>133</v>
       </c>
@@ -8713,11 +9651,14 @@
       <c r="F212" s="7">
         <v>6</v>
       </c>
-      <c r="G212" s="26">
+      <c r="G212" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H212" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="s">
         <v>16</v>
       </c>
@@ -8736,11 +9677,14 @@
       <c r="F213" s="7">
         <v>6</v>
       </c>
-      <c r="G213" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G213" s="25">
+        <v>0</v>
+      </c>
+      <c r="H213" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="17" t="s">
         <v>11</v>
       </c>
@@ -8759,11 +9703,14 @@
       <c r="F214" s="7">
         <v>6</v>
       </c>
-      <c r="G214" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G214" s="25">
+        <v>0</v>
+      </c>
+      <c r="H214" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="s">
         <v>11</v>
       </c>
@@ -8784,11 +9731,14 @@
       <c r="F215" s="7">
         <v>6</v>
       </c>
-      <c r="G215" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G215" s="25">
+        <v>0</v>
+      </c>
+      <c r="H215" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="17" t="s">
         <v>11</v>
       </c>
@@ -8807,11 +9757,14 @@
       <c r="F216" s="7">
         <v>6</v>
       </c>
-      <c r="G216" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G216" s="25">
+        <v>0</v>
+      </c>
+      <c r="H216" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="s">
         <v>16</v>
       </c>
@@ -8830,11 +9783,14 @@
       <c r="F217" s="7">
         <v>6</v>
       </c>
-      <c r="G217" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G217" s="25">
+        <v>0</v>
+      </c>
+      <c r="H217" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="17" t="s">
         <v>19</v>
       </c>
@@ -8854,11 +9810,14 @@
       <c r="F218" s="7">
         <v>6</v>
       </c>
-      <c r="G218" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G218" s="25">
+        <v>0</v>
+      </c>
+      <c r="H218" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="s">
         <v>16</v>
       </c>
@@ -8877,11 +9836,14 @@
       <c r="F219" s="7">
         <v>6</v>
       </c>
-      <c r="G219" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G219" s="25">
+        <v>0</v>
+      </c>
+      <c r="H219" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="17" t="s">
         <v>29</v>
       </c>
@@ -8900,11 +9862,14 @@
       <c r="F220" s="7">
         <v>6</v>
       </c>
-      <c r="G220" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G220" s="25">
+        <v>0</v>
+      </c>
+      <c r="H220" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="s">
         <v>133</v>
       </c>
@@ -8924,11 +9889,14 @@
       <c r="F221" s="7">
         <v>6</v>
       </c>
-      <c r="G221" s="26">
+      <c r="G221" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H221" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="17" t="s">
         <v>16</v>
       </c>
@@ -8947,11 +9915,14 @@
       <c r="F222" s="7">
         <v>6</v>
       </c>
-      <c r="G222" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G222" s="25">
+        <v>0</v>
+      </c>
+      <c r="H222" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="17" t="s">
         <v>11</v>
       </c>
@@ -8970,11 +9941,14 @@
       <c r="F223" s="7">
         <v>6</v>
       </c>
-      <c r="G223" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G223" s="25">
+        <v>0</v>
+      </c>
+      <c r="H223" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="17" t="s">
         <v>11</v>
       </c>
@@ -8995,11 +9969,14 @@
       <c r="F224" s="7">
         <v>6</v>
       </c>
-      <c r="G224" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G224" s="25">
+        <v>0</v>
+      </c>
+      <c r="H224" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="17" t="s">
         <v>11</v>
       </c>
@@ -9018,11 +9995,14 @@
       <c r="F225" s="7">
         <v>6</v>
       </c>
-      <c r="G225" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G225" s="25">
+        <v>0</v>
+      </c>
+      <c r="H225" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="17" t="s">
         <v>16</v>
       </c>
@@ -9041,11 +10021,14 @@
       <c r="F226" s="7">
         <v>6</v>
       </c>
-      <c r="G226" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G226" s="25">
+        <v>0</v>
+      </c>
+      <c r="H226" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="s">
         <v>19</v>
       </c>
@@ -9065,11 +10048,14 @@
       <c r="F227" s="7">
         <v>6</v>
       </c>
-      <c r="G227" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G227" s="25">
+        <v>0</v>
+      </c>
+      <c r="H227" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="17" t="s">
         <v>16</v>
       </c>
@@ -9088,11 +10074,14 @@
       <c r="F228" s="7">
         <v>6</v>
       </c>
-      <c r="G228" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G228" s="25">
+        <v>0</v>
+      </c>
+      <c r="H228" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="17" t="s">
         <v>29</v>
       </c>
@@ -9111,11 +10100,14 @@
       <c r="F229" s="7">
         <v>6</v>
       </c>
-      <c r="G229" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G229" s="25">
+        <v>0</v>
+      </c>
+      <c r="H229" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="17" t="s">
         <v>133</v>
       </c>
@@ -9135,11 +10127,14 @@
       <c r="F230" s="7">
         <v>6</v>
       </c>
-      <c r="G230" s="26">
+      <c r="G230" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H230" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="17" t="s">
         <v>16</v>
       </c>
@@ -9158,11 +10153,14 @@
       <c r="F231" s="7">
         <v>6</v>
       </c>
-      <c r="G231" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G231" s="25">
+        <v>0</v>
+      </c>
+      <c r="H231" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="17" t="s">
         <v>11</v>
       </c>
@@ -9181,11 +10179,14 @@
       <c r="F232" s="7">
         <v>6</v>
       </c>
-      <c r="G232" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G232" s="25">
+        <v>0</v>
+      </c>
+      <c r="H232" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="17" t="s">
         <v>11</v>
       </c>
@@ -9204,11 +10205,14 @@
       <c r="F233" s="7">
         <v>7</v>
       </c>
-      <c r="G233" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G233" s="25">
+        <v>0</v>
+      </c>
+      <c r="H233" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="17" t="s">
         <v>11</v>
       </c>
@@ -9227,11 +10231,14 @@
       <c r="F234" s="7">
         <v>7</v>
       </c>
-      <c r="G234" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G234" s="25">
+        <v>0</v>
+      </c>
+      <c r="H234" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="17" t="s">
         <v>16</v>
       </c>
@@ -9250,11 +10257,14 @@
       <c r="F235" s="7">
         <v>7</v>
       </c>
-      <c r="G235" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G235" s="25">
+        <v>0</v>
+      </c>
+      <c r="H235" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="17" t="s">
         <v>29</v>
       </c>
@@ -9273,11 +10283,14 @@
       <c r="F236" s="7">
         <v>7</v>
       </c>
-      <c r="G236" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G236" s="25">
+        <v>0</v>
+      </c>
+      <c r="H236" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="17" t="s">
         <v>16</v>
       </c>
@@ -9296,11 +10309,14 @@
       <c r="F237" s="7">
         <v>7</v>
       </c>
-      <c r="G237" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G237" s="25">
+        <v>0</v>
+      </c>
+      <c r="H237" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="17" t="s">
         <v>11</v>
       </c>
@@ -9319,11 +10335,14 @@
       <c r="F238" s="7">
         <v>7</v>
       </c>
-      <c r="G238" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G238" s="25">
+        <v>0</v>
+      </c>
+      <c r="H238" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="17" t="s">
         <v>11</v>
       </c>
@@ -9344,11 +10363,14 @@
       <c r="F239" s="7">
         <v>7</v>
       </c>
-      <c r="G239" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G239" s="25">
+        <v>0</v>
+      </c>
+      <c r="H239" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="17" t="s">
         <v>11</v>
       </c>
@@ -9367,11 +10389,14 @@
       <c r="F240" s="7">
         <v>7</v>
       </c>
-      <c r="G240" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G240" s="25">
+        <v>0</v>
+      </c>
+      <c r="H240" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="17" t="s">
         <v>16</v>
       </c>
@@ -9390,11 +10415,14 @@
       <c r="F241" s="7">
         <v>7</v>
       </c>
-      <c r="G241" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G241" s="25">
+        <v>0</v>
+      </c>
+      <c r="H241" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="17" t="s">
         <v>19</v>
       </c>
@@ -9414,11 +10442,14 @@
       <c r="F242" s="7">
         <v>7</v>
       </c>
-      <c r="G242" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G242" s="25">
+        <v>0</v>
+      </c>
+      <c r="H242" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="17" t="s">
         <v>16</v>
       </c>
@@ -9437,11 +10468,14 @@
       <c r="F243" s="7">
         <v>7</v>
       </c>
-      <c r="G243" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G243" s="25">
+        <v>0</v>
+      </c>
+      <c r="H243" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="17" t="s">
         <v>29</v>
       </c>
@@ -9460,11 +10494,14 @@
       <c r="F244" s="7">
         <v>7</v>
       </c>
-      <c r="G244" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G244" s="25">
+        <v>0</v>
+      </c>
+      <c r="H244" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="17" t="s">
         <v>133</v>
       </c>
@@ -9484,11 +10521,14 @@
       <c r="F245" s="7">
         <v>7</v>
       </c>
-      <c r="G245" s="26">
+      <c r="G245" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H245" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="17" t="s">
         <v>16</v>
       </c>
@@ -9507,11 +10547,14 @@
       <c r="F246" s="7">
         <v>7</v>
       </c>
-      <c r="G246" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G246" s="25">
+        <v>0</v>
+      </c>
+      <c r="H246" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="17" t="s">
         <v>11</v>
       </c>
@@ -9530,11 +10573,14 @@
       <c r="F247" s="7">
         <v>7</v>
       </c>
-      <c r="G247" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G247" s="25">
+        <v>0</v>
+      </c>
+      <c r="H247" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="17" t="s">
         <v>11</v>
       </c>
@@ -9554,11 +10600,14 @@
       <c r="F248" s="7">
         <v>7</v>
       </c>
-      <c r="G248" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G248" s="25">
+        <v>0</v>
+      </c>
+      <c r="H248" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="17" t="s">
         <v>11</v>
       </c>
@@ -9577,11 +10626,14 @@
       <c r="F249" s="7">
         <v>7</v>
       </c>
-      <c r="G249" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G249" s="25">
+        <v>0</v>
+      </c>
+      <c r="H249" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="17" t="s">
         <v>16</v>
       </c>
@@ -9600,11 +10652,14 @@
       <c r="F250" s="7">
         <v>7</v>
       </c>
-      <c r="G250" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G250" s="25">
+        <v>0</v>
+      </c>
+      <c r="H250" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="s">
         <v>19</v>
       </c>
@@ -9624,11 +10679,14 @@
       <c r="F251" s="7">
         <v>7</v>
       </c>
-      <c r="G251" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G251" s="25">
+        <v>0</v>
+      </c>
+      <c r="H251" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="17" t="s">
         <v>16</v>
       </c>
@@ -9647,11 +10705,14 @@
       <c r="F252" s="7">
         <v>7</v>
       </c>
-      <c r="G252" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G252" s="25">
+        <v>0</v>
+      </c>
+      <c r="H252" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="17" t="s">
         <v>29</v>
       </c>
@@ -9670,11 +10731,14 @@
       <c r="F253" s="7">
         <v>7</v>
       </c>
-      <c r="G253" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G253" s="25">
+        <v>0</v>
+      </c>
+      <c r="H253" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="17" t="s">
         <v>133</v>
       </c>
@@ -9693,11 +10757,14 @@
       <c r="F254" s="7">
         <v>7</v>
       </c>
-      <c r="G254" s="26">
+      <c r="G254" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H254" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="17" t="s">
         <v>16</v>
       </c>
@@ -9716,11 +10783,14 @@
       <c r="F255" s="7">
         <v>7</v>
       </c>
-      <c r="G255" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G255" s="25">
+        <v>0</v>
+      </c>
+      <c r="H255" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="17" t="s">
         <v>11</v>
       </c>
@@ -9739,11 +10809,14 @@
       <c r="F256" s="7">
         <v>7</v>
       </c>
-      <c r="G256" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G256" s="25">
+        <v>0</v>
+      </c>
+      <c r="H256" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="s">
         <v>11</v>
       </c>
@@ -9764,11 +10837,14 @@
       <c r="F257" s="7">
         <v>7</v>
       </c>
-      <c r="G257" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G257" s="25">
+        <v>0</v>
+      </c>
+      <c r="H257" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="17" t="s">
         <v>11</v>
       </c>
@@ -9787,11 +10863,14 @@
       <c r="F258" s="7">
         <v>7</v>
       </c>
-      <c r="G258" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G258" s="25">
+        <v>0</v>
+      </c>
+      <c r="H258" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="17" t="s">
         <v>16</v>
       </c>
@@ -9810,11 +10889,14 @@
       <c r="F259" s="7">
         <v>7</v>
       </c>
-      <c r="G259" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G259" s="25">
+        <v>0</v>
+      </c>
+      <c r="H259" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="17" t="s">
         <v>19</v>
       </c>
@@ -9834,11 +10916,14 @@
       <c r="F260" s="7">
         <v>7</v>
       </c>
-      <c r="G260" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G260" s="25">
+        <v>0</v>
+      </c>
+      <c r="H260" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="s">
         <v>16</v>
       </c>
@@ -9857,11 +10942,14 @@
       <c r="F261" s="7">
         <v>7</v>
       </c>
-      <c r="G261" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G261" s="25">
+        <v>0</v>
+      </c>
+      <c r="H261" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="17" t="s">
         <v>29</v>
       </c>
@@ -9880,11 +10968,14 @@
       <c r="F262" s="7">
         <v>7</v>
       </c>
-      <c r="G262" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G262" s="25">
+        <v>0</v>
+      </c>
+      <c r="H262" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="17" t="s">
         <v>133</v>
       </c>
@@ -9904,11 +10995,14 @@
       <c r="F263" s="7">
         <v>7</v>
       </c>
-      <c r="G263" s="26">
+      <c r="G263" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H263" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="17" t="s">
         <v>16</v>
       </c>
@@ -9927,11 +11021,14 @@
       <c r="F264" s="7">
         <v>7</v>
       </c>
-      <c r="G264" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G264" s="25">
+        <v>0</v>
+      </c>
+      <c r="H264" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="17" t="s">
         <v>11</v>
       </c>
@@ -9950,11 +11047,14 @@
       <c r="F265" s="7">
         <v>7</v>
       </c>
-      <c r="G265" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G265" s="25">
+        <v>0</v>
+      </c>
+      <c r="H265" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="17" t="s">
         <v>11</v>
       </c>
@@ -9975,11 +11075,14 @@
       <c r="F266" s="7">
         <v>7</v>
       </c>
-      <c r="G266" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G266" s="25">
+        <v>0</v>
+      </c>
+      <c r="H266" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="17" t="s">
         <v>11</v>
       </c>
@@ -9998,11 +11101,14 @@
       <c r="F267" s="7">
         <v>7</v>
       </c>
-      <c r="G267" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G267" s="25">
+        <v>0</v>
+      </c>
+      <c r="H267" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="17" t="s">
         <v>16</v>
       </c>
@@ -10021,11 +11127,14 @@
       <c r="F268" s="7">
         <v>7</v>
       </c>
-      <c r="G268" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G268" s="25">
+        <v>0</v>
+      </c>
+      <c r="H268" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="17" t="s">
         <v>19</v>
       </c>
@@ -10045,11 +11154,14 @@
       <c r="F269" s="7">
         <v>7</v>
       </c>
-      <c r="G269" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G269" s="25">
+        <v>0</v>
+      </c>
+      <c r="H269" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="17" t="s">
         <v>16</v>
       </c>
@@ -10068,11 +11180,14 @@
       <c r="F270" s="7">
         <v>7</v>
       </c>
-      <c r="G270" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G270" s="25">
+        <v>0</v>
+      </c>
+      <c r="H270" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="17" t="s">
         <v>29</v>
       </c>
@@ -10091,11 +11206,14 @@
       <c r="F271" s="7">
         <v>7</v>
       </c>
-      <c r="G271" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G271" s="25">
+        <v>0</v>
+      </c>
+      <c r="H271" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="17" t="s">
         <v>133</v>
       </c>
@@ -10115,11 +11233,14 @@
       <c r="F272" s="7">
         <v>7</v>
       </c>
-      <c r="G272" s="26">
+      <c r="G272" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H272" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="17" t="s">
         <v>16</v>
       </c>
@@ -10138,11 +11259,14 @@
       <c r="F273" s="7">
         <v>7</v>
       </c>
-      <c r="G273" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G273" s="25">
+        <v>0</v>
+      </c>
+      <c r="H273" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="s">
         <v>11</v>
       </c>
@@ -10161,11 +11285,14 @@
       <c r="F274" s="7">
         <v>7</v>
       </c>
-      <c r="G274" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G274" s="25">
+        <v>0</v>
+      </c>
+      <c r="H274" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="s">
         <v>11</v>
       </c>
@@ -10184,11 +11311,14 @@
       <c r="F275" s="7">
         <v>8</v>
       </c>
-      <c r="G275" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G275" s="25">
+        <v>0</v>
+      </c>
+      <c r="H275" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="s">
         <v>11</v>
       </c>
@@ -10207,11 +11337,14 @@
       <c r="F276" s="7">
         <v>8</v>
       </c>
-      <c r="G276" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G276" s="25">
+        <v>0</v>
+      </c>
+      <c r="H276" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="17" t="s">
         <v>16</v>
       </c>
@@ -10230,11 +11363,14 @@
       <c r="F277" s="7">
         <v>8</v>
       </c>
-      <c r="G277" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G277" s="25">
+        <v>0</v>
+      </c>
+      <c r="H277" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="17" t="s">
         <v>29</v>
       </c>
@@ -10253,11 +11389,14 @@
       <c r="F278" s="7">
         <v>8</v>
       </c>
-      <c r="G278" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G278" s="25">
+        <v>0</v>
+      </c>
+      <c r="H278" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="17" t="s">
         <v>16</v>
       </c>
@@ -10276,11 +11415,14 @@
       <c r="F279" s="7">
         <v>8</v>
       </c>
-      <c r="G279" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G279" s="25">
+        <v>0</v>
+      </c>
+      <c r="H279" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="17" t="s">
         <v>11</v>
       </c>
@@ -10299,11 +11441,14 @@
       <c r="F280" s="7">
         <v>8</v>
       </c>
-      <c r="G280" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G280" s="25">
+        <v>0</v>
+      </c>
+      <c r="H280" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="s">
         <v>11</v>
       </c>
@@ -10324,11 +11469,14 @@
       <c r="F281" s="7">
         <v>8</v>
       </c>
-      <c r="G281" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G281" s="25">
+        <v>0</v>
+      </c>
+      <c r="H281" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="17" t="s">
         <v>11</v>
       </c>
@@ -10347,11 +11495,14 @@
       <c r="F282" s="7">
         <v>8</v>
       </c>
-      <c r="G282" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G282" s="25">
+        <v>0</v>
+      </c>
+      <c r="H282" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="17" t="s">
         <v>16</v>
       </c>
@@ -10370,11 +11521,14 @@
       <c r="F283" s="7">
         <v>8</v>
       </c>
-      <c r="G283" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G283" s="25">
+        <v>0</v>
+      </c>
+      <c r="H283" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="17" t="s">
         <v>19</v>
       </c>
@@ -10394,11 +11548,14 @@
       <c r="F284" s="7">
         <v>8</v>
       </c>
-      <c r="G284" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G284" s="25">
+        <v>0</v>
+      </c>
+      <c r="H284" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="s">
         <v>16</v>
       </c>
@@ -10417,11 +11574,14 @@
       <c r="F285" s="7">
         <v>8</v>
       </c>
-      <c r="G285" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G285" s="25">
+        <v>0</v>
+      </c>
+      <c r="H285" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="17" t="s">
         <v>29</v>
       </c>
@@ -10440,11 +11600,14 @@
       <c r="F286" s="7">
         <v>8</v>
       </c>
-      <c r="G286" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G286" s="25">
+        <v>0</v>
+      </c>
+      <c r="H286" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="17" t="s">
         <v>133</v>
       </c>
@@ -10464,11 +11627,14 @@
       <c r="F287" s="7">
         <v>8</v>
       </c>
-      <c r="G287" s="26">
+      <c r="G287" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H287" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="s">
         <v>16</v>
       </c>
@@ -10487,11 +11653,14 @@
       <c r="F288" s="7">
         <v>8</v>
       </c>
-      <c r="G288" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G288" s="25">
+        <v>0</v>
+      </c>
+      <c r="H288" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="17" t="s">
         <v>11</v>
       </c>
@@ -10510,11 +11679,14 @@
       <c r="F289" s="7">
         <v>8</v>
       </c>
-      <c r="G289" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G289" s="25">
+        <v>0</v>
+      </c>
+      <c r="H289" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="17" t="s">
         <v>11</v>
       </c>
@@ -10535,11 +11707,14 @@
       <c r="F290" s="7">
         <v>8</v>
       </c>
-      <c r="G290" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G290" s="25">
+        <v>0</v>
+      </c>
+      <c r="H290" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="17" t="s">
         <v>11</v>
       </c>
@@ -10558,11 +11733,14 @@
       <c r="F291" s="7">
         <v>8</v>
       </c>
-      <c r="G291" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G291" s="25">
+        <v>0</v>
+      </c>
+      <c r="H291" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="17" t="s">
         <v>16</v>
       </c>
@@ -10581,11 +11759,14 @@
       <c r="F292" s="7">
         <v>8</v>
       </c>
-      <c r="G292" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G292" s="25">
+        <v>0</v>
+      </c>
+      <c r="H292" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="17" t="s">
         <v>19</v>
       </c>
@@ -10605,11 +11786,14 @@
       <c r="F293" s="7">
         <v>8</v>
       </c>
-      <c r="G293" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G293" s="25">
+        <v>0</v>
+      </c>
+      <c r="H293" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="s">
         <v>16</v>
       </c>
@@ -10628,11 +11812,14 @@
       <c r="F294" s="7">
         <v>8</v>
       </c>
-      <c r="G294" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G294" s="25">
+        <v>0</v>
+      </c>
+      <c r="H294" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="17" t="s">
         <v>29</v>
       </c>
@@ -10651,11 +11838,14 @@
       <c r="F295" s="7">
         <v>8</v>
       </c>
-      <c r="G295" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G295" s="25">
+        <v>0</v>
+      </c>
+      <c r="H295" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="s">
         <v>133</v>
       </c>
@@ -10675,11 +11865,14 @@
       <c r="F296" s="7">
         <v>8</v>
       </c>
-      <c r="G296" s="26">
+      <c r="G296" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H296" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="17" t="s">
         <v>16</v>
       </c>
@@ -10698,11 +11891,14 @@
       <c r="F297" s="7">
         <v>8</v>
       </c>
-      <c r="G297" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G297" s="25">
+        <v>0</v>
+      </c>
+      <c r="H297" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="s">
         <v>11</v>
       </c>
@@ -10721,11 +11917,14 @@
       <c r="F298" s="7">
         <v>8</v>
       </c>
-      <c r="G298" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G298" s="25">
+        <v>0</v>
+      </c>
+      <c r="H298" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="17" t="s">
         <v>11</v>
       </c>
@@ -10746,11 +11945,14 @@
       <c r="F299" s="7">
         <v>8</v>
       </c>
-      <c r="G299" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G299" s="25">
+        <v>0</v>
+      </c>
+      <c r="H299" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="17" t="s">
         <v>11</v>
       </c>
@@ -10769,11 +11971,14 @@
       <c r="F300" s="7">
         <v>8</v>
       </c>
-      <c r="G300" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G300" s="25">
+        <v>0</v>
+      </c>
+      <c r="H300" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="17" t="s">
         <v>16</v>
       </c>
@@ -10792,11 +11997,14 @@
       <c r="F301" s="7">
         <v>8</v>
       </c>
-      <c r="G301" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G301" s="25">
+        <v>0</v>
+      </c>
+      <c r="H301" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="17" t="s">
         <v>19</v>
       </c>
@@ -10816,11 +12024,14 @@
       <c r="F302" s="7">
         <v>8</v>
       </c>
-      <c r="G302" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G302" s="25">
+        <v>0</v>
+      </c>
+      <c r="H302" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="17" t="s">
         <v>16</v>
       </c>
@@ -10839,11 +12050,14 @@
       <c r="F303" s="7">
         <v>8</v>
       </c>
-      <c r="G303" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G303" s="25">
+        <v>0</v>
+      </c>
+      <c r="H303" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="17" t="s">
         <v>29</v>
       </c>
@@ -10862,11 +12076,14 @@
       <c r="F304" s="7">
         <v>8</v>
       </c>
-      <c r="G304" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G304" s="25">
+        <v>0</v>
+      </c>
+      <c r="H304" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="17" t="s">
         <v>133</v>
       </c>
@@ -10886,11 +12103,14 @@
       <c r="F305" s="7">
         <v>8</v>
       </c>
-      <c r="G305" s="26">
+      <c r="G305" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H305" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="17" t="s">
         <v>16</v>
       </c>
@@ -10909,11 +12129,14 @@
       <c r="F306" s="7">
         <v>8</v>
       </c>
-      <c r="G306" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G306" s="25">
+        <v>0</v>
+      </c>
+      <c r="H306" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="17" t="s">
         <v>11</v>
       </c>
@@ -10932,11 +12155,14 @@
       <c r="F307" s="7">
         <v>8</v>
       </c>
-      <c r="G307" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G307" s="25">
+        <v>0</v>
+      </c>
+      <c r="H307" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="17" t="s">
         <v>11</v>
       </c>
@@ -10957,11 +12183,14 @@
       <c r="F308" s="7">
         <v>8</v>
       </c>
-      <c r="G308" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G308" s="25">
+        <v>0</v>
+      </c>
+      <c r="H308" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="17" t="s">
         <v>11</v>
       </c>
@@ -10980,11 +12209,14 @@
       <c r="F309" s="7">
         <v>8</v>
       </c>
-      <c r="G309" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G309" s="25">
+        <v>0</v>
+      </c>
+      <c r="H309" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="17" t="s">
         <v>16</v>
       </c>
@@ -11003,11 +12235,14 @@
       <c r="F310" s="7">
         <v>8</v>
       </c>
-      <c r="G310" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G310" s="25">
+        <v>0</v>
+      </c>
+      <c r="H310" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="17" t="s">
         <v>19</v>
       </c>
@@ -11027,11 +12262,14 @@
       <c r="F311" s="7">
         <v>8</v>
       </c>
-      <c r="G311" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G311" s="25">
+        <v>0</v>
+      </c>
+      <c r="H311" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="17" t="s">
         <v>16</v>
       </c>
@@ -11050,11 +12288,14 @@
       <c r="F312" s="7">
         <v>8</v>
       </c>
-      <c r="G312" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G312" s="25">
+        <v>0</v>
+      </c>
+      <c r="H312" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="s">
         <v>29</v>
       </c>
@@ -11073,11 +12314,14 @@
       <c r="F313" s="7">
         <v>8</v>
       </c>
-      <c r="G313" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G313" s="25">
+        <v>0</v>
+      </c>
+      <c r="H313" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="17" t="s">
         <v>133</v>
       </c>
@@ -11097,11 +12341,14 @@
       <c r="F314" s="7">
         <v>8</v>
       </c>
-      <c r="G314" s="26">
+      <c r="G314" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H314" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="17" t="s">
         <v>16</v>
       </c>
@@ -11120,11 +12367,14 @@
       <c r="F315" s="7">
         <v>8</v>
       </c>
-      <c r="G315" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G315" s="25">
+        <v>0</v>
+      </c>
+      <c r="H315" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="17" t="s">
         <v>11</v>
       </c>
@@ -11143,11 +12393,14 @@
       <c r="F316" s="7">
         <v>8</v>
       </c>
-      <c r="G316" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G316" s="25">
+        <v>0</v>
+      </c>
+      <c r="H316" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="s">
         <v>11</v>
       </c>
@@ -11166,11 +12419,14 @@
       <c r="F317" s="7">
         <v>9</v>
       </c>
-      <c r="G317" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G317" s="25">
+        <v>0</v>
+      </c>
+      <c r="H317" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="17" t="s">
         <v>11</v>
       </c>
@@ -11189,11 +12445,14 @@
       <c r="F318" s="7">
         <v>9</v>
       </c>
-      <c r="G318" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G318" s="25">
+        <v>0</v>
+      </c>
+      <c r="H318" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="17" t="s">
         <v>16</v>
       </c>
@@ -11212,11 +12471,14 @@
       <c r="F319" s="7">
         <v>9</v>
       </c>
-      <c r="G319" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G319" s="25">
+        <v>0</v>
+      </c>
+      <c r="H319" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="17" t="s">
         <v>29</v>
       </c>
@@ -11235,11 +12497,14 @@
       <c r="F320" s="7">
         <v>9</v>
       </c>
-      <c r="G320" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G320" s="25">
+        <v>0</v>
+      </c>
+      <c r="H320" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="17" t="s">
         <v>16</v>
       </c>
@@ -11258,11 +12523,14 @@
       <c r="F321" s="7">
         <v>9</v>
       </c>
-      <c r="G321" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G321" s="25">
+        <v>0</v>
+      </c>
+      <c r="H321" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="17" t="s">
         <v>11</v>
       </c>
@@ -11281,11 +12549,14 @@
       <c r="F322" s="7">
         <v>9</v>
       </c>
-      <c r="G322" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G322" s="25">
+        <v>0</v>
+      </c>
+      <c r="H322" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="17" t="s">
         <v>11</v>
       </c>
@@ -11306,11 +12577,14 @@
       <c r="F323" s="7">
         <v>9</v>
       </c>
-      <c r="G323" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G323" s="25">
+        <v>0</v>
+      </c>
+      <c r="H323" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="17" t="s">
         <v>11</v>
       </c>
@@ -11329,11 +12603,14 @@
       <c r="F324" s="7">
         <v>9</v>
       </c>
-      <c r="G324" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G324" s="25">
+        <v>0</v>
+      </c>
+      <c r="H324" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="s">
         <v>16</v>
       </c>
@@ -11352,11 +12629,14 @@
       <c r="F325" s="7">
         <v>9</v>
       </c>
-      <c r="G325" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G325" s="25">
+        <v>0</v>
+      </c>
+      <c r="H325" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="17" t="s">
         <v>19</v>
       </c>
@@ -11376,11 +12656,14 @@
       <c r="F326" s="7">
         <v>9</v>
       </c>
-      <c r="G326" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G326" s="25">
+        <v>0</v>
+      </c>
+      <c r="H326" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="17" t="s">
         <v>16</v>
       </c>
@@ -11399,11 +12682,14 @@
       <c r="F327" s="7">
         <v>9</v>
       </c>
-      <c r="G327" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G327" s="25">
+        <v>0</v>
+      </c>
+      <c r="H327" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="17" t="s">
         <v>29</v>
       </c>
@@ -11422,11 +12708,14 @@
       <c r="F328" s="7">
         <v>9</v>
       </c>
-      <c r="G328" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G328" s="25">
+        <v>0</v>
+      </c>
+      <c r="H328" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="17" t="s">
         <v>133</v>
       </c>
@@ -11446,11 +12735,14 @@
       <c r="F329" s="7">
         <v>9</v>
       </c>
-      <c r="G329" s="26">
+      <c r="G329" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H329" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="17" t="s">
         <v>16</v>
       </c>
@@ -11469,11 +12761,14 @@
       <c r="F330" s="7">
         <v>9</v>
       </c>
-      <c r="G330" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G330" s="25">
+        <v>0</v>
+      </c>
+      <c r="H330" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="17" t="s">
         <v>11</v>
       </c>
@@ -11492,11 +12787,14 @@
       <c r="F331" s="7">
         <v>9</v>
       </c>
-      <c r="G331" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G331" s="25">
+        <v>0</v>
+      </c>
+      <c r="H331" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="17" t="s">
         <v>11</v>
       </c>
@@ -11517,11 +12815,14 @@
       <c r="F332" s="7">
         <v>9</v>
       </c>
-      <c r="G332" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G332" s="25">
+        <v>0</v>
+      </c>
+      <c r="H332" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="17" t="s">
         <v>11</v>
       </c>
@@ -11540,11 +12841,14 @@
       <c r="F333" s="7">
         <v>9</v>
       </c>
-      <c r="G333" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G333" s="25">
+        <v>0</v>
+      </c>
+      <c r="H333" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="17" t="s">
         <v>16</v>
       </c>
@@ -11563,11 +12867,14 @@
       <c r="F334" s="7">
         <v>9</v>
       </c>
-      <c r="G334" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G334" s="25">
+        <v>0</v>
+      </c>
+      <c r="H334" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="17" t="s">
         <v>19</v>
       </c>
@@ -11587,11 +12894,14 @@
       <c r="F335" s="7">
         <v>9</v>
       </c>
-      <c r="G335" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G335" s="25">
+        <v>0</v>
+      </c>
+      <c r="H335" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="17" t="s">
         <v>16</v>
       </c>
@@ -11610,11 +12920,14 @@
       <c r="F336" s="7">
         <v>9</v>
       </c>
-      <c r="G336" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G336" s="25">
+        <v>0</v>
+      </c>
+      <c r="H336" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="17" t="s">
         <v>29</v>
       </c>
@@ -11633,11 +12946,14 @@
       <c r="F337" s="7">
         <v>9</v>
       </c>
-      <c r="G337" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G337" s="25">
+        <v>0</v>
+      </c>
+      <c r="H337" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="17" t="s">
         <v>133</v>
       </c>
@@ -11657,11 +12973,14 @@
       <c r="F338" s="7">
         <v>9</v>
       </c>
-      <c r="G338" s="26">
+      <c r="G338" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H338" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="17" t="s">
         <v>16</v>
       </c>
@@ -11680,11 +12999,14 @@
       <c r="F339" s="7">
         <v>9</v>
       </c>
-      <c r="G339" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G339" s="25">
+        <v>0</v>
+      </c>
+      <c r="H339" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="17" t="s">
         <v>11</v>
       </c>
@@ -11703,11 +13025,14 @@
       <c r="F340" s="7">
         <v>9</v>
       </c>
-      <c r="G340" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G340" s="25">
+        <v>0</v>
+      </c>
+      <c r="H340" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="17" t="s">
         <v>11</v>
       </c>
@@ -11728,11 +13053,14 @@
       <c r="F341" s="7">
         <v>9</v>
       </c>
-      <c r="G341" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G341" s="25">
+        <v>0</v>
+      </c>
+      <c r="H341" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="17" t="s">
         <v>11</v>
       </c>
@@ -11751,11 +13079,14 @@
       <c r="F342" s="7">
         <v>9</v>
       </c>
-      <c r="G342" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G342" s="25">
+        <v>0</v>
+      </c>
+      <c r="H342" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="17" t="s">
         <v>16</v>
       </c>
@@ -11774,11 +13105,14 @@
       <c r="F343" s="7">
         <v>9</v>
       </c>
-      <c r="G343" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G343" s="25">
+        <v>0</v>
+      </c>
+      <c r="H343" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="17" t="s">
         <v>19</v>
       </c>
@@ -11798,11 +13132,14 @@
       <c r="F344" s="7">
         <v>9</v>
       </c>
-      <c r="G344" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G344" s="25">
+        <v>0</v>
+      </c>
+      <c r="H344" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="17" t="s">
         <v>16</v>
       </c>
@@ -11821,11 +13158,14 @@
       <c r="F345" s="7">
         <v>9</v>
       </c>
-      <c r="G345" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G345" s="25">
+        <v>0</v>
+      </c>
+      <c r="H345" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="17" t="s">
         <v>29</v>
       </c>
@@ -11844,11 +13184,14 @@
       <c r="F346" s="7">
         <v>9</v>
       </c>
-      <c r="G346" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G346" s="25">
+        <v>0</v>
+      </c>
+      <c r="H346" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="17" t="s">
         <v>133</v>
       </c>
@@ -11868,11 +13211,14 @@
       <c r="F347" s="7">
         <v>9</v>
       </c>
-      <c r="G347" s="26">
+      <c r="G347" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H347" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="17" t="s">
         <v>16</v>
       </c>
@@ -11891,11 +13237,14 @@
       <c r="F348" s="7">
         <v>9</v>
       </c>
-      <c r="G348" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G348" s="25">
+        <v>0</v>
+      </c>
+      <c r="H348" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="17" t="s">
         <v>11</v>
       </c>
@@ -11914,11 +13263,14 @@
       <c r="F349" s="7">
         <v>9</v>
       </c>
-      <c r="G349" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G349" s="25">
+        <v>0</v>
+      </c>
+      <c r="H349" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="17" t="s">
         <v>11</v>
       </c>
@@ -11939,11 +13291,14 @@
       <c r="F350" s="7">
         <v>9</v>
       </c>
-      <c r="G350" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G350" s="25">
+        <v>0</v>
+      </c>
+      <c r="H350" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="17" t="s">
         <v>11</v>
       </c>
@@ -11962,11 +13317,14 @@
       <c r="F351" s="7">
         <v>9</v>
       </c>
-      <c r="G351" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G351" s="25">
+        <v>0</v>
+      </c>
+      <c r="H351" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="17" t="s">
         <v>16</v>
       </c>
@@ -11985,11 +13343,14 @@
       <c r="F352" s="7">
         <v>9</v>
       </c>
-      <c r="G352" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G352" s="25">
+        <v>0</v>
+      </c>
+      <c r="H352" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="17" t="s">
         <v>19</v>
       </c>
@@ -12009,11 +13370,14 @@
       <c r="F353" s="7">
         <v>9</v>
       </c>
-      <c r="G353" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G353" s="25">
+        <v>0</v>
+      </c>
+      <c r="H353" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="17" t="s">
         <v>16</v>
       </c>
@@ -12032,11 +13396,14 @@
       <c r="F354" s="7">
         <v>9</v>
       </c>
-      <c r="G354" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G354" s="25">
+        <v>0</v>
+      </c>
+      <c r="H354" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="17" t="s">
         <v>29</v>
       </c>
@@ -12055,11 +13422,14 @@
       <c r="F355" s="7">
         <v>9</v>
       </c>
-      <c r="G355" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G355" s="25">
+        <v>0</v>
+      </c>
+      <c r="H355" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="17" t="s">
         <v>133</v>
       </c>
@@ -12079,11 +13449,14 @@
       <c r="F356" s="7">
         <v>9</v>
       </c>
-      <c r="G356" s="26">
+      <c r="G356" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H356" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="17" t="s">
         <v>16</v>
       </c>
@@ -12102,11 +13475,14 @@
       <c r="F357" s="7">
         <v>9</v>
       </c>
-      <c r="G357" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G357" s="25">
+        <v>0</v>
+      </c>
+      <c r="H357" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="17" t="s">
         <v>11</v>
       </c>
@@ -12125,11 +13501,14 @@
       <c r="F358" s="7">
         <v>9</v>
       </c>
-      <c r="G358" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G358" s="25">
+        <v>0</v>
+      </c>
+      <c r="H358" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="17" t="s">
         <v>11</v>
       </c>
@@ -12148,11 +13527,14 @@
       <c r="F359" s="7">
         <v>10</v>
       </c>
-      <c r="G359" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G359" s="25">
+        <v>0</v>
+      </c>
+      <c r="H359" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="17" t="s">
         <v>11</v>
       </c>
@@ -12171,11 +13553,14 @@
       <c r="F360" s="7">
         <v>10</v>
       </c>
-      <c r="G360" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G360" s="25">
+        <v>0</v>
+      </c>
+      <c r="H360" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="17" t="s">
         <v>16</v>
       </c>
@@ -12194,11 +13579,14 @@
       <c r="F361" s="7">
         <v>10</v>
       </c>
-      <c r="G361" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G361" s="25">
+        <v>0</v>
+      </c>
+      <c r="H361" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="17" t="s">
         <v>29</v>
       </c>
@@ -12217,11 +13605,14 @@
       <c r="F362" s="7">
         <v>10</v>
       </c>
-      <c r="G362" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G362" s="25">
+        <v>0</v>
+      </c>
+      <c r="H362" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="17" t="s">
         <v>16</v>
       </c>
@@ -12240,11 +13631,14 @@
       <c r="F363" s="7">
         <v>10</v>
       </c>
-      <c r="G363" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G363" s="25">
+        <v>0</v>
+      </c>
+      <c r="H363" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="17" t="s">
         <v>11</v>
       </c>
@@ -12263,11 +13657,14 @@
       <c r="F364" s="7">
         <v>10</v>
       </c>
-      <c r="G364" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G364" s="25">
+        <v>0</v>
+      </c>
+      <c r="H364" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="17" t="s">
         <v>11</v>
       </c>
@@ -12288,11 +13685,14 @@
       <c r="F365" s="7">
         <v>10</v>
       </c>
-      <c r="G365" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G365" s="25">
+        <v>0</v>
+      </c>
+      <c r="H365" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="17" t="s">
         <v>11</v>
       </c>
@@ -12311,11 +13711,14 @@
       <c r="F366" s="7">
         <v>10</v>
       </c>
-      <c r="G366" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G366" s="25">
+        <v>0</v>
+      </c>
+      <c r="H366" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="17" t="s">
         <v>16</v>
       </c>
@@ -12334,11 +13737,14 @@
       <c r="F367" s="7">
         <v>10</v>
       </c>
-      <c r="G367" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G367" s="25">
+        <v>0</v>
+      </c>
+      <c r="H367" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="17" t="s">
         <v>19</v>
       </c>
@@ -12358,11 +13764,14 @@
       <c r="F368" s="7">
         <v>10</v>
       </c>
-      <c r="G368" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G368" s="25">
+        <v>0</v>
+      </c>
+      <c r="H368" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="17" t="s">
         <v>16</v>
       </c>
@@ -12381,11 +13790,14 @@
       <c r="F369" s="7">
         <v>10</v>
       </c>
-      <c r="G369" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G369" s="25">
+        <v>0</v>
+      </c>
+      <c r="H369" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="17" t="s">
         <v>29</v>
       </c>
@@ -12404,11 +13816,14 @@
       <c r="F370" s="7">
         <v>10</v>
       </c>
-      <c r="G370" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G370" s="25">
+        <v>0</v>
+      </c>
+      <c r="H370" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="17" t="s">
         <v>133</v>
       </c>
@@ -12428,11 +13843,14 @@
       <c r="F371" s="7">
         <v>10</v>
       </c>
-      <c r="G371" s="26">
+      <c r="G371" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H371" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="17" t="s">
         <v>16</v>
       </c>
@@ -12451,11 +13869,14 @@
       <c r="F372" s="7">
         <v>10</v>
       </c>
-      <c r="G372" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G372" s="25">
+        <v>0</v>
+      </c>
+      <c r="H372" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="17" t="s">
         <v>11</v>
       </c>
@@ -12474,11 +13895,14 @@
       <c r="F373" s="7">
         <v>10</v>
       </c>
-      <c r="G373" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G373" s="25">
+        <v>0</v>
+      </c>
+      <c r="H373" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="17" t="s">
         <v>11</v>
       </c>
@@ -12499,11 +13923,14 @@
       <c r="F374" s="7">
         <v>10</v>
       </c>
-      <c r="G374" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G374" s="25">
+        <v>0</v>
+      </c>
+      <c r="H374" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="17" t="s">
         <v>11</v>
       </c>
@@ -12522,11 +13949,14 @@
       <c r="F375" s="7">
         <v>10</v>
       </c>
-      <c r="G375" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G375" s="25">
+        <v>0</v>
+      </c>
+      <c r="H375" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="17" t="s">
         <v>16</v>
       </c>
@@ -12545,11 +13975,14 @@
       <c r="F376" s="7">
         <v>10</v>
       </c>
-      <c r="G376" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G376" s="25">
+        <v>0</v>
+      </c>
+      <c r="H376" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="17" t="s">
         <v>19</v>
       </c>
@@ -12569,11 +14002,14 @@
       <c r="F377" s="7">
         <v>10</v>
       </c>
-      <c r="G377" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G377" s="25">
+        <v>0</v>
+      </c>
+      <c r="H377" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="17" t="s">
         <v>16</v>
       </c>
@@ -12592,11 +14028,14 @@
       <c r="F378" s="7">
         <v>10</v>
       </c>
-      <c r="G378" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G378" s="25">
+        <v>0</v>
+      </c>
+      <c r="H378" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="17" t="s">
         <v>29</v>
       </c>
@@ -12615,11 +14054,14 @@
       <c r="F379" s="7">
         <v>10</v>
       </c>
-      <c r="G379" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G379" s="25">
+        <v>0</v>
+      </c>
+      <c r="H379" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="17" t="s">
         <v>133</v>
       </c>
@@ -12639,11 +14081,14 @@
       <c r="F380" s="7">
         <v>10</v>
       </c>
-      <c r="G380" s="26">
+      <c r="G380" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H380" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="17" t="s">
         <v>16</v>
       </c>
@@ -12662,11 +14107,14 @@
       <c r="F381" s="7">
         <v>10</v>
       </c>
-      <c r="G381" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G381" s="25">
+        <v>0</v>
+      </c>
+      <c r="H381" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="17" t="s">
         <v>11</v>
       </c>
@@ -12685,11 +14133,14 @@
       <c r="F382" s="7">
         <v>10</v>
       </c>
-      <c r="G382" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G382" s="25">
+        <v>0</v>
+      </c>
+      <c r="H382" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="17" t="s">
         <v>11</v>
       </c>
@@ -12710,11 +14161,14 @@
       <c r="F383" s="7">
         <v>10</v>
       </c>
-      <c r="G383" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G383" s="25">
+        <v>0</v>
+      </c>
+      <c r="H383" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="17" t="s">
         <v>11</v>
       </c>
@@ -12733,11 +14187,14 @@
       <c r="F384" s="7">
         <v>10</v>
       </c>
-      <c r="G384" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G384" s="25">
+        <v>0</v>
+      </c>
+      <c r="H384" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="17" t="s">
         <v>16</v>
       </c>
@@ -12756,11 +14213,14 @@
       <c r="F385" s="7">
         <v>10</v>
       </c>
-      <c r="G385" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G385" s="25">
+        <v>0</v>
+      </c>
+      <c r="H385" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="17" t="s">
         <v>19</v>
       </c>
@@ -12780,11 +14240,14 @@
       <c r="F386" s="7">
         <v>10</v>
       </c>
-      <c r="G386" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G386" s="25">
+        <v>0</v>
+      </c>
+      <c r="H386" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="17" t="s">
         <v>16</v>
       </c>
@@ -12803,11 +14266,14 @@
       <c r="F387" s="7">
         <v>10</v>
       </c>
-      <c r="G387" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G387" s="25">
+        <v>0</v>
+      </c>
+      <c r="H387" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="17" t="s">
         <v>29</v>
       </c>
@@ -12826,11 +14292,14 @@
       <c r="F388" s="7">
         <v>10</v>
       </c>
-      <c r="G388" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G388" s="25">
+        <v>0</v>
+      </c>
+      <c r="H388" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="17" t="s">
         <v>133</v>
       </c>
@@ -12850,11 +14319,14 @@
       <c r="F389" s="7">
         <v>10</v>
       </c>
-      <c r="G389" s="26">
+      <c r="G389" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H389" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="17" t="s">
         <v>16</v>
       </c>
@@ -12873,11 +14345,14 @@
       <c r="F390" s="7">
         <v>10</v>
       </c>
-      <c r="G390" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G390" s="25">
+        <v>0</v>
+      </c>
+      <c r="H390" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="17" t="s">
         <v>11</v>
       </c>
@@ -12896,11 +14371,14 @@
       <c r="F391" s="7">
         <v>10</v>
       </c>
-      <c r="G391" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G391" s="25">
+        <v>0</v>
+      </c>
+      <c r="H391" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="17" t="s">
         <v>11</v>
       </c>
@@ -12921,11 +14399,14 @@
       <c r="F392" s="7">
         <v>10</v>
       </c>
-      <c r="G392" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G392" s="25">
+        <v>0</v>
+      </c>
+      <c r="H392" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="17" t="s">
         <v>11</v>
       </c>
@@ -12944,11 +14425,14 @@
       <c r="F393" s="7">
         <v>10</v>
       </c>
-      <c r="G393" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G393" s="25">
+        <v>0</v>
+      </c>
+      <c r="H393" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="17" t="s">
         <v>16</v>
       </c>
@@ -12967,11 +14451,14 @@
       <c r="F394" s="7">
         <v>10</v>
       </c>
-      <c r="G394" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G394" s="25">
+        <v>0</v>
+      </c>
+      <c r="H394" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="17" t="s">
         <v>19</v>
       </c>
@@ -12991,11 +14478,14 @@
       <c r="F395" s="7">
         <v>10</v>
       </c>
-      <c r="G395" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G395" s="25">
+        <v>0</v>
+      </c>
+      <c r="H395" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="17" t="s">
         <v>16</v>
       </c>
@@ -13014,11 +14504,14 @@
       <c r="F396" s="7">
         <v>10</v>
       </c>
-      <c r="G396" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G396" s="25">
+        <v>0</v>
+      </c>
+      <c r="H396" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="17" t="s">
         <v>29</v>
       </c>
@@ -13037,11 +14530,14 @@
       <c r="F397" s="7">
         <v>10</v>
       </c>
-      <c r="G397" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G397" s="25">
+        <v>0</v>
+      </c>
+      <c r="H397" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="17" t="s">
         <v>133</v>
       </c>
@@ -13061,11 +14557,14 @@
       <c r="F398" s="7">
         <v>10</v>
       </c>
-      <c r="G398" s="26">
+      <c r="G398" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H398" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="17" t="s">
         <v>16</v>
       </c>
@@ -13084,11 +14583,14 @@
       <c r="F399" s="7">
         <v>10</v>
       </c>
-      <c r="G399" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G399" s="25">
+        <v>0</v>
+      </c>
+      <c r="H399" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="17" t="s">
         <v>11</v>
       </c>
@@ -13107,11 +14609,14 @@
       <c r="F400" s="9">
         <v>10</v>
       </c>
-      <c r="G400" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G400" s="25">
+        <v>0</v>
+      </c>
+      <c r="H400" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="17" t="s">
         <v>6</v>
       </c>
@@ -13130,11 +14635,14 @@
       <c r="F401" s="9">
         <v>0</v>
       </c>
-      <c r="G401" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G401" s="25">
+        <v>0</v>
+      </c>
+      <c r="H401" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>16</v>
       </c>
@@ -13153,8 +14661,11 @@
       <c r="F402" s="3">
         <v>0</v>
       </c>
-      <c r="G402" s="26">
-        <v>0</v>
+      <c r="G402" s="25">
+        <v>0</v>
+      </c>
+      <c r="H402" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -13275,8 +14786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13285,8 +14796,8 @@
     <col min="1025" max="16384" width="35.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
@@ -13304,73 +14815,88 @@
       <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="27" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="H1" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="E2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="30">
+      <c r="E3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="28">
         <v>0</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="30">
+      <c r="E4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="28">
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
     </row>

--- a/USA/UCA.xlsx
+++ b/USA/UCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="894" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="894" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Самопроверка" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="250">
   <si>
     <t>device</t>
   </si>
@@ -276,9 +276,6 @@
     <t>27</t>
   </si>
   <si>
-    <t>Подача напряжения 27 В с ИП1</t>
-  </si>
-  <si>
     <t>Включение ИП1</t>
   </si>
   <si>
@@ -774,10 +771,16 @@
     <t>0.150</t>
   </si>
   <si>
+    <t>0.9</t>
+  </si>
+  <si>
     <t>lowerLimit</t>
   </si>
   <si>
     <t>upperLimit</t>
+  </si>
+  <si>
+    <t>Установка напряжения питания 27 В с ИП1</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -981,6 +984,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1338,15 +1348,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="G1:H2"/>
+    <sheetView topLeftCell="B59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="5" width="35.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" style="9"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1371,7 +1382,7 @@
       <c r="G1" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="30" t="s">
         <v>248</v>
       </c>
     </row>
@@ -1397,7 +1408,7 @@
       <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1423,7 +1434,7 @@
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1447,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1473,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1501,7 +1512,7 @@
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1527,7 +1538,7 @@
       <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1553,7 +1564,7 @@
       <c r="G8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1579,7 +1590,7 @@
       <c r="G9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1605,7 +1616,7 @@
       <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1629,10 +1640,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H11" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,7 +1668,7 @@
       <c r="G12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1683,7 +1694,7 @@
       <c r="G13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1706,11 +1717,11 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>10</v>
+      <c r="G14" s="3">
+        <v>1.5E-6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.1E-6</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,7 +1746,7 @@
       <c r="G15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1761,7 +1772,7 @@
       <c r="G16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1785,10 +1796,10 @@
         <v>2</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,7 +1824,7 @@
       <c r="G18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1839,7 +1850,7 @@
       <c r="G19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1862,11 +1873,11 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>10</v>
+      <c r="G20" s="3">
+        <v>1.5E-6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3.1E-6</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,7 +1902,7 @@
       <c r="G21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1917,7 +1928,7 @@
       <c r="G22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1941,10 +1952,10 @@
         <v>3</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1969,7 +1980,7 @@
       <c r="G24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1995,7 +2006,7 @@
       <c r="G25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2018,11 +2029,11 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>10</v>
+      <c r="G26" s="3">
+        <v>1.5E-6</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3.1E-6</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2047,7 +2058,7 @@
       <c r="G27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2073,7 +2084,7 @@
       <c r="G28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2097,10 +2108,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H29" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2125,7 +2136,7 @@
       <c r="G30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2151,7 +2162,7 @@
       <c r="G31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2174,11 +2185,11 @@
       <c r="F32" s="3">
         <v>4</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>10</v>
+      <c r="G32" s="3">
+        <v>1.5E-6</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3.1E-6</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2203,7 +2214,7 @@
       <c r="G33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2229,7 +2240,7 @@
       <c r="G34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2253,10 +2264,10 @@
         <v>5</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H35" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,7 +2292,7 @@
       <c r="G36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2307,7 +2318,7 @@
       <c r="G37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2330,11 +2341,11 @@
       <c r="F38" s="3">
         <v>5</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>10</v>
+      <c r="G38" s="3">
+        <v>1.5E-6</v>
+      </c>
+      <c r="H38" s="3">
+        <v>3.1E-6</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,7 +2370,7 @@
       <c r="G39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2385,7 +2396,7 @@
       <c r="G40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2409,10 +2420,10 @@
         <v>6</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H41" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2437,7 +2448,7 @@
       <c r="G42" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2463,7 +2474,7 @@
       <c r="G43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2486,11 +2497,11 @@
       <c r="F44" s="3">
         <v>6</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>10</v>
+      <c r="G44" s="3">
+        <v>1.5E-6</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3.1E-6</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2515,7 +2526,7 @@
       <c r="G45" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2541,7 +2552,7 @@
       <c r="G46" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2565,10 +2576,10 @@
         <v>7</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H47" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2593,7 +2604,7 @@
       <c r="G48" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2619,7 +2630,7 @@
       <c r="G49" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2642,11 +2653,11 @@
       <c r="F50" s="3">
         <v>7</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>10</v>
+      <c r="G50" s="3">
+        <v>1.5E-6</v>
+      </c>
+      <c r="H50" s="3">
+        <v>3.1E-6</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2671,7 +2682,7 @@
       <c r="G51" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2697,7 +2708,7 @@
       <c r="G52" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2721,10 +2732,10 @@
         <v>8</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H53" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2749,7 +2760,7 @@
       <c r="G54" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2775,7 +2786,7 @@
       <c r="G55" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2798,11 +2809,11 @@
       <c r="F56" s="3">
         <v>8</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>10</v>
+      <c r="G56" s="3">
+        <v>1.5E-6</v>
+      </c>
+      <c r="H56" s="3">
+        <v>3.1E-6</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2827,7 +2838,7 @@
       <c r="G57" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2853,7 +2864,7 @@
       <c r="G58" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2877,10 +2888,10 @@
         <v>9</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H59" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2905,7 +2916,7 @@
       <c r="G60" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2931,7 +2942,7 @@
       <c r="G61" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2954,11 +2965,11 @@
       <c r="F62" s="3">
         <v>9</v>
       </c>
-      <c r="G62" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>10</v>
+      <c r="G62" s="3">
+        <v>1.5E-6</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3.1E-6</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2983,7 +2994,7 @@
       <c r="G63" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3009,7 +3020,7 @@
       <c r="G64" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3033,10 +3044,10 @@
         <v>10</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H65" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3061,7 +3072,7 @@
       <c r="G66" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3087,7 +3098,7 @@
       <c r="G67" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3110,11 +3121,11 @@
       <c r="F68" s="3">
         <v>10</v>
       </c>
-      <c r="G68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>10</v>
+      <c r="G68" s="3">
+        <v>1.5E-6</v>
+      </c>
+      <c r="H68" s="3">
+        <v>3.1E-6</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3139,7 +3150,7 @@
       <c r="G69" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3165,7 +3176,7 @@
       <c r="G70" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3189,10 +3200,10 @@
         <v>-1</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="H71" s="25">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3217,7 +3228,7 @@
       <c r="G72" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3243,7 +3254,7 @@
       <c r="G73" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3269,13 +3280,13 @@
       <c r="G74" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="25" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3283,15 +3294,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="G1:H2"/>
+    <sheetView topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="35.7109375" style="8"/>
-    <col min="6" max="7" width="35.7109375" style="9"/>
-    <col min="8" max="1024" width="35.7109375" style="8"/>
+    <col min="1" max="4" width="35.7109375" style="8"/>
+    <col min="5" max="5" width="19.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12" style="8" customWidth="1"/>
+    <col min="9" max="1024" width="35.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3382,8 +3396,8 @@
       <c r="C4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>81</v>
+      <c r="D4" s="32" t="s">
+        <v>249</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>10</v>
@@ -3391,11 +3405,11 @@
       <c r="F4" s="12">
         <v>0</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>10</v>
+      <c r="G4" s="9">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3409,7 +3423,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>10</v>
@@ -3435,7 +3449,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>10</v>
@@ -3455,16 +3469,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="F7" s="12">
         <v>0</v>
@@ -3481,16 +3495,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="12">
         <v>0</v>
@@ -3510,10 +3524,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>10</v>
@@ -3533,13 +3547,13 @@
         <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="12">
         <v>3</v>
@@ -3562,10 +3576,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>10</v>
@@ -3585,13 +3599,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="12">
         <v>5</v>
@@ -3614,10 +3628,10 @@
         <v>26</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>10</v>
@@ -3637,13 +3651,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="12">
         <v>6</v>
@@ -3669,7 +3683,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>10</v>
@@ -3689,16 +3703,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>85</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="F16" s="12">
         <v>0</v>
@@ -3721,7 +3735,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>10</v>
@@ -3746,14 +3760,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="30.7109375" style="9"/>
-    <col min="8" max="1024" width="30.7109375" style="8"/>
+    <col min="1" max="6" width="30.7109375" style="9"/>
+    <col min="7" max="7" width="19.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="8" customWidth="1"/>
+    <col min="9" max="1024" width="30.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3819,7 +3835,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
@@ -3845,7 +3861,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>10</v>
@@ -3853,11 +3869,11 @@
       <c r="F4" s="11">
         <v>0</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>10</v>
+      <c r="G4" s="9">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3871,7 +3887,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>10</v>
@@ -3894,10 +3910,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>10</v>
@@ -3920,10 +3936,10 @@
         <v>26</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>10</v>
@@ -3949,7 +3965,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="11">
         <v>27</v>
@@ -3957,11 +3973,11 @@
       <c r="F8" s="11">
         <v>0</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>10</v>
+      <c r="G8" s="9">
+        <v>24</v>
+      </c>
+      <c r="H8" s="9">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3969,13 +3985,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>10</v>
@@ -3998,10 +4014,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>10</v>
@@ -4027,7 +4043,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="11">
         <v>9</v>
@@ -4035,11 +4051,11 @@
       <c r="F11" s="11">
         <v>0</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>10</v>
+      <c r="G11" s="9">
+        <v>8.75</v>
+      </c>
+      <c r="H11" s="9">
+        <v>9.25</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4047,13 +4063,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>10</v>
@@ -4078,13 +4094,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ402"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="G1:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H218" sqref="G218:H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="35.7109375" style="8"/>
+    <col min="1" max="1" width="23.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="8" customWidth="1"/>
     <col min="5" max="5" width="47.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="14" style="9" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="25" customWidth="1"/>
@@ -4132,7 +4151,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -4152,13 +4171,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="F3" s="7">
         <v>1</v>
@@ -4166,8 +4185,8 @@
       <c r="G3" s="25">
         <v>0</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>10</v>
+      <c r="H3" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4184,7 +4203,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -4204,13 +4223,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
@@ -4233,10 +4252,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="7">
         <v>1</v>
@@ -4244,8 +4263,8 @@
       <c r="G6" s="25">
         <v>0</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>10</v>
+      <c r="H6" s="9">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4253,16 +4272,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7">
         <v>1</v>
@@ -4282,13 +4301,13 @@
         <v>26</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -4311,10 +4330,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="F9" s="7">
         <v>1</v>
@@ -4322,8 +4341,8 @@
       <c r="G9" s="25">
         <v>0</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>10</v>
+      <c r="H9" s="9">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4331,16 +4350,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7">
         <v>1</v>
@@ -4366,7 +4385,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -4386,22 +4405,22 @@
         <v>13</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="F12" s="7">
         <v>1</v>
       </c>
       <c r="G12" s="25">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>10</v>
+        <v>19.8</v>
+      </c>
+      <c r="H12" s="9">
+        <v>20.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4418,7 +4437,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7">
         <v>1</v>
@@ -4438,13 +4457,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
@@ -4464,13 +4483,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="F15" s="7">
         <v>1</v>
@@ -4493,19 +4512,19 @@
         <v>10</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="G16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>10</v>
+        <v>19.8</v>
+      </c>
+      <c r="H16" s="9">
+        <v>20.2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4513,16 +4532,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7">
         <v>1</v>
@@ -4542,13 +4561,13 @@
         <v>26</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
@@ -4571,36 +4590,36 @@
         <v>10</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
       </c>
       <c r="G19" s="25">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>10</v>
+        <v>19.8</v>
+      </c>
+      <c r="H19" s="9">
+        <v>20.2</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
@@ -4617,16 +4636,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>137</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
@@ -4652,7 +4671,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
@@ -4672,22 +4691,22 @@
         <v>13</v>
       </c>
       <c r="C23" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
       <c r="G23" s="25">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>10</v>
+        <v>39.6</v>
+      </c>
+      <c r="H23" s="9">
+        <v>40.4</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4704,7 +4723,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24" s="7">
         <v>1</v>
@@ -4724,13 +4743,13 @@
         <v>26</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="F25" s="7">
         <v>1</v>
@@ -4750,13 +4769,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="F26" s="7">
         <v>1</v>
@@ -4779,19 +4798,19 @@
         <v>10</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
       <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>10</v>
+        <v>39.6</v>
+      </c>
+      <c r="H27" s="9">
+        <v>40.4</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4799,16 +4818,16 @@
         <v>16</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="7">
         <v>1</v>
@@ -4828,13 +4847,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
@@ -4857,27 +4876,27 @@
         <v>10</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" s="7">
         <v>1</v>
       </c>
       <c r="G30" s="25">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>10</v>
+        <v>39.6</v>
+      </c>
+      <c r="H30" s="9">
+        <v>40.4</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C31" s="17">
         <v>40</v>
@@ -4886,7 +4905,7 @@
         <v>0.15</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F31" s="7">
         <v>1</v>
@@ -4903,16 +4922,16 @@
         <v>16</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F32" s="7">
         <v>1</v>
@@ -4938,7 +4957,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
@@ -4958,13 +4977,13 @@
         <v>13</v>
       </c>
       <c r="C34" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="F34" s="7">
         <v>2</v>
@@ -4972,8 +4991,8 @@
       <c r="G34" s="25">
         <v>0</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>10</v>
+      <c r="H34" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4990,13 +5009,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="7">
         <v>2</v>
       </c>
-      <c r="G35" s="25">
-        <v>0</v>
+      <c r="G35" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>10</v>
@@ -5010,13 +5029,13 @@
         <v>26</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="7">
         <v>2</v>
@@ -5037,10 +5056,10 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37" s="7">
         <v>2</v>
@@ -5048,8 +5067,8 @@
       <c r="G37" s="25">
         <v>0</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>10</v>
+      <c r="H37" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5057,16 +5076,16 @@
         <v>16</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" s="7">
         <v>2</v>
@@ -5086,13 +5105,13 @@
         <v>26</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F39" s="7">
         <v>2</v>
@@ -5115,10 +5134,10 @@
         <v>10</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="F40" s="7">
         <v>2</v>
@@ -5126,8 +5145,8 @@
       <c r="G40" s="25">
         <v>0</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>10</v>
+      <c r="H40" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5135,16 +5154,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F41" s="7">
         <v>2</v>
@@ -5170,7 +5189,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F42" s="7">
         <v>2</v>
@@ -5190,22 +5209,22 @@
         <v>13</v>
       </c>
       <c r="C43" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="F43" s="7">
         <v>2</v>
       </c>
       <c r="G43" s="25">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>10</v>
+        <v>19.8</v>
+      </c>
+      <c r="H43" s="9">
+        <v>20.2</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5222,7 +5241,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" s="7">
         <v>2</v>
@@ -5242,13 +5261,13 @@
         <v>26</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" s="7">
         <v>2</v>
@@ -5268,13 +5287,13 @@
         <v>26</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46" s="7">
         <v>2</v>
@@ -5297,19 +5316,19 @@
         <v>10</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F47" s="7">
         <v>2</v>
       </c>
       <c r="G47" s="25">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>10</v>
+        <v>19.8</v>
+      </c>
+      <c r="H47" s="9">
+        <v>20.2</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5317,16 +5336,16 @@
         <v>16</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F48" s="7">
         <v>2</v>
@@ -5346,13 +5365,13 @@
         <v>26</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F49" s="7">
         <v>2</v>
@@ -5375,27 +5394,27 @@
         <v>10</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F50" s="7">
         <v>2</v>
       </c>
       <c r="G50" s="25">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>10</v>
+        <v>19.8</v>
+      </c>
+      <c r="H50" s="9">
+        <v>20.2</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C51" s="17">
         <v>20</v>
@@ -5404,7 +5423,7 @@
         <v>0.15</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" s="7">
         <v>2</v>
@@ -5421,16 +5440,16 @@
         <v>16</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F52" s="7">
         <v>2</v>
@@ -5456,7 +5475,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F53" s="7">
         <v>2</v>
@@ -5476,22 +5495,22 @@
         <v>13</v>
       </c>
       <c r="C54" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="F54" s="7">
         <v>2</v>
       </c>
       <c r="G54" s="25">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>10</v>
+        <v>39.6</v>
+      </c>
+      <c r="H54" s="9">
+        <v>40.4</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5508,7 +5527,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F55" s="7">
         <v>2</v>
@@ -5528,13 +5547,13 @@
         <v>26</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F56" s="7">
         <v>2</v>
@@ -5554,13 +5573,13 @@
         <v>26</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F57" s="7">
         <v>2</v>
@@ -5583,19 +5602,19 @@
         <v>10</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F58" s="7">
         <v>2</v>
       </c>
       <c r="G58" s="25">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>10</v>
+        <v>39.6</v>
+      </c>
+      <c r="H58" s="9">
+        <v>40.4</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5603,16 +5622,16 @@
         <v>16</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F59" s="7">
         <v>2</v>
@@ -5632,13 +5651,13 @@
         <v>26</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F60" s="7">
         <v>2</v>
@@ -5661,27 +5680,27 @@
         <v>10</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F61" s="7">
         <v>2</v>
       </c>
       <c r="G61" s="25">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>10</v>
+        <v>39.6</v>
+      </c>
+      <c r="H61" s="9">
+        <v>40.4</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C62" s="17">
         <v>40</v>
@@ -5690,7 +5709,7 @@
         <v>0.15</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F62" s="7">
         <v>2</v>
@@ -5707,16 +5726,16 @@
         <v>16</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F63" s="7">
         <v>2</v>
@@ -5742,7 +5761,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F64" s="7">
         <v>2</v>
@@ -5759,16 +5778,16 @@
         <v>11</v>
       </c>
       <c r="B65" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="F65" s="7">
         <v>3</v>
@@ -5794,7 +5813,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F66" s="7">
         <v>3</v>
@@ -5802,8 +5821,8 @@
       <c r="G66" s="25">
         <v>0</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>10</v>
+      <c r="H66" s="9">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5814,13 +5833,13 @@
         <v>26</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" s="7">
         <v>3</v>
@@ -5843,10 +5862,10 @@
         <v>10</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F68" s="7">
         <v>3</v>
@@ -5854,8 +5873,8 @@
       <c r="G68" s="25">
         <v>0</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>10</v>
+      <c r="H68" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5863,16 +5882,16 @@
         <v>16</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F69" s="7">
         <v>3</v>
@@ -5898,7 +5917,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F70" s="7">
         <v>3</v>
@@ -5915,7 +5934,7 @@
         <v>11</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71" s="17">
         <f>15/1000000</f>
@@ -5926,16 +5945,18 @@
         <v>1.5E-5</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F71" s="7">
         <v>3</v>
       </c>
       <c r="G71" s="25">
-        <v>0</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>10</v>
+        <f>C71 * 0.99</f>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H71" s="9">
+        <f>C71 * 1.01</f>
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5952,7 +5973,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F72" s="7">
         <v>3</v>
@@ -5972,13 +5993,13 @@
         <v>26</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F73" s="7">
         <v>3</v>
@@ -5997,24 +6018,23 @@
       <c r="B74" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="17">
-        <f>15/1000000</f>
-        <v>1.5E-5</v>
+      <c r="C74" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F74" s="7">
         <v>3</v>
       </c>
       <c r="G74" s="25">
-        <v>0</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H74" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6025,13 +6045,13 @@
         <v>26</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F75" s="7">
         <v>3</v>
@@ -6054,10 +6074,10 @@
         <v>10</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F76" s="7">
         <v>3</v>
@@ -6065,16 +6085,16 @@
       <c r="G76" s="25">
         <v>0</v>
       </c>
-      <c r="H76" s="9" t="s">
-        <v>10</v>
+      <c r="H76" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C77" s="17">
         <f>15/1000000</f>
@@ -6084,7 +6104,7 @@
         <v>0.1</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F77" s="7">
         <v>3</v>
@@ -6101,16 +6121,16 @@
         <v>16</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F78" s="7">
         <v>3</v>
@@ -6136,7 +6156,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F79" s="7">
         <v>3</v>
@@ -6153,7 +6173,7 @@
         <v>11</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="17">
         <f>30/1000000</f>
@@ -6164,16 +6184,18 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F80" s="7">
         <v>3</v>
       </c>
       <c r="G80" s="25">
-        <v>0</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>10</v>
+        <f>C80 * 0.99</f>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H80" s="9">
+        <f>C80 * 1.01</f>
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6190,7 +6212,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F81" s="7">
         <v>3</v>
@@ -6210,13 +6232,13 @@
         <v>26</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F82" s="7">
         <v>3</v>
@@ -6243,16 +6265,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F83" s="7">
         <v>3</v>
       </c>
       <c r="G83" s="25">
-        <v>0</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H83" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6263,13 +6285,13 @@
         <v>26</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F84" s="7">
         <v>3</v>
@@ -6292,10 +6314,10 @@
         <v>10</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F85" s="7">
         <v>3</v>
@@ -6303,16 +6325,16 @@
       <c r="G85" s="25">
         <v>0</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>10</v>
+      <c r="H85" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C86" s="17">
         <f>30/1000000</f>
@@ -6322,7 +6344,7 @@
         <v>0.1</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F86" s="7">
         <v>3</v>
@@ -6339,16 +6361,16 @@
         <v>16</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F87" s="7">
         <v>3</v>
@@ -6374,7 +6396,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F88" s="7">
         <v>3</v>
@@ -6391,7 +6413,7 @@
         <v>11</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C89" s="17">
         <f>45/1000000</f>
@@ -6402,16 +6424,18 @@
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F89" s="7">
         <v>3</v>
       </c>
       <c r="G89" s="25">
-        <v>0</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>10</v>
+        <f>C89 * 0.99</f>
+        <v>4.4550000000000005E-5</v>
+      </c>
+      <c r="H89" s="9">
+        <f>C89 * 1.01</f>
+        <v>4.545E-5</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6428,7 +6452,7 @@
         <v>10</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F90" s="7">
         <v>3</v>
@@ -6448,13 +6472,13 @@
         <v>26</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F91" s="7">
         <v>3</v>
@@ -6481,16 +6505,16 @@
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F92" s="7">
         <v>3</v>
       </c>
       <c r="G92" s="25">
-        <v>0</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>10</v>
+        <v>4.4550000000000005E-5</v>
+      </c>
+      <c r="H92" s="9">
+        <v>4.545E-5</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6501,13 +6525,13 @@
         <v>26</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F93" s="7">
         <v>3</v>
@@ -6530,10 +6554,10 @@
         <v>10</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F94" s="7">
         <v>3</v>
@@ -6541,16 +6565,16 @@
       <c r="G94" s="25">
         <v>0</v>
       </c>
-      <c r="H94" s="9" t="s">
-        <v>10</v>
+      <c r="H94" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C95" s="17">
         <f>45/1000000</f>
@@ -6560,7 +6584,7 @@
         <v>0.1</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F95" s="7">
         <v>3</v>
@@ -6577,16 +6601,16 @@
         <v>16</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F96" s="7">
         <v>3</v>
@@ -6612,7 +6636,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F97" s="7">
         <v>3</v>
@@ -6629,7 +6653,7 @@
         <v>11</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" s="17">
         <f>60/1000000</f>
@@ -6640,7 +6664,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F98" s="7">
         <v>3</v>
@@ -6666,7 +6690,7 @@
         <v>10</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F99" s="7">
         <v>3</v>
@@ -6686,13 +6710,13 @@
         <v>26</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F100" s="7">
         <v>3</v>
@@ -6719,7 +6743,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F101" s="7">
         <v>3</v>
@@ -6739,13 +6763,13 @@
         <v>26</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D102" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F102" s="7">
         <v>3</v>
@@ -6768,10 +6792,10 @@
         <v>10</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F103" s="7">
         <v>3</v>
@@ -6779,16 +6803,16 @@
       <c r="G103" s="25">
         <v>0</v>
       </c>
-      <c r="H103" s="9" t="s">
-        <v>10</v>
+      <c r="H103" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C104" s="17">
         <f>60/1000000</f>
@@ -6798,7 +6822,7 @@
         <v>0.1</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F104" s="7">
         <v>3</v>
@@ -6815,16 +6839,16 @@
         <v>16</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F105" s="7">
         <v>3</v>
@@ -6850,7 +6874,7 @@
         <v>10</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F106" s="7">
         <v>3</v>
@@ -6867,16 +6891,16 @@
         <v>11</v>
       </c>
       <c r="B107" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E107" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E107" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="F107" s="7">
         <v>4</v>
@@ -6902,7 +6926,7 @@
         <v>10</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F108" s="7">
         <v>4</v>
@@ -6922,13 +6946,13 @@
         <v>26</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D109" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F109" s="7">
         <v>4</v>
@@ -6951,10 +6975,10 @@
         <v>10</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F110" s="7">
         <v>4</v>
@@ -6962,8 +6986,8 @@
       <c r="G110" s="25">
         <v>0</v>
       </c>
-      <c r="H110" s="9" t="s">
-        <v>10</v>
+      <c r="H110" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6971,16 +6995,16 @@
         <v>16</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F111" s="7">
         <v>4</v>
@@ -7006,7 +7030,7 @@
         <v>10</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F112" s="7">
         <v>4</v>
@@ -7023,7 +7047,7 @@
         <v>11</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C113" s="17">
         <f>15/1000000</f>
@@ -7034,16 +7058,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F113" s="7">
         <v>4</v>
       </c>
       <c r="G113" s="25">
-        <v>0</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H113" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7060,7 +7084,7 @@
         <v>10</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F114" s="7">
         <v>4</v>
@@ -7080,13 +7104,13 @@
         <v>26</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F115" s="7">
         <v>4</v>
@@ -7113,16 +7137,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F116" s="7">
         <v>4</v>
       </c>
       <c r="G116" s="25">
-        <v>0</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H116" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7133,13 +7157,13 @@
         <v>26</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F117" s="7">
         <v>4</v>
@@ -7162,10 +7186,10 @@
         <v>10</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F118" s="7">
         <v>4</v>
@@ -7173,16 +7197,16 @@
       <c r="G118" s="25">
         <v>0</v>
       </c>
-      <c r="H118" s="9" t="s">
-        <v>10</v>
+      <c r="H118" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C119" s="17">
         <f>15/1000000</f>
@@ -7192,7 +7216,7 @@
         <v>0.1</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F119" s="7">
         <v>4</v>
@@ -7209,16 +7233,16 @@
         <v>16</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D120" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F120" s="7">
         <v>4</v>
@@ -7244,7 +7268,7 @@
         <v>10</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F121" s="7">
         <v>4</v>
@@ -7261,7 +7285,7 @@
         <v>11</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C122" s="17">
         <f>30/1000000</f>
@@ -7272,16 +7296,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E122" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F122" s="7">
         <v>4</v>
       </c>
       <c r="G122" s="25">
-        <v>0</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H122" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7298,7 +7322,7 @@
         <v>10</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F123" s="7">
         <v>4</v>
@@ -7318,13 +7342,13 @@
         <v>26</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D124" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F124" s="7">
         <v>4</v>
@@ -7351,16 +7375,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F125" s="7">
         <v>4</v>
       </c>
       <c r="G125" s="25">
-        <v>0</v>
-      </c>
-      <c r="H125" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H125" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7371,13 +7395,13 @@
         <v>26</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D126" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F126" s="7">
         <v>4</v>
@@ -7400,10 +7424,10 @@
         <v>10</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F127" s="7">
         <v>4</v>
@@ -7411,16 +7435,16 @@
       <c r="G127" s="25">
         <v>0</v>
       </c>
-      <c r="H127" s="9" t="s">
-        <v>10</v>
+      <c r="H127" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C128" s="17">
         <f>30/1000000</f>
@@ -7430,7 +7454,7 @@
         <v>0.1</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F128" s="7">
         <v>4</v>
@@ -7447,16 +7471,16 @@
         <v>16</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D129" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F129" s="7">
         <v>4</v>
@@ -7482,7 +7506,7 @@
         <v>10</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F130" s="7">
         <v>4</v>
@@ -7499,7 +7523,7 @@
         <v>11</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C131" s="17">
         <f>45/1000000</f>
@@ -7510,16 +7534,16 @@
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F131" s="7">
         <v>4</v>
       </c>
       <c r="G131" s="25">
-        <v>0</v>
-      </c>
-      <c r="H131" s="9" t="s">
-        <v>10</v>
+        <v>4.4550000000000005E-5</v>
+      </c>
+      <c r="H131" s="9">
+        <v>4.545E-5</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7536,7 +7560,7 @@
         <v>10</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F132" s="7">
         <v>4</v>
@@ -7556,13 +7580,13 @@
         <v>26</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D133" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F133" s="7">
         <v>4</v>
@@ -7589,16 +7613,16 @@
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F134" s="7">
         <v>4</v>
       </c>
       <c r="G134" s="25">
-        <v>0</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>10</v>
+        <v>4.4550000000000005E-5</v>
+      </c>
+      <c r="H134" s="9">
+        <v>4.545E-5</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7609,13 +7633,13 @@
         <v>26</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F135" s="7">
         <v>4</v>
@@ -7638,10 +7662,10 @@
         <v>10</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F136" s="7">
         <v>4</v>
@@ -7649,16 +7673,16 @@
       <c r="G136" s="25">
         <v>0</v>
       </c>
-      <c r="H136" s="9" t="s">
-        <v>10</v>
+      <c r="H136" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C137" s="17">
         <f>45/1000000</f>
@@ -7668,7 +7692,7 @@
         <v>0.1</v>
       </c>
       <c r="E137" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F137" s="7">
         <v>4</v>
@@ -7685,16 +7709,16 @@
         <v>16</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D138" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E138" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F138" s="7">
         <v>4</v>
@@ -7720,7 +7744,7 @@
         <v>10</v>
       </c>
       <c r="E139" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F139" s="7">
         <v>4</v>
@@ -7737,7 +7761,7 @@
         <v>11</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C140" s="17">
         <f>60/1000000</f>
@@ -7748,7 +7772,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="E140" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F140" s="7">
         <v>4</v>
@@ -7774,7 +7798,7 @@
         <v>10</v>
       </c>
       <c r="E141" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F141" s="7">
         <v>4</v>
@@ -7794,13 +7818,13 @@
         <v>26</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E142" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F142" s="7">
         <v>4</v>
@@ -7827,7 +7851,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F143" s="7">
         <v>4</v>
@@ -7847,13 +7871,13 @@
         <v>26</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D144" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F144" s="7">
         <v>4</v>
@@ -7876,10 +7900,10 @@
         <v>10</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F145" s="7">
         <v>4</v>
@@ -7887,16 +7911,16 @@
       <c r="G145" s="25">
         <v>0</v>
       </c>
-      <c r="H145" s="9" t="s">
-        <v>10</v>
+      <c r="H145" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C146" s="17">
         <f>60/1000000</f>
@@ -7906,7 +7930,7 @@
         <v>0.1</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F146" s="7">
         <v>4</v>
@@ -7923,16 +7947,16 @@
         <v>16</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D147" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E147" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F147" s="7">
         <v>4</v>
@@ -7958,7 +7982,7 @@
         <v>10</v>
       </c>
       <c r="E148" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F148" s="7">
         <v>4</v>
@@ -7975,16 +7999,16 @@
         <v>11</v>
       </c>
       <c r="B149" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E149" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E149" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="F149" s="7">
         <v>5</v>
@@ -8010,7 +8034,7 @@
         <v>10</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F150" s="7">
         <v>5</v>
@@ -8030,13 +8054,13 @@
         <v>26</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F151" s="7">
         <v>5</v>
@@ -8059,10 +8083,10 @@
         <v>10</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E152" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F152" s="7">
         <v>5</v>
@@ -8070,8 +8094,8 @@
       <c r="G152" s="25">
         <v>0</v>
       </c>
-      <c r="H152" s="9" t="s">
-        <v>10</v>
+      <c r="H152" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8079,16 +8103,16 @@
         <v>16</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E153" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F153" s="7">
         <v>5</v>
@@ -8114,7 +8138,7 @@
         <v>10</v>
       </c>
       <c r="E154" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F154" s="7">
         <v>5</v>
@@ -8131,7 +8155,7 @@
         <v>11</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C155" s="17">
         <f>15/1000000</f>
@@ -8142,16 +8166,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F155" s="7">
         <v>5</v>
       </c>
       <c r="G155" s="25">
-        <v>0</v>
-      </c>
-      <c r="H155" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H155" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8168,7 +8192,7 @@
         <v>10</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F156" s="7">
         <v>5</v>
@@ -8188,13 +8212,13 @@
         <v>26</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D157" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F157" s="7">
         <v>5</v>
@@ -8221,16 +8245,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F158" s="7">
         <v>5</v>
       </c>
       <c r="G158" s="25">
-        <v>0</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H158" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8241,13 +8265,13 @@
         <v>26</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D159" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F159" s="7">
         <v>5</v>
@@ -8270,10 +8294,10 @@
         <v>10</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F160" s="7">
         <v>5</v>
@@ -8281,16 +8305,16 @@
       <c r="G160" s="25">
         <v>0</v>
       </c>
-      <c r="H160" s="9" t="s">
-        <v>10</v>
+      <c r="H160" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B161" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B161" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C161" s="17">
         <f>15/1000000</f>
@@ -8300,7 +8324,7 @@
         <v>0.1</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F161" s="7">
         <v>5</v>
@@ -8317,16 +8341,16 @@
         <v>16</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D162" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F162" s="7">
         <v>5</v>
@@ -8352,7 +8376,7 @@
         <v>10</v>
       </c>
       <c r="E163" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F163" s="7">
         <v>5</v>
@@ -8369,7 +8393,7 @@
         <v>11</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C164" s="17">
         <f>30/1000000</f>
@@ -8380,16 +8404,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F164" s="7">
         <v>5</v>
       </c>
       <c r="G164" s="25">
-        <v>0</v>
-      </c>
-      <c r="H164" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H164" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8406,7 +8430,7 @@
         <v>10</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F165" s="7">
         <v>5</v>
@@ -8426,13 +8450,13 @@
         <v>26</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E166" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F166" s="7">
         <v>5</v>
@@ -8459,16 +8483,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F167" s="7">
         <v>5</v>
       </c>
       <c r="G167" s="25">
-        <v>0</v>
-      </c>
-      <c r="H167" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H167" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8479,13 +8503,13 @@
         <v>26</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D168" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F168" s="7">
         <v>5</v>
@@ -8508,10 +8532,10 @@
         <v>10</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F169" s="7">
         <v>5</v>
@@ -8519,16 +8543,16 @@
       <c r="G169" s="25">
         <v>0</v>
       </c>
-      <c r="H169" s="9" t="s">
-        <v>10</v>
+      <c r="H169" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B170" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B170" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C170" s="17">
         <f>30/1000000</f>
@@ -8538,7 +8562,7 @@
         <v>0.1</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F170" s="7">
         <v>5</v>
@@ -8555,16 +8579,16 @@
         <v>16</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F171" s="7">
         <v>5</v>
@@ -8590,7 +8614,7 @@
         <v>10</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F172" s="7">
         <v>5</v>
@@ -8607,7 +8631,7 @@
         <v>11</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C173" s="17">
         <f>45/1000000</f>
@@ -8618,16 +8642,16 @@
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F173" s="7">
         <v>5</v>
       </c>
       <c r="G173" s="25">
-        <v>0</v>
-      </c>
-      <c r="H173" s="9" t="s">
-        <v>10</v>
+        <v>4.4550000000000005E-5</v>
+      </c>
+      <c r="H173" s="9">
+        <v>4.545E-5</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8644,7 +8668,7 @@
         <v>10</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F174" s="7">
         <v>5</v>
@@ -8664,13 +8688,13 @@
         <v>26</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E175" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F175" s="7">
         <v>5</v>
@@ -8697,16 +8721,16 @@
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="E176" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F176" s="7">
         <v>5</v>
       </c>
       <c r="G176" s="25">
-        <v>0</v>
-      </c>
-      <c r="H176" s="9" t="s">
-        <v>10</v>
+        <v>4.4550000000000005E-5</v>
+      </c>
+      <c r="H176" s="9">
+        <v>4.545E-5</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8717,13 +8741,13 @@
         <v>26</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E177" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F177" s="7">
         <v>5</v>
@@ -8746,10 +8770,10 @@
         <v>10</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E178" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F178" s="7">
         <v>5</v>
@@ -8757,16 +8781,16 @@
       <c r="G178" s="25">
         <v>0</v>
       </c>
-      <c r="H178" s="9" t="s">
-        <v>10</v>
+      <c r="H178" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B179" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B179" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C179" s="17">
         <f>45/1000000</f>
@@ -8776,7 +8800,7 @@
         <v>0.1</v>
       </c>
       <c r="E179" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F179" s="7">
         <v>5</v>
@@ -8793,16 +8817,16 @@
         <v>16</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D180" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E180" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F180" s="7">
         <v>5</v>
@@ -8828,7 +8852,7 @@
         <v>10</v>
       </c>
       <c r="E181" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F181" s="7">
         <v>5</v>
@@ -8845,7 +8869,7 @@
         <v>11</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C182" s="17">
         <f>60/1000000</f>
@@ -8856,7 +8880,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F182" s="7">
         <v>5</v>
@@ -8882,7 +8906,7 @@
         <v>10</v>
       </c>
       <c r="E183" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F183" s="7">
         <v>5</v>
@@ -8902,13 +8926,13 @@
         <v>26</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D184" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E184" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F184" s="7">
         <v>5</v>
@@ -8935,7 +8959,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="E185" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F185" s="7">
         <v>5</v>
@@ -8955,13 +8979,13 @@
         <v>26</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E186" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F186" s="7">
         <v>5</v>
@@ -8984,10 +9008,10 @@
         <v>10</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E187" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F187" s="7">
         <v>5</v>
@@ -8995,16 +9019,16 @@
       <c r="G187" s="25">
         <v>0</v>
       </c>
-      <c r="H187" s="9" t="s">
-        <v>10</v>
+      <c r="H187" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B188" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B188" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C188" s="17">
         <f>60/1000000</f>
@@ -9014,7 +9038,7 @@
         <v>0.1</v>
       </c>
       <c r="E188" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F188" s="7">
         <v>5</v>
@@ -9031,16 +9055,16 @@
         <v>16</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D189" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E189" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F189" s="7">
         <v>5</v>
@@ -9066,7 +9090,7 @@
         <v>10</v>
       </c>
       <c r="E190" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F190" s="7">
         <v>5</v>
@@ -9083,16 +9107,16 @@
         <v>11</v>
       </c>
       <c r="B191" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E191" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C191" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D191" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E191" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="F191" s="7">
         <v>6</v>
@@ -9118,7 +9142,7 @@
         <v>10</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F192" s="7">
         <v>6</v>
@@ -9138,13 +9162,13 @@
         <v>26</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E193" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F193" s="7">
         <v>6</v>
@@ -9167,10 +9191,10 @@
         <v>10</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E194" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F194" s="7">
         <v>6</v>
@@ -9178,8 +9202,8 @@
       <c r="G194" s="25">
         <v>0</v>
       </c>
-      <c r="H194" s="9" t="s">
-        <v>10</v>
+      <c r="H194" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9187,16 +9211,16 @@
         <v>16</v>
       </c>
       <c r="B195" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D195" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E195" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F195" s="7">
         <v>6</v>
@@ -9222,7 +9246,7 @@
         <v>10</v>
       </c>
       <c r="E196" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F196" s="7">
         <v>6</v>
@@ -9239,7 +9263,7 @@
         <v>11</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C197" s="17">
         <f>15/1000000</f>
@@ -9250,16 +9274,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E197" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F197" s="7">
         <v>6</v>
       </c>
       <c r="G197" s="25">
-        <v>0</v>
-      </c>
-      <c r="H197" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H197" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9276,7 +9300,7 @@
         <v>10</v>
       </c>
       <c r="E198" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F198" s="7">
         <v>6</v>
@@ -9296,13 +9320,13 @@
         <v>26</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E199" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F199" s="7">
         <v>6</v>
@@ -9329,16 +9353,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E200" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F200" s="7">
         <v>6</v>
       </c>
       <c r="G200" s="25">
-        <v>0</v>
-      </c>
-      <c r="H200" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H200" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9349,13 +9373,13 @@
         <v>26</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D201" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E201" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F201" s="7">
         <v>6</v>
@@ -9378,10 +9402,10 @@
         <v>10</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E202" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F202" s="7">
         <v>6</v>
@@ -9389,16 +9413,16 @@
       <c r="G202" s="25">
         <v>0</v>
       </c>
-      <c r="H202" s="9" t="s">
-        <v>10</v>
+      <c r="H202" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B203" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B203" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C203" s="17">
         <f>15/1000000</f>
@@ -9408,7 +9432,7 @@
         <v>0.1</v>
       </c>
       <c r="E203" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F203" s="7">
         <v>6</v>
@@ -9425,16 +9449,16 @@
         <v>16</v>
       </c>
       <c r="B204" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D204" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E204" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F204" s="7">
         <v>6</v>
@@ -9460,7 +9484,7 @@
         <v>10</v>
       </c>
       <c r="E205" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F205" s="7">
         <v>6</v>
@@ -9477,7 +9501,7 @@
         <v>11</v>
       </c>
       <c r="B206" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C206" s="17">
         <f>30/1000000</f>
@@ -9488,16 +9512,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E206" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F206" s="7">
         <v>6</v>
       </c>
       <c r="G206" s="25">
-        <v>0</v>
-      </c>
-      <c r="H206" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H206" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9514,7 +9538,7 @@
         <v>10</v>
       </c>
       <c r="E207" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F207" s="7">
         <v>6</v>
@@ -9534,13 +9558,13 @@
         <v>26</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D208" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E208" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F208" s="7">
         <v>6</v>
@@ -9567,16 +9591,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E209" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F209" s="7">
         <v>6</v>
       </c>
       <c r="G209" s="25">
-        <v>0</v>
-      </c>
-      <c r="H209" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H209" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9587,13 +9611,13 @@
         <v>26</v>
       </c>
       <c r="C210" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D210" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E210" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F210" s="7">
         <v>6</v>
@@ -9616,10 +9640,10 @@
         <v>10</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E211" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F211" s="7">
         <v>6</v>
@@ -9627,16 +9651,16 @@
       <c r="G211" s="25">
         <v>0</v>
       </c>
-      <c r="H211" s="9" t="s">
-        <v>10</v>
+      <c r="H211" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B212" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B212" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C212" s="17">
         <f>30/1000000</f>
@@ -9646,7 +9670,7 @@
         <v>0.1</v>
       </c>
       <c r="E212" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F212" s="7">
         <v>6</v>
@@ -9663,16 +9687,16 @@
         <v>16</v>
       </c>
       <c r="B213" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C213" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D213" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E213" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F213" s="7">
         <v>6</v>
@@ -9698,7 +9722,7 @@
         <v>10</v>
       </c>
       <c r="E214" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F214" s="7">
         <v>6</v>
@@ -9715,7 +9739,7 @@
         <v>11</v>
       </c>
       <c r="B215" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C215" s="17">
         <f>45/1000000</f>
@@ -9726,16 +9750,16 @@
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="E215" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F215" s="7">
         <v>6</v>
       </c>
       <c r="G215" s="25">
-        <v>0</v>
-      </c>
-      <c r="H215" s="9" t="s">
-        <v>10</v>
+        <v>4.4550000000000005E-5</v>
+      </c>
+      <c r="H215" s="9">
+        <v>4.545E-5</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9752,7 +9776,7 @@
         <v>10</v>
       </c>
       <c r="E216" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F216" s="7">
         <v>6</v>
@@ -9772,13 +9796,13 @@
         <v>26</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D217" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E217" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F217" s="7">
         <v>6</v>
@@ -9805,16 +9829,16 @@
         <v>4.5000000000000003E-5</v>
       </c>
       <c r="E218" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F218" s="7">
         <v>6</v>
       </c>
       <c r="G218" s="25">
-        <v>0</v>
-      </c>
-      <c r="H218" s="9" t="s">
-        <v>10</v>
+        <v>4.4550000000000005E-5</v>
+      </c>
+      <c r="H218" s="9">
+        <v>4.545E-5</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9825,13 +9849,13 @@
         <v>26</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D219" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E219" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F219" s="7">
         <v>6</v>
@@ -9854,10 +9878,10 @@
         <v>10</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E220" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F220" s="7">
         <v>6</v>
@@ -9865,16 +9889,16 @@
       <c r="G220" s="25">
         <v>0</v>
       </c>
-      <c r="H220" s="9" t="s">
-        <v>10</v>
+      <c r="H220" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B221" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B221" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C221" s="17">
         <f>45/1000000</f>
@@ -9884,7 +9908,7 @@
         <v>0.1</v>
       </c>
       <c r="E221" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F221" s="7">
         <v>6</v>
@@ -9901,16 +9925,16 @@
         <v>16</v>
       </c>
       <c r="B222" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C222" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D222" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E222" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F222" s="7">
         <v>6</v>
@@ -9936,7 +9960,7 @@
         <v>10</v>
       </c>
       <c r="E223" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F223" s="7">
         <v>6</v>
@@ -9953,7 +9977,7 @@
         <v>11</v>
       </c>
       <c r="B224" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C224" s="17">
         <f>60/1000000</f>
@@ -9964,7 +9988,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="E224" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F224" s="7">
         <v>6</v>
@@ -9990,7 +10014,7 @@
         <v>10</v>
       </c>
       <c r="E225" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F225" s="7">
         <v>6</v>
@@ -10010,13 +10034,13 @@
         <v>26</v>
       </c>
       <c r="C226" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D226" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E226" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F226" s="7">
         <v>6</v>
@@ -10043,7 +10067,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="E227" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F227" s="7">
         <v>6</v>
@@ -10063,13 +10087,13 @@
         <v>26</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D228" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E228" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F228" s="7">
         <v>6</v>
@@ -10092,10 +10116,10 @@
         <v>10</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E229" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F229" s="7">
         <v>6</v>
@@ -10103,16 +10127,16 @@
       <c r="G229" s="25">
         <v>0</v>
       </c>
-      <c r="H229" s="9" t="s">
-        <v>10</v>
+      <c r="H229" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B230" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B230" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C230" s="17">
         <f>60/1000000</f>
@@ -10122,7 +10146,7 @@
         <v>0.1</v>
       </c>
       <c r="E230" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F230" s="7">
         <v>6</v>
@@ -10139,16 +10163,16 @@
         <v>16</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C231" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D231" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E231" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F231" s="7">
         <v>6</v>
@@ -10174,7 +10198,7 @@
         <v>10</v>
       </c>
       <c r="E232" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F232" s="7">
         <v>6</v>
@@ -10191,16 +10215,16 @@
         <v>11</v>
       </c>
       <c r="B233" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D233" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E233" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C233" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D233" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E233" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="F233" s="7">
         <v>7</v>
@@ -10226,7 +10250,7 @@
         <v>10</v>
       </c>
       <c r="E234" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F234" s="7">
         <v>7</v>
@@ -10246,13 +10270,13 @@
         <v>26</v>
       </c>
       <c r="C235" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D235" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E235" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F235" s="7">
         <v>7</v>
@@ -10275,10 +10299,10 @@
         <v>10</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E236" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F236" s="7">
         <v>7</v>
@@ -10286,8 +10310,8 @@
       <c r="G236" s="25">
         <v>0</v>
       </c>
-      <c r="H236" s="9" t="s">
-        <v>10</v>
+      <c r="H236" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10295,16 +10319,16 @@
         <v>16</v>
       </c>
       <c r="B237" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C237" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D237" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E237" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F237" s="7">
         <v>7</v>
@@ -10330,7 +10354,7 @@
         <v>10</v>
       </c>
       <c r="E238" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F238" s="7">
         <v>7</v>
@@ -10347,7 +10371,7 @@
         <v>11</v>
       </c>
       <c r="B239" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C239" s="17">
         <f>-30/1000000</f>
@@ -10358,7 +10382,7 @@
         <v>-3.0000000000000001E-5</v>
       </c>
       <c r="E239" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F239" s="7">
         <v>7</v>
@@ -10384,7 +10408,7 @@
         <v>10</v>
       </c>
       <c r="E240" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F240" s="7">
         <v>7</v>
@@ -10404,13 +10428,13 @@
         <v>26</v>
       </c>
       <c r="C241" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D241" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E241" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F241" s="7">
         <v>7</v>
@@ -10437,7 +10461,7 @@
         <v>-3.0000000000000001E-5</v>
       </c>
       <c r="E242" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F242" s="7">
         <v>7</v>
@@ -10457,13 +10481,13 @@
         <v>26</v>
       </c>
       <c r="C243" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D243" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E243" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F243" s="7">
         <v>7</v>
@@ -10486,10 +10510,10 @@
         <v>10</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E244" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F244" s="7">
         <v>7</v>
@@ -10497,16 +10521,16 @@
       <c r="G244" s="25">
         <v>0</v>
       </c>
-      <c r="H244" s="9" t="s">
-        <v>10</v>
+      <c r="H244" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B245" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B245" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C245" s="17">
         <f>-30/1000000</f>
@@ -10516,7 +10540,7 @@
         <v>0.1</v>
       </c>
       <c r="E245" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F245" s="7">
         <v>7</v>
@@ -10533,16 +10557,16 @@
         <v>16</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C246" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D246" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E246" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F246" s="7">
         <v>7</v>
@@ -10568,7 +10592,7 @@
         <v>10</v>
       </c>
       <c r="E247" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F247" s="7">
         <v>7</v>
@@ -10585,7 +10609,7 @@
         <v>11</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C248" s="17">
         <v>-1.5E-5</v>
@@ -10595,17 +10619,12 @@
         <v>-1.5E-5</v>
       </c>
       <c r="E248" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F248" s="7">
         <v>7</v>
       </c>
-      <c r="G248" s="25">
-        <v>0</v>
-      </c>
-      <c r="H248" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="H248" s="9"/>
     </row>
     <row r="249" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="17" t="s">
@@ -10621,7 +10640,7 @@
         <v>10</v>
       </c>
       <c r="E249" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F249" s="7">
         <v>7</v>
@@ -10641,13 +10660,13 @@
         <v>26</v>
       </c>
       <c r="C250" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D250" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E250" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F250" s="7">
         <v>7</v>
@@ -10674,7 +10693,7 @@
         <v>-1.5E-5</v>
       </c>
       <c r="E251" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F251" s="7">
         <v>7</v>
@@ -10694,13 +10713,13 @@
         <v>26</v>
       </c>
       <c r="C252" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D252" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E252" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F252" s="7">
         <v>7</v>
@@ -10723,10 +10742,10 @@
         <v>10</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E253" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F253" s="7">
         <v>7</v>
@@ -10734,16 +10753,16 @@
       <c r="G253" s="25">
         <v>0</v>
       </c>
-      <c r="H253" s="9" t="s">
-        <v>10</v>
+      <c r="H253" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B254" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B254" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C254" s="17">
         <v>-1.5E-5</v>
@@ -10752,7 +10771,7 @@
         <v>0.1</v>
       </c>
       <c r="E254" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F254" s="7">
         <v>7</v>
@@ -10769,16 +10788,16 @@
         <v>16</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C255" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D255" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E255" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F255" s="7">
         <v>7</v>
@@ -10804,7 +10823,7 @@
         <v>10</v>
       </c>
       <c r="E256" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F256" s="7">
         <v>7</v>
@@ -10821,7 +10840,7 @@
         <v>11</v>
       </c>
       <c r="B257" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C257" s="17">
         <f>15/1000000</f>
@@ -10832,16 +10851,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E257" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F257" s="7">
         <v>7</v>
       </c>
       <c r="G257" s="25">
-        <v>0</v>
-      </c>
-      <c r="H257" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H257" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10858,7 +10877,7 @@
         <v>10</v>
       </c>
       <c r="E258" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F258" s="7">
         <v>7</v>
@@ -10878,13 +10897,13 @@
         <v>26</v>
       </c>
       <c r="C259" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D259" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E259" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F259" s="7">
         <v>7</v>
@@ -10911,16 +10930,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E260" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F260" s="7">
         <v>7</v>
       </c>
       <c r="G260" s="25">
-        <v>0</v>
-      </c>
-      <c r="H260" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H260" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10931,13 +10950,13 @@
         <v>26</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D261" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E261" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F261" s="7">
         <v>7</v>
@@ -10960,10 +10979,10 @@
         <v>10</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E262" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F262" s="7">
         <v>7</v>
@@ -10971,16 +10990,16 @@
       <c r="G262" s="25">
         <v>0</v>
       </c>
-      <c r="H262" s="9" t="s">
-        <v>10</v>
+      <c r="H262" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B263" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B263" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C263" s="17">
         <f>15/1000000</f>
@@ -10990,7 +11009,7 @@
         <v>0.1</v>
       </c>
       <c r="E263" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F263" s="7">
         <v>7</v>
@@ -11007,16 +11026,16 @@
         <v>16</v>
       </c>
       <c r="B264" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C264" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D264" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E264" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F264" s="7">
         <v>7</v>
@@ -11042,7 +11061,7 @@
         <v>10</v>
       </c>
       <c r="E265" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F265" s="7">
         <v>7</v>
@@ -11059,7 +11078,7 @@
         <v>11</v>
       </c>
       <c r="B266" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C266" s="17">
         <f>30/1000000</f>
@@ -11070,16 +11089,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E266" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F266" s="7">
         <v>7</v>
       </c>
       <c r="G266" s="25">
-        <v>0</v>
-      </c>
-      <c r="H266" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H266" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11096,7 +11115,7 @@
         <v>10</v>
       </c>
       <c r="E267" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F267" s="7">
         <v>7</v>
@@ -11116,13 +11135,13 @@
         <v>26</v>
       </c>
       <c r="C268" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D268" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E268" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F268" s="7">
         <v>7</v>
@@ -11149,16 +11168,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E269" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F269" s="7">
         <v>7</v>
       </c>
       <c r="G269" s="25">
-        <v>0</v>
-      </c>
-      <c r="H269" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H269" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11169,13 +11188,13 @@
         <v>26</v>
       </c>
       <c r="C270" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D270" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E270" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F270" s="7">
         <v>7</v>
@@ -11198,10 +11217,10 @@
         <v>10</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E271" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F271" s="7">
         <v>7</v>
@@ -11209,16 +11228,16 @@
       <c r="G271" s="25">
         <v>0</v>
       </c>
-      <c r="H271" s="9" t="s">
-        <v>10</v>
+      <c r="H271" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B272" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B272" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C272" s="17">
         <f>30/1000000</f>
@@ -11228,7 +11247,7 @@
         <v>0.1</v>
       </c>
       <c r="E272" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F272" s="7">
         <v>7</v>
@@ -11245,16 +11264,16 @@
         <v>16</v>
       </c>
       <c r="B273" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C273" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D273" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E273" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F273" s="7">
         <v>7</v>
@@ -11280,7 +11299,7 @@
         <v>10</v>
       </c>
       <c r="E274" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F274" s="7">
         <v>7</v>
@@ -11297,16 +11316,16 @@
         <v>11</v>
       </c>
       <c r="B275" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C275" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D275" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E275" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C275" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D275" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E275" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="F275" s="7">
         <v>8</v>
@@ -11332,7 +11351,7 @@
         <v>10</v>
       </c>
       <c r="E276" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F276" s="7">
         <v>8</v>
@@ -11352,13 +11371,13 @@
         <v>26</v>
       </c>
       <c r="C277" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D277" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E277" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F277" s="7">
         <v>8</v>
@@ -11381,10 +11400,10 @@
         <v>10</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E278" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F278" s="7">
         <v>8</v>
@@ -11392,8 +11411,8 @@
       <c r="G278" s="25">
         <v>0</v>
       </c>
-      <c r="H278" s="9" t="s">
-        <v>10</v>
+      <c r="H278" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11401,16 +11420,16 @@
         <v>16</v>
       </c>
       <c r="B279" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C279" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D279" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E279" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F279" s="7">
         <v>8</v>
@@ -11436,7 +11455,7 @@
         <v>10</v>
       </c>
       <c r="E280" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F280" s="7">
         <v>8</v>
@@ -11453,7 +11472,7 @@
         <v>11</v>
       </c>
       <c r="B281" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C281" s="17">
         <f>-30/1000000</f>
@@ -11464,7 +11483,7 @@
         <v>-3.0000000000000001E-5</v>
       </c>
       <c r="E281" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F281" s="7">
         <v>8</v>
@@ -11490,7 +11509,7 @@
         <v>10</v>
       </c>
       <c r="E282" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F282" s="7">
         <v>8</v>
@@ -11510,13 +11529,13 @@
         <v>26</v>
       </c>
       <c r="C283" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D283" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E283" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F283" s="7">
         <v>8</v>
@@ -11543,7 +11562,7 @@
         <v>-3.0000000000000001E-5</v>
       </c>
       <c r="E284" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F284" s="7">
         <v>8</v>
@@ -11563,13 +11582,13 @@
         <v>26</v>
       </c>
       <c r="C285" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D285" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E285" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F285" s="7">
         <v>8</v>
@@ -11592,10 +11611,10 @@
         <v>10</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E286" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F286" s="7">
         <v>8</v>
@@ -11603,16 +11622,16 @@
       <c r="G286" s="25">
         <v>0</v>
       </c>
-      <c r="H286" s="9" t="s">
-        <v>10</v>
+      <c r="H286" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B287" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B287" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C287" s="17">
         <f>-30/1000000</f>
@@ -11622,7 +11641,7 @@
         <v>0.1</v>
       </c>
       <c r="E287" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F287" s="7">
         <v>8</v>
@@ -11639,16 +11658,16 @@
         <v>16</v>
       </c>
       <c r="B288" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C288" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D288" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E288" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F288" s="7">
         <v>8</v>
@@ -11674,7 +11693,7 @@
         <v>10</v>
       </c>
       <c r="E289" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F289" s="7">
         <v>8</v>
@@ -11691,7 +11710,7 @@
         <v>11</v>
       </c>
       <c r="B290" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C290" s="17">
         <f>-15/1000000</f>
@@ -11702,7 +11721,7 @@
         <v>-1.5E-5</v>
       </c>
       <c r="E290" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F290" s="7">
         <v>8</v>
@@ -11728,7 +11747,7 @@
         <v>10</v>
       </c>
       <c r="E291" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F291" s="7">
         <v>8</v>
@@ -11748,13 +11767,13 @@
         <v>26</v>
       </c>
       <c r="C292" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D292" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E292" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F292" s="7">
         <v>8</v>
@@ -11781,7 +11800,7 @@
         <v>-1.5E-5</v>
       </c>
       <c r="E293" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F293" s="7">
         <v>8</v>
@@ -11801,13 +11820,13 @@
         <v>26</v>
       </c>
       <c r="C294" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D294" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E294" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F294" s="7">
         <v>8</v>
@@ -11830,10 +11849,10 @@
         <v>10</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E295" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F295" s="7">
         <v>8</v>
@@ -11841,16 +11860,16 @@
       <c r="G295" s="25">
         <v>0</v>
       </c>
-      <c r="H295" s="9" t="s">
-        <v>10</v>
+      <c r="H295" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B296" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B296" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C296" s="17">
         <f>-15/1000000</f>
@@ -11860,7 +11879,7 @@
         <v>0.1</v>
       </c>
       <c r="E296" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F296" s="7">
         <v>8</v>
@@ -11877,16 +11896,16 @@
         <v>16</v>
       </c>
       <c r="B297" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C297" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D297" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E297" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F297" s="7">
         <v>8</v>
@@ -11912,7 +11931,7 @@
         <v>10</v>
       </c>
       <c r="E298" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F298" s="7">
         <v>8</v>
@@ -11929,7 +11948,7 @@
         <v>11</v>
       </c>
       <c r="B299" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C299" s="17">
         <f>15/1000000</f>
@@ -11940,16 +11959,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E299" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F299" s="7">
         <v>8</v>
       </c>
       <c r="G299" s="25">
-        <v>0</v>
-      </c>
-      <c r="H299" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H299" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11966,7 +11985,7 @@
         <v>10</v>
       </c>
       <c r="E300" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F300" s="7">
         <v>8</v>
@@ -11986,13 +12005,13 @@
         <v>26</v>
       </c>
       <c r="C301" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D301" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E301" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F301" s="7">
         <v>8</v>
@@ -12019,16 +12038,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E302" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F302" s="7">
         <v>8</v>
       </c>
       <c r="G302" s="25">
-        <v>0</v>
-      </c>
-      <c r="H302" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H302" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12039,13 +12058,13 @@
         <v>26</v>
       </c>
       <c r="C303" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E303" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F303" s="7">
         <v>8</v>
@@ -12068,10 +12087,10 @@
         <v>10</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E304" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F304" s="7">
         <v>8</v>
@@ -12079,16 +12098,16 @@
       <c r="G304" s="25">
         <v>0</v>
       </c>
-      <c r="H304" s="9" t="s">
-        <v>10</v>
+      <c r="H304" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B305" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B305" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C305" s="17">
         <f>15/1000000</f>
@@ -12098,7 +12117,7 @@
         <v>0.1</v>
       </c>
       <c r="E305" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F305" s="7">
         <v>8</v>
@@ -12115,16 +12134,16 @@
         <v>16</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D306" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E306" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F306" s="7">
         <v>8</v>
@@ -12150,7 +12169,7 @@
         <v>10</v>
       </c>
       <c r="E307" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F307" s="7">
         <v>8</v>
@@ -12167,7 +12186,7 @@
         <v>11</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C308" s="17">
         <f>30/1000000</f>
@@ -12178,16 +12197,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E308" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F308" s="7">
         <v>8</v>
       </c>
       <c r="G308" s="25">
-        <v>0</v>
-      </c>
-      <c r="H308" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H308" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12204,7 +12223,7 @@
         <v>10</v>
       </c>
       <c r="E309" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F309" s="7">
         <v>8</v>
@@ -12224,13 +12243,13 @@
         <v>26</v>
       </c>
       <c r="C310" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D310" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E310" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F310" s="7">
         <v>8</v>
@@ -12257,16 +12276,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E311" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F311" s="7">
         <v>8</v>
       </c>
       <c r="G311" s="25">
-        <v>0</v>
-      </c>
-      <c r="H311" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H311" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12277,13 +12296,13 @@
         <v>26</v>
       </c>
       <c r="C312" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D312" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E312" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F312" s="7">
         <v>8</v>
@@ -12306,10 +12325,10 @@
         <v>10</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E313" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F313" s="7">
         <v>8</v>
@@ -12317,16 +12336,16 @@
       <c r="G313" s="25">
         <v>0</v>
       </c>
-      <c r="H313" s="9" t="s">
-        <v>10</v>
+      <c r="H313" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B314" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B314" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C314" s="17">
         <f>30/1000000</f>
@@ -12336,7 +12355,7 @@
         <v>0.1</v>
       </c>
       <c r="E314" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F314" s="7">
         <v>8</v>
@@ -12353,16 +12372,16 @@
         <v>16</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C315" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D315" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E315" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F315" s="7">
         <v>8</v>
@@ -12388,7 +12407,7 @@
         <v>10</v>
       </c>
       <c r="E316" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F316" s="7">
         <v>8</v>
@@ -12405,16 +12424,16 @@
         <v>11</v>
       </c>
       <c r="B317" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C317" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D317" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E317" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C317" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D317" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E317" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="F317" s="7">
         <v>9</v>
@@ -12440,7 +12459,7 @@
         <v>10</v>
       </c>
       <c r="E318" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F318" s="7">
         <v>9</v>
@@ -12460,13 +12479,13 @@
         <v>26</v>
       </c>
       <c r="C319" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D319" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E319" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F319" s="7">
         <v>9</v>
@@ -12489,10 +12508,10 @@
         <v>10</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E320" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F320" s="7">
         <v>9</v>
@@ -12500,8 +12519,8 @@
       <c r="G320" s="25">
         <v>0</v>
       </c>
-      <c r="H320" s="9" t="s">
-        <v>10</v>
+      <c r="H320" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12509,16 +12528,16 @@
         <v>16</v>
       </c>
       <c r="B321" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C321" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D321" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E321" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F321" s="7">
         <v>9</v>
@@ -12544,7 +12563,7 @@
         <v>10</v>
       </c>
       <c r="E322" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F322" s="7">
         <v>9</v>
@@ -12561,7 +12580,7 @@
         <v>11</v>
       </c>
       <c r="B323" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C323" s="17">
         <f>-30/1000000</f>
@@ -12572,7 +12591,7 @@
         <v>-3.0000000000000001E-5</v>
       </c>
       <c r="E323" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F323" s="7">
         <v>9</v>
@@ -12598,7 +12617,7 @@
         <v>10</v>
       </c>
       <c r="E324" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F324" s="7">
         <v>9</v>
@@ -12618,13 +12637,13 @@
         <v>26</v>
       </c>
       <c r="C325" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D325" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E325" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F325" s="7">
         <v>9</v>
@@ -12651,7 +12670,7 @@
         <v>-3.0000000000000001E-5</v>
       </c>
       <c r="E326" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F326" s="7">
         <v>9</v>
@@ -12671,13 +12690,13 @@
         <v>26</v>
       </c>
       <c r="C327" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D327" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E327" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F327" s="7">
         <v>9</v>
@@ -12700,10 +12719,10 @@
         <v>10</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E328" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F328" s="7">
         <v>9</v>
@@ -12711,16 +12730,16 @@
       <c r="G328" s="25">
         <v>0</v>
       </c>
-      <c r="H328" s="9" t="s">
-        <v>10</v>
+      <c r="H328" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B329" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B329" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C329" s="17">
         <f>-30/1000000</f>
@@ -12730,7 +12749,7 @@
         <v>0.1</v>
       </c>
       <c r="E329" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F329" s="7">
         <v>9</v>
@@ -12747,16 +12766,16 @@
         <v>16</v>
       </c>
       <c r="B330" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C330" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D330" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E330" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F330" s="7">
         <v>9</v>
@@ -12782,7 +12801,7 @@
         <v>10</v>
       </c>
       <c r="E331" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F331" s="7">
         <v>9</v>
@@ -12799,7 +12818,7 @@
         <v>11</v>
       </c>
       <c r="B332" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C332" s="17">
         <f>-15/1000000</f>
@@ -12810,7 +12829,7 @@
         <v>-1.5E-5</v>
       </c>
       <c r="E332" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F332" s="7">
         <v>9</v>
@@ -12836,7 +12855,7 @@
         <v>10</v>
       </c>
       <c r="E333" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F333" s="7">
         <v>9</v>
@@ -12856,13 +12875,13 @@
         <v>26</v>
       </c>
       <c r="C334" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D334" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E334" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F334" s="7">
         <v>9</v>
@@ -12889,7 +12908,7 @@
         <v>-1.5E-5</v>
       </c>
       <c r="E335" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F335" s="7">
         <v>9</v>
@@ -12909,13 +12928,13 @@
         <v>26</v>
       </c>
       <c r="C336" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D336" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E336" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F336" s="7">
         <v>9</v>
@@ -12938,10 +12957,10 @@
         <v>10</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E337" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F337" s="7">
         <v>9</v>
@@ -12949,16 +12968,16 @@
       <c r="G337" s="25">
         <v>0</v>
       </c>
-      <c r="H337" s="9" t="s">
-        <v>10</v>
+      <c r="H337" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B338" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B338" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C338" s="17">
         <f>-15/1000000</f>
@@ -12968,7 +12987,7 @@
         <v>0.1</v>
       </c>
       <c r="E338" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F338" s="7">
         <v>9</v>
@@ -12985,16 +13004,16 @@
         <v>16</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C339" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D339" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E339" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F339" s="7">
         <v>9</v>
@@ -13020,7 +13039,7 @@
         <v>10</v>
       </c>
       <c r="E340" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F340" s="7">
         <v>9</v>
@@ -13037,7 +13056,7 @@
         <v>11</v>
       </c>
       <c r="B341" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C341" s="17">
         <f>15/1000000</f>
@@ -13048,16 +13067,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E341" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F341" s="7">
         <v>9</v>
       </c>
       <c r="G341" s="25">
-        <v>0</v>
-      </c>
-      <c r="H341" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H341" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13074,7 +13093,7 @@
         <v>10</v>
       </c>
       <c r="E342" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F342" s="7">
         <v>9</v>
@@ -13094,13 +13113,13 @@
         <v>26</v>
       </c>
       <c r="C343" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D343" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E343" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F343" s="7">
         <v>9</v>
@@ -13127,16 +13146,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E344" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F344" s="7">
         <v>9</v>
       </c>
       <c r="G344" s="25">
-        <v>0</v>
-      </c>
-      <c r="H344" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H344" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13147,13 +13166,13 @@
         <v>26</v>
       </c>
       <c r="C345" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D345" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E345" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F345" s="7">
         <v>9</v>
@@ -13176,10 +13195,10 @@
         <v>10</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E346" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F346" s="7">
         <v>9</v>
@@ -13187,16 +13206,16 @@
       <c r="G346" s="25">
         <v>0</v>
       </c>
-      <c r="H346" s="9" t="s">
-        <v>10</v>
+      <c r="H346" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B347" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B347" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C347" s="17">
         <f>15/1000000</f>
@@ -13206,7 +13225,7 @@
         <v>0.1</v>
       </c>
       <c r="E347" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F347" s="7">
         <v>9</v>
@@ -13223,16 +13242,16 @@
         <v>16</v>
       </c>
       <c r="B348" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C348" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D348" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E348" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F348" s="7">
         <v>9</v>
@@ -13258,7 +13277,7 @@
         <v>10</v>
       </c>
       <c r="E349" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F349" s="7">
         <v>9</v>
@@ -13275,7 +13294,7 @@
         <v>11</v>
       </c>
       <c r="B350" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C350" s="17">
         <f>30/1000000</f>
@@ -13286,16 +13305,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E350" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F350" s="7">
         <v>9</v>
       </c>
       <c r="G350" s="25">
-        <v>0</v>
-      </c>
-      <c r="H350" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H350" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13312,7 +13331,7 @@
         <v>10</v>
       </c>
       <c r="E351" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F351" s="7">
         <v>9</v>
@@ -13332,13 +13351,13 @@
         <v>26</v>
       </c>
       <c r="C352" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D352" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E352" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F352" s="7">
         <v>9</v>
@@ -13365,16 +13384,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E353" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F353" s="7">
         <v>9</v>
       </c>
       <c r="G353" s="25">
-        <v>0</v>
-      </c>
-      <c r="H353" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H353" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13385,13 +13404,13 @@
         <v>26</v>
       </c>
       <c r="C354" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D354" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E354" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F354" s="7">
         <v>9</v>
@@ -13414,10 +13433,10 @@
         <v>10</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E355" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F355" s="7">
         <v>9</v>
@@ -13425,16 +13444,16 @@
       <c r="G355" s="25">
         <v>0</v>
       </c>
-      <c r="H355" s="9" t="s">
-        <v>10</v>
+      <c r="H355" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B356" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B356" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C356" s="17">
         <f>30/1000000</f>
@@ -13444,7 +13463,7 @@
         <v>0.1</v>
       </c>
       <c r="E356" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F356" s="7">
         <v>9</v>
@@ -13461,16 +13480,16 @@
         <v>16</v>
       </c>
       <c r="B357" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C357" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D357" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E357" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F357" s="7">
         <v>9</v>
@@ -13496,7 +13515,7 @@
         <v>10</v>
       </c>
       <c r="E358" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F358" s="7">
         <v>9</v>
@@ -13513,16 +13532,16 @@
         <v>11</v>
       </c>
       <c r="B359" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C359" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D359" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E359" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C359" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D359" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E359" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="F359" s="7">
         <v>10</v>
@@ -13548,7 +13567,7 @@
         <v>10</v>
       </c>
       <c r="E360" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F360" s="7">
         <v>10</v>
@@ -13568,13 +13587,13 @@
         <v>26</v>
       </c>
       <c r="C361" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D361" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E361" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F361" s="7">
         <v>10</v>
@@ -13597,10 +13616,10 @@
         <v>10</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E362" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F362" s="7">
         <v>10</v>
@@ -13608,8 +13627,8 @@
       <c r="G362" s="25">
         <v>0</v>
       </c>
-      <c r="H362" s="9" t="s">
-        <v>10</v>
+      <c r="H362" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13617,16 +13636,16 @@
         <v>16</v>
       </c>
       <c r="B363" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C363" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D363" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E363" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F363" s="7">
         <v>10</v>
@@ -13652,7 +13671,7 @@
         <v>10</v>
       </c>
       <c r="E364" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F364" s="7">
         <v>10</v>
@@ -13669,7 +13688,7 @@
         <v>11</v>
       </c>
       <c r="B365" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C365" s="17">
         <f>-30/1000000</f>
@@ -13680,7 +13699,7 @@
         <v>-3.0000000000000001E-5</v>
       </c>
       <c r="E365" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F365" s="7">
         <v>10</v>
@@ -13706,7 +13725,7 @@
         <v>10</v>
       </c>
       <c r="E366" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F366" s="7">
         <v>10</v>
@@ -13726,13 +13745,13 @@
         <v>26</v>
       </c>
       <c r="C367" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D367" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E367" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F367" s="7">
         <v>10</v>
@@ -13759,7 +13778,7 @@
         <v>-3.0000000000000001E-5</v>
       </c>
       <c r="E368" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F368" s="7">
         <v>10</v>
@@ -13779,13 +13798,13 @@
         <v>26</v>
       </c>
       <c r="C369" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D369" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E369" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F369" s="7">
         <v>10</v>
@@ -13808,10 +13827,10 @@
         <v>10</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E370" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F370" s="7">
         <v>10</v>
@@ -13819,16 +13838,16 @@
       <c r="G370" s="25">
         <v>0</v>
       </c>
-      <c r="H370" s="9" t="s">
-        <v>10</v>
+      <c r="H370" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B371" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B371" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C371" s="17">
         <f>-30/1000000</f>
@@ -13838,7 +13857,7 @@
         <v>0.1</v>
       </c>
       <c r="E371" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F371" s="7">
         <v>10</v>
@@ -13855,16 +13874,16 @@
         <v>16</v>
       </c>
       <c r="B372" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C372" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D372" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E372" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F372" s="7">
         <v>10</v>
@@ -13890,7 +13909,7 @@
         <v>10</v>
       </c>
       <c r="E373" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F373" s="7">
         <v>10</v>
@@ -13907,7 +13926,7 @@
         <v>11</v>
       </c>
       <c r="B374" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C374" s="17">
         <f>-15/1000000</f>
@@ -13918,7 +13937,7 @@
         <v>-1.5E-5</v>
       </c>
       <c r="E374" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F374" s="7">
         <v>10</v>
@@ -13944,7 +13963,7 @@
         <v>10</v>
       </c>
       <c r="E375" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F375" s="7">
         <v>10</v>
@@ -13964,13 +13983,13 @@
         <v>26</v>
       </c>
       <c r="C376" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D376" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E376" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F376" s="7">
         <v>10</v>
@@ -13997,7 +14016,7 @@
         <v>-1.5E-5</v>
       </c>
       <c r="E377" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F377" s="7">
         <v>10</v>
@@ -14017,13 +14036,13 @@
         <v>26</v>
       </c>
       <c r="C378" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D378" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E378" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F378" s="7">
         <v>10</v>
@@ -14046,10 +14065,10 @@
         <v>10</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E379" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F379" s="7">
         <v>10</v>
@@ -14057,16 +14076,16 @@
       <c r="G379" s="25">
         <v>0</v>
       </c>
-      <c r="H379" s="9" t="s">
-        <v>10</v>
+      <c r="H379" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B380" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B380" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C380" s="17">
         <f>-15/1000000</f>
@@ -14076,7 +14095,7 @@
         <v>0.1</v>
       </c>
       <c r="E380" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F380" s="7">
         <v>10</v>
@@ -14093,16 +14112,16 @@
         <v>16</v>
       </c>
       <c r="B381" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C381" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D381" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E381" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F381" s="7">
         <v>10</v>
@@ -14128,7 +14147,7 @@
         <v>10</v>
       </c>
       <c r="E382" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F382" s="7">
         <v>10</v>
@@ -14145,7 +14164,7 @@
         <v>11</v>
       </c>
       <c r="B383" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C383" s="17">
         <f>15/1000000</f>
@@ -14156,16 +14175,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E383" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F383" s="7">
         <v>10</v>
       </c>
       <c r="G383" s="25">
-        <v>0</v>
-      </c>
-      <c r="H383" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H383" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="384" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14182,7 +14201,7 @@
         <v>10</v>
       </c>
       <c r="E384" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F384" s="7">
         <v>10</v>
@@ -14202,13 +14221,13 @@
         <v>26</v>
       </c>
       <c r="C385" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D385" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E385" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F385" s="7">
         <v>10</v>
@@ -14235,16 +14254,16 @@
         <v>1.5E-5</v>
       </c>
       <c r="E386" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F386" s="7">
         <v>10</v>
       </c>
       <c r="G386" s="25">
-        <v>0</v>
-      </c>
-      <c r="H386" s="9" t="s">
-        <v>10</v>
+        <v>1.485E-5</v>
+      </c>
+      <c r="H386" s="9">
+        <v>1.5150000000000001E-5</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14255,13 +14274,13 @@
         <v>26</v>
       </c>
       <c r="C387" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D387" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E387" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F387" s="7">
         <v>10</v>
@@ -14284,10 +14303,10 @@
         <v>10</v>
       </c>
       <c r="D388" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E388" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F388" s="7">
         <v>10</v>
@@ -14295,16 +14314,16 @@
       <c r="G388" s="25">
         <v>0</v>
       </c>
-      <c r="H388" s="9" t="s">
-        <v>10</v>
+      <c r="H388" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B389" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B389" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C389" s="17">
         <f>15/1000000</f>
@@ -14314,7 +14333,7 @@
         <v>0.1</v>
       </c>
       <c r="E389" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F389" s="7">
         <v>10</v>
@@ -14331,16 +14350,16 @@
         <v>16</v>
       </c>
       <c r="B390" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C390" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D390" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E390" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F390" s="7">
         <v>10</v>
@@ -14366,7 +14385,7 @@
         <v>10</v>
       </c>
       <c r="E391" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F391" s="7">
         <v>10</v>
@@ -14383,7 +14402,7 @@
         <v>11</v>
       </c>
       <c r="B392" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C392" s="17">
         <f>30/1000000</f>
@@ -14394,16 +14413,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E392" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F392" s="7">
         <v>10</v>
       </c>
       <c r="G392" s="25">
-        <v>0</v>
-      </c>
-      <c r="H392" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H392" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="393" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14420,7 +14439,7 @@
         <v>10</v>
       </c>
       <c r="E393" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F393" s="7">
         <v>10</v>
@@ -14440,13 +14459,13 @@
         <v>26</v>
       </c>
       <c r="C394" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D394" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E394" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F394" s="7">
         <v>10</v>
@@ -14473,16 +14492,16 @@
         <v>3.0000000000000001E-5</v>
       </c>
       <c r="E395" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F395" s="7">
         <v>10</v>
       </c>
       <c r="G395" s="25">
-        <v>0</v>
-      </c>
-      <c r="H395" s="9" t="s">
-        <v>10</v>
+        <v>2.97E-5</v>
+      </c>
+      <c r="H395" s="9">
+        <v>3.0300000000000001E-5</v>
       </c>
     </row>
     <row r="396" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14493,13 +14512,13 @@
         <v>26</v>
       </c>
       <c r="C396" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D396" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E396" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F396" s="7">
         <v>10</v>
@@ -14522,10 +14541,10 @@
         <v>10</v>
       </c>
       <c r="D397" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E397" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F397" s="7">
         <v>10</v>
@@ -14533,16 +14552,16 @@
       <c r="G397" s="25">
         <v>0</v>
       </c>
-      <c r="H397" s="9" t="s">
-        <v>10</v>
+      <c r="H397" s="9">
+        <v>6</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B398" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="B398" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="C398" s="17">
         <f>15/1000000</f>
@@ -14552,7 +14571,7 @@
         <v>0.1</v>
       </c>
       <c r="E398" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F398" s="7">
         <v>10</v>
@@ -14569,16 +14588,16 @@
         <v>16</v>
       </c>
       <c r="B399" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C399" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D399" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E399" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F399" s="7">
         <v>10</v>
@@ -14604,7 +14623,7 @@
         <v>10</v>
       </c>
       <c r="E400" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F400" s="9">
         <v>10</v>
@@ -14630,7 +14649,7 @@
         <v>10</v>
       </c>
       <c r="E401" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F401" s="9">
         <v>0</v>
@@ -14692,10 +14711,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>3</v>
@@ -14706,13 +14725,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="21">
         <v>2400</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14720,7 +14739,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="21">
         <v>115200</v>
@@ -14731,7 +14750,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="21">
         <v>9600</v>
@@ -14742,13 +14761,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="21">
         <v>115200</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14756,21 +14775,21 @@
         <v>6</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="21">
         <v>2400</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="8">
         <v>9600</v>
@@ -14786,7 +14805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
@@ -14859,7 +14878,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>10</v>
@@ -14885,7 +14904,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" s="28" t="s">
         <v>10</v>
@@ -14925,26 +14944,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>234</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
         <v>239</v>
-      </c>
-      <c r="B2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
         <v>242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -14970,18 +14989,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>237</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2">
         <v>23</v>
@@ -14992,7 +15011,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3">
         <v>27</v>
@@ -15000,7 +15019,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4">
         <v>33</v>

--- a/USA/UCA.xlsx
+++ b/USA/UCA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UCA actual\UCA\USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UCA actual\UCA\USA\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -922,7 +922,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1013,16 +1013,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1381,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView topLeftCell="B62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,6 +1406,7 @@
     <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" style="9"/>
     <col min="8" max="8" width="18.5703125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1418,7 +1434,7 @@
       <c r="H1" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="36" t="s">
         <v>250</v>
       </c>
     </row>
@@ -1447,7 +1463,7 @@
       <c r="H2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1476,7 +1492,7 @@
       <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1505,7 +1521,7 @@
       <c r="H4" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1534,7 +1550,7 @@
       <c r="H5" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1563,7 +1579,7 @@
       <c r="H6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1592,7 +1608,7 @@
       <c r="H7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1621,7 +1637,7 @@
       <c r="H8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1650,7 +1666,7 @@
       <c r="H9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1679,7 +1695,7 @@
       <c r="H10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1708,7 +1724,7 @@
       <c r="H11" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="39">
         <v>1</v>
       </c>
     </row>
@@ -1737,7 +1753,7 @@
       <c r="H12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1766,7 +1782,7 @@
       <c r="H13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1795,7 +1811,7 @@
       <c r="H14" s="3">
         <v>3.1E-6</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1824,7 +1840,7 @@
       <c r="H15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1853,7 +1869,7 @@
       <c r="H16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1882,7 +1898,7 @@
       <c r="H17" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="38">
         <v>1</v>
       </c>
     </row>
@@ -1911,7 +1927,7 @@
       <c r="H18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1940,7 +1956,7 @@
       <c r="H19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1969,7 +1985,7 @@
       <c r="H20" s="3">
         <v>3.1E-6</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="37">
         <v>1</v>
       </c>
     </row>
@@ -1998,7 +2014,7 @@
       <c r="H21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2027,7 +2043,7 @@
       <c r="H22" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2056,7 +2072,7 @@
       <c r="H23" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="38">
         <v>1</v>
       </c>
     </row>
@@ -2085,7 +2101,7 @@
       <c r="H24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2114,7 +2130,7 @@
       <c r="H25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2143,7 +2159,7 @@
       <c r="H26" s="3">
         <v>3.1E-6</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="37">
         <v>1</v>
       </c>
     </row>
@@ -2172,7 +2188,7 @@
       <c r="H27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2201,7 +2217,7 @@
       <c r="H28" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2230,7 +2246,7 @@
       <c r="H29" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="38">
         <v>1</v>
       </c>
     </row>
@@ -2259,7 +2275,7 @@
       <c r="H30" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2288,7 +2304,7 @@
       <c r="H31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2317,7 +2333,7 @@
       <c r="H32" s="3">
         <v>3.1E-6</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="37">
         <v>1</v>
       </c>
     </row>
@@ -2346,7 +2362,7 @@
       <c r="H33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2375,7 +2391,7 @@
       <c r="H34" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2404,7 +2420,7 @@
       <c r="H35" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="38">
         <v>1</v>
       </c>
     </row>
@@ -2433,7 +2449,7 @@
       <c r="H36" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2478,7 @@
       <c r="H37" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2491,7 +2507,7 @@
       <c r="H38" s="3">
         <v>3.1E-6</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="37">
         <v>1</v>
       </c>
     </row>
@@ -2520,7 +2536,7 @@
       <c r="H39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2549,7 +2565,7 @@
       <c r="H40" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2578,7 +2594,7 @@
       <c r="H41" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="38">
         <v>1</v>
       </c>
     </row>
@@ -2607,7 +2623,7 @@
       <c r="H42" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2636,7 +2652,7 @@
       <c r="H43" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2665,7 +2681,7 @@
       <c r="H44" s="3">
         <v>3.1E-6</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="37">
         <v>1</v>
       </c>
     </row>
@@ -2694,7 +2710,7 @@
       <c r="H45" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2723,7 +2739,7 @@
       <c r="H46" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2752,7 +2768,7 @@
       <c r="H47" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="38">
         <v>1</v>
       </c>
     </row>
@@ -2781,7 +2797,7 @@
       <c r="H48" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2810,7 +2826,7 @@
       <c r="H49" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2839,7 +2855,7 @@
       <c r="H50" s="3">
         <v>3.1E-6</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="37">
         <v>1</v>
       </c>
     </row>
@@ -2868,7 +2884,7 @@
       <c r="H51" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2897,7 +2913,7 @@
       <c r="H52" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2926,7 +2942,7 @@
       <c r="H53" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I53" s="34">
+      <c r="I53" s="38">
         <v>1</v>
       </c>
     </row>
@@ -2955,7 +2971,7 @@
       <c r="H54" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2984,7 +3000,7 @@
       <c r="H55" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3013,7 +3029,7 @@
       <c r="H56" s="3">
         <v>3.1E-6</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="37">
         <v>1</v>
       </c>
     </row>
@@ -3042,7 +3058,7 @@
       <c r="H57" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3071,7 +3087,7 @@
       <c r="H58" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3100,7 +3116,7 @@
       <c r="H59" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I59" s="34">
+      <c r="I59" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3129,7 +3145,7 @@
       <c r="H60" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3158,7 +3174,7 @@
       <c r="H61" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3187,7 +3203,7 @@
       <c r="H62" s="3">
         <v>3.1E-6</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="37">
         <v>1</v>
       </c>
     </row>
@@ -3216,7 +3232,7 @@
       <c r="H63" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3245,7 +3261,7 @@
       <c r="H64" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3274,7 +3290,7 @@
       <c r="H65" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I65" s="34">
+      <c r="I65" s="38">
         <v>1</v>
       </c>
     </row>
@@ -3303,7 +3319,7 @@
       <c r="H66" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3332,7 +3348,7 @@
       <c r="H67" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3361,7 +3377,7 @@
       <c r="H68" s="3">
         <v>3.1E-6</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="37">
         <v>1</v>
       </c>
     </row>
@@ -3390,7 +3406,7 @@
       <c r="H69" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3419,7 +3435,7 @@
       <c r="H70" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3448,7 +3464,7 @@
       <c r="H71" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3477,7 +3493,7 @@
       <c r="H72" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="39">
         <v>0</v>
       </c>
     </row>
@@ -3506,7 +3522,7 @@
       <c r="H73" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3535,7 +3551,7 @@
       <c r="H74" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="39">
         <v>1</v>
       </c>
     </row>
@@ -3550,7 +3566,7 @@
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3560,7 +3576,7 @@
     <col min="6" max="6" width="17.85546875" style="9" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="9" customWidth="1"/>
     <col min="8" max="8" width="12" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="33" customWidth="1"/>
     <col min="10" max="1024" width="35.7109375" style="8"/>
   </cols>
   <sheetData>
@@ -3589,7 +3605,7 @@
       <c r="H1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="32" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3618,7 +3634,7 @@
       <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3647,7 +3663,7 @@
       <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="33">
         <v>1</v>
       </c>
     </row>
@@ -3676,7 +3692,7 @@
       <c r="H4" s="9">
         <v>32</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="33">
         <v>1</v>
       </c>
     </row>
@@ -3705,7 +3721,7 @@
       <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="33">
         <v>1</v>
       </c>
     </row>
@@ -3734,7 +3750,7 @@
       <c r="H6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3763,7 +3779,7 @@
       <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3792,7 +3808,7 @@
       <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3821,7 +3837,7 @@
       <c r="H9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3850,7 +3866,7 @@
       <c r="H10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3879,7 +3895,7 @@
       <c r="H11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3908,7 +3924,7 @@
       <c r="H12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3937,7 +3953,7 @@
       <c r="H13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3966,7 +3982,7 @@
       <c r="H14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3995,7 +4011,7 @@
       <c r="H15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4024,7 +4040,7 @@
       <c r="H16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4053,7 +4069,7 @@
       <c r="H17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4068,7 +4084,7 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4078,7 +4094,7 @@
     <col min="6" max="6" width="30.7109375" style="9"/>
     <col min="7" max="7" width="19.85546875" style="9" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="35" customWidth="1"/>
     <col min="10" max="1024" width="30.7109375" style="8"/>
   </cols>
   <sheetData>
@@ -4107,7 +4123,7 @@
       <c r="H1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="34" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4136,7 +4152,7 @@
       <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4165,7 +4181,7 @@
       <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4194,7 +4210,7 @@
       <c r="H4" s="9">
         <v>32</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="35">
         <v>1</v>
       </c>
     </row>
@@ -4223,7 +4239,7 @@
       <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="35">
         <v>1</v>
       </c>
     </row>
@@ -4252,7 +4268,7 @@
       <c r="H6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4281,7 +4297,7 @@
       <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4310,7 +4326,7 @@
       <c r="H8" s="9">
         <v>32</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="35">
         <v>1</v>
       </c>
     </row>
@@ -4339,7 +4355,7 @@
       <c r="H9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4368,7 +4384,7 @@
       <c r="H10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4397,7 +4413,7 @@
       <c r="H11" s="9">
         <v>9.75</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="35">
         <v>1</v>
       </c>
     </row>
@@ -4426,7 +4442,7 @@
       <c r="H12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="35">
         <v>0</v>
       </c>
     </row>
@@ -4441,7 +4457,7 @@
   <dimension ref="A1:AMJ403"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4454,7 +4470,7 @@
     <col min="6" max="6" width="14" style="9" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="19" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="33" customWidth="1"/>
     <col min="10" max="1024" width="35.7109375" style="9"/>
     <col min="1025" max="16384" width="35.7109375" style="1"/>
   </cols>
@@ -4484,7 +4500,7 @@
       <c r="H1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="32" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4513,7 +4529,7 @@
       <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4542,7 +4558,7 @@
       <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4571,7 +4587,7 @@
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4600,7 +4616,7 @@
       <c r="H5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4629,7 +4645,7 @@
       <c r="H6" s="9">
         <v>1E-3</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4658,7 +4674,7 @@
       <c r="H7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4687,7 +4703,7 @@
       <c r="H8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4716,7 +4732,7 @@
       <c r="H9" s="9">
         <v>0.1</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4745,7 +4761,7 @@
       <c r="H10" s="9">
         <v>6</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4774,7 +4790,7 @@
       <c r="H11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4803,7 +4819,7 @@
       <c r="H12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4832,7 +4848,7 @@
       <c r="H13" s="9">
         <v>20.2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4861,7 +4877,7 @@
       <c r="H14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4890,7 +4906,7 @@
       <c r="H15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4919,7 +4935,7 @@
       <c r="H16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="33">
         <v>0</v>
       </c>
     </row>
@@ -4948,7 +4964,7 @@
       <c r="H17" s="9">
         <v>20.2</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="33">
         <v>1</v>
       </c>
     </row>
@@ -4977,7 +4993,7 @@
       <c r="H18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5006,7 +5022,7 @@
       <c r="H19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5035,7 +5051,7 @@
       <c r="H20" s="9">
         <v>3.21</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5064,7 +5080,7 @@
       <c r="H21" s="9">
         <v>0.155</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5093,7 +5109,7 @@
       <c r="H22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5122,7 +5138,7 @@
       <c r="H23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5151,7 +5167,7 @@
       <c r="H24" s="9">
         <v>40.4</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5180,7 +5196,7 @@
       <c r="H25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5209,7 +5225,7 @@
       <c r="H26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5238,7 +5254,7 @@
       <c r="H27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5267,7 +5283,7 @@
       <c r="H28" s="9">
         <v>40.4</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5296,7 +5312,7 @@
       <c r="H29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5325,7 +5341,7 @@
       <c r="H30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5354,7 +5370,7 @@
       <c r="H31" s="9">
         <v>6.32</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5383,7 +5399,7 @@
       <c r="H32" s="9">
         <v>0.155</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5412,7 +5428,7 @@
       <c r="H33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5441,7 +5457,7 @@
       <c r="H34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5470,7 +5486,7 @@
       <c r="H35" s="9">
         <v>0</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5499,7 +5515,7 @@
       <c r="H36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5528,7 +5544,7 @@
       <c r="H37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5555,7 +5571,7 @@
       <c r="H38" s="9">
         <v>0</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5584,7 +5600,7 @@
       <c r="H39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5613,7 +5629,7 @@
       <c r="H40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5642,7 +5658,7 @@
       <c r="H41" s="9">
         <v>0.1</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5671,7 +5687,7 @@
       <c r="H42" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5700,7 +5716,7 @@
       <c r="H43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5729,7 +5745,7 @@
       <c r="H44" s="9">
         <v>20.2</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5758,7 +5774,7 @@
       <c r="H45" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5787,7 +5803,7 @@
       <c r="H46" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5816,7 +5832,7 @@
       <c r="H47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5845,7 +5861,7 @@
       <c r="H48" s="9">
         <v>20.2</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5874,7 +5890,7 @@
       <c r="H49" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5903,7 +5919,7 @@
       <c r="H50" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5932,7 +5948,7 @@
       <c r="H51" s="9">
         <v>3.21</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5961,7 +5977,7 @@
       <c r="H52" s="9">
         <v>0.155</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="33">
         <v>1</v>
       </c>
     </row>
@@ -5990,7 +6006,7 @@
       <c r="H53" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6019,7 +6035,7 @@
       <c r="H54" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6048,7 +6064,7 @@
       <c r="H55" s="9">
         <v>40.4</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6077,7 +6093,7 @@
       <c r="H56" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6106,7 +6122,7 @@
       <c r="H57" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6135,7 +6151,7 @@
       <c r="H58" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6164,7 +6180,7 @@
       <c r="H59" s="9">
         <v>40.4</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6193,7 +6209,7 @@
       <c r="H60" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6222,7 +6238,7 @@
       <c r="H61" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6251,7 +6267,7 @@
       <c r="H62" s="9">
         <v>6.32</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6280,7 +6296,7 @@
       <c r="H63" s="9">
         <v>0.155</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6309,7 +6325,7 @@
       <c r="H64" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6338,7 +6354,7 @@
       <c r="H65" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6367,7 +6383,7 @@
       <c r="H66" s="9">
         <v>0</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6396,7 +6412,7 @@
       <c r="H67" s="9">
         <v>0</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6425,7 +6441,7 @@
       <c r="H68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6454,7 +6470,7 @@
       <c r="H69" s="9">
         <v>0.1</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6483,7 +6499,7 @@
       <c r="H70" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6512,7 +6528,7 @@
       <c r="H71" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6545,7 +6561,7 @@
         <f>C72 * 1.01</f>
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6574,7 +6590,7 @@
       <c r="H73" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6603,7 +6619,7 @@
       <c r="H74" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6632,7 +6648,7 @@
       <c r="H75" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6661,7 +6677,7 @@
       <c r="H76" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I76" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6690,7 +6706,7 @@
       <c r="H77" s="9">
         <v>1.72</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6720,7 +6736,7 @@
       <c r="H78" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I78" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6749,7 +6765,7 @@
       <c r="H79" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6778,7 +6794,7 @@
       <c r="H80" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I80" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6811,7 +6827,7 @@
         <f>C81 * 1.01</f>
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I81" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6840,7 +6856,7 @@
       <c r="H82" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I82" s="9">
+      <c r="I82" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6869,7 +6885,7 @@
       <c r="H83" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I83" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6899,7 +6915,7 @@
       <c r="H84" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I84" s="9">
+      <c r="I84" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6928,7 +6944,7 @@
       <c r="H85" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I85" s="9">
+      <c r="I85" s="33">
         <v>0</v>
       </c>
     </row>
@@ -6957,7 +6973,7 @@
       <c r="H86" s="9">
         <v>3.34</v>
       </c>
-      <c r="I86" s="9">
+      <c r="I86" s="33">
         <v>1</v>
       </c>
     </row>
@@ -6987,7 +7003,7 @@
       <c r="H87" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7016,7 +7032,7 @@
       <c r="H88" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7045,7 +7061,7 @@
       <c r="H89" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I89" s="9">
+      <c r="I89" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7078,7 +7094,7 @@
         <f>C90 * 1.01</f>
         <v>4.545E-5</v>
       </c>
-      <c r="I90" s="9">
+      <c r="I90" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7107,7 +7123,7 @@
       <c r="H91" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="9">
+      <c r="I91" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7136,7 +7152,7 @@
       <c r="H92" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I92" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7166,7 +7182,7 @@
       <c r="H93" s="9">
         <v>4.545E-5</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I93" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7195,7 +7211,7 @@
       <c r="H94" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I94" s="9">
+      <c r="I94" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7224,7 +7240,7 @@
       <c r="H95" s="9">
         <v>6</v>
       </c>
-      <c r="I95" s="9">
+      <c r="I95" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7254,7 +7270,7 @@
       <c r="H96" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I96" s="9">
+      <c r="I96" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7283,7 +7299,7 @@
       <c r="H97" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I97" s="9">
+      <c r="I97" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7312,7 +7328,7 @@
       <c r="H98" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7345,7 +7361,7 @@
         <f>C99 * 1.01</f>
         <v>6.0600000000000003E-5</v>
       </c>
-      <c r="I99" s="9">
+      <c r="I99" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7374,7 +7390,7 @@
       <c r="H100" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I100" s="9">
+      <c r="I100" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7403,7 +7419,7 @@
       <c r="H101" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I101" s="9">
+      <c r="I101" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7433,7 +7449,7 @@
       <c r="H102" s="9">
         <v>6.0600000000000003E-5</v>
       </c>
-      <c r="I102" s="9">
+      <c r="I102" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7462,7 +7478,7 @@
       <c r="H103" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I103" s="9">
+      <c r="I103" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7491,7 +7507,7 @@
       <c r="H104" s="9">
         <v>6.59</v>
       </c>
-      <c r="I104" s="9">
+      <c r="I104" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7521,7 +7537,7 @@
       <c r="H105" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I105" s="9">
+      <c r="I105" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7550,7 +7566,7 @@
       <c r="H106" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I106" s="9">
+      <c r="I106" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7579,7 +7595,7 @@
       <c r="H107" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I107" s="9">
+      <c r="I107" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7608,7 +7624,7 @@
       <c r="H108" s="9">
         <v>0</v>
       </c>
-      <c r="I108" s="9">
+      <c r="I108" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7637,7 +7653,7 @@
       <c r="H109" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I109" s="9">
+      <c r="I109" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7666,7 +7682,7 @@
       <c r="H110" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I110" s="9">
+      <c r="I110" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7695,7 +7711,7 @@
       <c r="H111" s="9">
         <v>0.1</v>
       </c>
-      <c r="I111" s="9">
+      <c r="I111" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7724,7 +7740,7 @@
       <c r="H112" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I112" s="9">
+      <c r="I112" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7753,7 +7769,7 @@
       <c r="H113" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I113" s="9">
+      <c r="I113" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7784,7 +7800,7 @@
       <c r="H114" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I114" s="9">
+      <c r="I114" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7813,7 +7829,7 @@
       <c r="H115" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I115" s="9">
+      <c r="I115" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7842,7 +7858,7 @@
       <c r="H116" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I116" s="9">
+      <c r="I116" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7872,7 +7888,7 @@
       <c r="H117" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I117" s="9">
+      <c r="I117" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7901,7 +7917,7 @@
       <c r="H118" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I118" s="9">
+      <c r="I118" s="33">
         <v>0</v>
       </c>
     </row>
@@ -7930,7 +7946,7 @@
       <c r="H119" s="9">
         <v>1.72</v>
       </c>
-      <c r="I119" s="9">
+      <c r="I119" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7960,7 +7976,7 @@
       <c r="H120" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I120" s="9">
+      <c r="I120" s="33">
         <v>1</v>
       </c>
     </row>
@@ -7989,7 +8005,7 @@
       <c r="H121" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I121" s="9">
+      <c r="I121" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8018,7 +8034,7 @@
       <c r="H122" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I122" s="9">
+      <c r="I122" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8049,7 +8065,7 @@
       <c r="H123" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I123" s="9">
+      <c r="I123" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8078,7 +8094,7 @@
       <c r="H124" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I124" s="9">
+      <c r="I124" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8107,7 +8123,7 @@
       <c r="H125" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I125" s="9">
+      <c r="I125" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8137,7 +8153,7 @@
       <c r="H126" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I126" s="9">
+      <c r="I126" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8166,7 +8182,7 @@
       <c r="H127" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I127" s="9">
+      <c r="I127" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8195,7 +8211,7 @@
       <c r="H128" s="9">
         <v>3.34</v>
       </c>
-      <c r="I128" s="9">
+      <c r="I128" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8225,7 +8241,7 @@
       <c r="H129" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I129" s="9">
+      <c r="I129" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8254,7 +8270,7 @@
       <c r="H130" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I130" s="9">
+      <c r="I130" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8283,7 +8299,7 @@
       <c r="H131" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I131" s="9">
+      <c r="I131" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8314,7 +8330,7 @@
       <c r="H132" s="9">
         <v>4.545E-5</v>
       </c>
-      <c r="I132" s="9">
+      <c r="I132" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8343,7 +8359,7 @@
       <c r="H133" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I133" s="9">
+      <c r="I133" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8372,7 +8388,7 @@
       <c r="H134" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I134" s="9">
+      <c r="I134" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8402,7 +8418,7 @@
       <c r="H135" s="9">
         <v>4.545E-5</v>
       </c>
-      <c r="I135" s="9">
+      <c r="I135" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8431,7 +8447,7 @@
       <c r="H136" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I136" s="9">
+      <c r="I136" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8460,7 +8476,7 @@
       <c r="H137" s="9">
         <v>6</v>
       </c>
-      <c r="I137" s="9">
+      <c r="I137" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8490,7 +8506,7 @@
       <c r="H138" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I138" s="9">
+      <c r="I138" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8519,7 +8535,7 @@
       <c r="H139" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I139" s="9">
+      <c r="I139" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8548,7 +8564,7 @@
       <c r="H140" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I140" s="9">
+      <c r="I140" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8579,7 +8595,7 @@
       <c r="H141" s="9">
         <v>6.0600000000000003E-5</v>
       </c>
-      <c r="I141" s="9">
+      <c r="I141" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8608,7 +8624,7 @@
       <c r="H142" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I142" s="9">
+      <c r="I142" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8637,7 +8653,7 @@
       <c r="H143" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I143" s="9">
+      <c r="I143" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8667,7 +8683,7 @@
       <c r="H144" s="9">
         <v>6.0600000000000003E-5</v>
       </c>
-      <c r="I144" s="9">
+      <c r="I144" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8696,7 +8712,7 @@
       <c r="H145" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I145" s="9">
+      <c r="I145" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8725,7 +8741,7 @@
       <c r="H146" s="9">
         <v>6.59</v>
       </c>
-      <c r="I146" s="9">
+      <c r="I146" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8755,7 +8771,7 @@
       <c r="H147" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I147" s="9">
+      <c r="I147" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8784,7 +8800,7 @@
       <c r="H148" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I148" s="9">
+      <c r="I148" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8813,7 +8829,7 @@
       <c r="H149" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I149" s="9">
+      <c r="I149" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8842,7 +8858,7 @@
       <c r="H150" s="9">
         <v>0</v>
       </c>
-      <c r="I150" s="9">
+      <c r="I150" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8871,7 +8887,7 @@
       <c r="H151" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I151" s="9">
+      <c r="I151" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8900,7 +8916,7 @@
       <c r="H152" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I152" s="9">
+      <c r="I152" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8929,7 +8945,7 @@
       <c r="H153" s="9">
         <v>0.1</v>
       </c>
-      <c r="I153" s="9">
+      <c r="I153" s="33">
         <v>1</v>
       </c>
     </row>
@@ -8958,7 +8974,7 @@
       <c r="H154" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I154" s="9">
+      <c r="I154" s="33">
         <v>0</v>
       </c>
     </row>
@@ -8987,7 +9003,7 @@
       <c r="H155" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I155" s="9">
+      <c r="I155" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9018,7 +9034,7 @@
       <c r="H156" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I156" s="9">
+      <c r="I156" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9047,7 +9063,7 @@
       <c r="H157" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I157" s="9">
+      <c r="I157" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9076,7 +9092,7 @@
       <c r="H158" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I158" s="9">
+      <c r="I158" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9106,7 +9122,7 @@
       <c r="H159" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I159" s="9">
+      <c r="I159" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9135,7 +9151,7 @@
       <c r="H160" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I160" s="9">
+      <c r="I160" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9164,7 +9180,7 @@
       <c r="H161" s="9">
         <v>1.72</v>
       </c>
-      <c r="I161" s="9">
+      <c r="I161" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9194,7 +9210,7 @@
       <c r="H162" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I162" s="9">
+      <c r="I162" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9223,7 +9239,7 @@
       <c r="H163" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I163" s="9">
+      <c r="I163" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9252,7 +9268,7 @@
       <c r="H164" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I164" s="9">
+      <c r="I164" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9283,7 +9299,7 @@
       <c r="H165" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I165" s="9">
+      <c r="I165" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9312,7 +9328,7 @@
       <c r="H166" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I166" s="9">
+      <c r="I166" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9341,7 +9357,7 @@
       <c r="H167" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I167" s="9">
+      <c r="I167" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9371,7 +9387,7 @@
       <c r="H168" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I168" s="9">
+      <c r="I168" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9400,7 +9416,7 @@
       <c r="H169" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I169" s="9">
+      <c r="I169" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9429,7 +9445,7 @@
       <c r="H170" s="9">
         <v>3.34</v>
       </c>
-      <c r="I170" s="9">
+      <c r="I170" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9459,7 +9475,7 @@
       <c r="H171" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I171" s="9">
+      <c r="I171" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9488,7 +9504,7 @@
       <c r="H172" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I172" s="9">
+      <c r="I172" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9517,7 +9533,7 @@
       <c r="H173" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I173" s="9">
+      <c r="I173" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9548,7 +9564,7 @@
       <c r="H174" s="9">
         <v>4.545E-5</v>
       </c>
-      <c r="I174" s="9">
+      <c r="I174" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9577,7 +9593,7 @@
       <c r="H175" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I175" s="9">
+      <c r="I175" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9606,7 +9622,7 @@
       <c r="H176" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I176" s="9">
+      <c r="I176" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9636,7 +9652,7 @@
       <c r="H177" s="9">
         <v>4.545E-5</v>
       </c>
-      <c r="I177" s="9">
+      <c r="I177" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9665,7 +9681,7 @@
       <c r="H178" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I178" s="9">
+      <c r="I178" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9694,7 +9710,7 @@
       <c r="H179" s="9">
         <v>6</v>
       </c>
-      <c r="I179" s="9">
+      <c r="I179" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9724,7 +9740,7 @@
       <c r="H180" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I180" s="9">
+      <c r="I180" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9753,7 +9769,7 @@
       <c r="H181" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I181" s="9">
+      <c r="I181" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9782,7 +9798,7 @@
       <c r="H182" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I182" s="9">
+      <c r="I182" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9813,7 +9829,7 @@
       <c r="H183" s="9">
         <v>6.0600000000000003E-5</v>
       </c>
-      <c r="I183" s="9">
+      <c r="I183" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9842,7 +9858,7 @@
       <c r="H184" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I184" s="9">
+      <c r="I184" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9871,7 +9887,7 @@
       <c r="H185" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I185" s="9">
+      <c r="I185" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9901,7 +9917,7 @@
       <c r="H186" s="9">
         <v>6.0600000000000003E-5</v>
       </c>
-      <c r="I186" s="9">
+      <c r="I186" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9930,7 +9946,7 @@
       <c r="H187" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I187" s="9">
+      <c r="I187" s="33">
         <v>0</v>
       </c>
     </row>
@@ -9959,7 +9975,7 @@
       <c r="H188" s="9">
         <v>6.59</v>
       </c>
-      <c r="I188" s="9">
+      <c r="I188" s="33">
         <v>1</v>
       </c>
     </row>
@@ -9989,7 +10005,7 @@
       <c r="H189" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I189" s="9">
+      <c r="I189" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10018,7 +10034,7 @@
       <c r="H190" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I190" s="9">
+      <c r="I190" s="33">
         <v>0</v>
       </c>
     </row>
@@ -10047,7 +10063,7 @@
       <c r="H191" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I191" s="9">
+      <c r="I191" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10076,7 +10092,7 @@
       <c r="H192" s="9">
         <v>0</v>
       </c>
-      <c r="I192" s="9">
+      <c r="I192" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10105,7 +10121,7 @@
       <c r="H193" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I193" s="9">
+      <c r="I193" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10134,7 +10150,7 @@
       <c r="H194" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I194" s="9">
+      <c r="I194" s="33">
         <v>0</v>
       </c>
     </row>
@@ -10163,7 +10179,7 @@
       <c r="H195" s="9">
         <v>0.1</v>
       </c>
-      <c r="I195" s="9">
+      <c r="I195" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10192,7 +10208,7 @@
       <c r="H196" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I196" s="9">
+      <c r="I196" s="33">
         <v>0</v>
       </c>
     </row>
@@ -10221,7 +10237,7 @@
       <c r="H197" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I197" s="9">
+      <c r="I197" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10252,7 +10268,7 @@
       <c r="H198" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I198" s="9">
+      <c r="I198" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10281,7 +10297,7 @@
       <c r="H199" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I199" s="9">
+      <c r="I199" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10310,7 +10326,7 @@
       <c r="H200" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I200" s="9">
+      <c r="I200" s="33">
         <v>0</v>
       </c>
     </row>
@@ -10340,7 +10356,7 @@
       <c r="H201" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I201" s="9">
+      <c r="I201" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10369,7 +10385,7 @@
       <c r="H202" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I202" s="9">
+      <c r="I202" s="33">
         <v>0</v>
       </c>
     </row>
@@ -10398,7 +10414,7 @@
       <c r="H203" s="9">
         <v>1.72</v>
       </c>
-      <c r="I203" s="9">
+      <c r="I203" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10428,7 +10444,7 @@
       <c r="H204" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I204" s="9">
+      <c r="I204" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10457,7 +10473,7 @@
       <c r="H205" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I205" s="9">
+      <c r="I205" s="33">
         <v>0</v>
       </c>
     </row>
@@ -10486,7 +10502,7 @@
       <c r="H206" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I206" s="9">
+      <c r="I206" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10517,7 +10533,7 @@
       <c r="H207" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I207" s="9">
+      <c r="I207" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10546,7 +10562,7 @@
       <c r="H208" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I208" s="9">
+      <c r="I208" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10575,7 +10591,7 @@
       <c r="H209" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I209" s="9">
+      <c r="I209" s="33">
         <v>0</v>
       </c>
     </row>
@@ -10605,7 +10621,7 @@
       <c r="H210" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I210" s="9">
+      <c r="I210" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10634,7 +10650,7 @@
       <c r="H211" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I211" s="9">
+      <c r="I211" s="33">
         <v>0</v>
       </c>
     </row>
@@ -10663,7 +10679,7 @@
       <c r="H212" s="9">
         <v>3.34</v>
       </c>
-      <c r="I212" s="9">
+      <c r="I212" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10693,7 +10709,7 @@
       <c r="H213" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I213" s="9">
+      <c r="I213" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10722,7 +10738,7 @@
       <c r="H214" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I214" s="9">
+      <c r="I214" s="33">
         <v>0</v>
       </c>
     </row>
@@ -10751,7 +10767,7 @@
       <c r="H215" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I215" s="9">
+      <c r="I215" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10782,7 +10798,7 @@
       <c r="H216" s="9">
         <v>4.545E-5</v>
       </c>
-      <c r="I216" s="9">
+      <c r="I216" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10811,7 +10827,7 @@
       <c r="H217" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I217" s="9">
+      <c r="I217" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10840,7 +10856,7 @@
       <c r="H218" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I218" s="9">
+      <c r="I218" s="33">
         <v>0</v>
       </c>
     </row>
@@ -10870,7 +10886,7 @@
       <c r="H219" s="9">
         <v>4.545E-5</v>
       </c>
-      <c r="I219" s="9">
+      <c r="I219" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10899,7 +10915,7 @@
       <c r="H220" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I220" s="9">
+      <c r="I220" s="33">
         <v>0</v>
       </c>
     </row>
@@ -10928,7 +10944,7 @@
       <c r="H221" s="9">
         <v>6</v>
       </c>
-      <c r="I221" s="9">
+      <c r="I221" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10958,7 +10974,7 @@
       <c r="H222" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I222" s="9">
+      <c r="I222" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10987,7 +11003,7 @@
       <c r="H223" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I223" s="9">
+      <c r="I223" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11016,7 +11032,7 @@
       <c r="H224" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I224" s="9">
+      <c r="I224" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11047,7 +11063,7 @@
       <c r="H225" s="9">
         <v>6.0600000000000003E-5</v>
       </c>
-      <c r="I225" s="9">
+      <c r="I225" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11076,7 +11092,7 @@
       <c r="H226" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I226" s="9">
+      <c r="I226" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11105,7 +11121,7 @@
       <c r="H227" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I227" s="9">
+      <c r="I227" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11135,7 +11151,7 @@
       <c r="H228" s="9">
         <v>6.0600000000000003E-5</v>
       </c>
-      <c r="I228" s="9">
+      <c r="I228" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11164,7 +11180,7 @@
       <c r="H229" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I229" s="9">
+      <c r="I229" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11193,7 +11209,7 @@
       <c r="H230" s="9">
         <v>6.59</v>
       </c>
-      <c r="I230" s="9">
+      <c r="I230" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11223,7 +11239,7 @@
       <c r="H231" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I231" s="9">
+      <c r="I231" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11252,7 +11268,7 @@
       <c r="H232" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I232" s="9">
+      <c r="I232" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11281,7 +11297,7 @@
       <c r="H233" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I233" s="9">
+      <c r="I233" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11310,7 +11326,7 @@
       <c r="H234" s="9">
         <v>0</v>
       </c>
-      <c r="I234" s="9">
+      <c r="I234" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11339,7 +11355,7 @@
       <c r="H235" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I235" s="9">
+      <c r="I235" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11368,7 +11384,7 @@
       <c r="H236" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I236" s="9">
+      <c r="I236" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11397,7 +11413,7 @@
       <c r="H237" s="9">
         <v>3.31</v>
       </c>
-      <c r="I237" s="9">
+      <c r="I237" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11426,7 +11442,7 @@
       <c r="H238" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I238" s="9">
+      <c r="I238" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11455,7 +11471,7 @@
       <c r="H239" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I239" s="9">
+      <c r="I239" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11486,7 +11502,7 @@
       <c r="H240" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I240" s="9">
+      <c r="I240" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11515,7 +11531,7 @@
       <c r="H241" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I241" s="9">
+      <c r="I241" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11544,7 +11560,7 @@
       <c r="H242" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I242" s="9">
+      <c r="I242" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11574,7 +11590,7 @@
       <c r="H243" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I243" s="9">
+      <c r="I243" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11603,7 +11619,7 @@
       <c r="H244" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I244" s="9">
+      <c r="I244" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11632,7 +11648,7 @@
       <c r="H245" s="9">
         <v>0.35</v>
       </c>
-      <c r="I245" s="9">
+      <c r="I245" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11662,7 +11678,7 @@
       <c r="H246" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I246" s="9">
+      <c r="I246" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11691,7 +11707,7 @@
       <c r="H247" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I247" s="9">
+      <c r="I247" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11720,7 +11736,7 @@
       <c r="H248" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I248" s="9">
+      <c r="I248" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11750,7 +11766,7 @@
       <c r="H249" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I249" s="9">
+      <c r="I249" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11779,7 +11795,7 @@
       <c r="H250" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I250" s="9">
+      <c r="I250" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11808,7 +11824,7 @@
       <c r="H251" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I251" s="9">
+      <c r="I251" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11838,7 +11854,7 @@
       <c r="H252" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I252" s="9">
+      <c r="I252" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11867,7 +11883,7 @@
       <c r="H253" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I253" s="9">
+      <c r="I253" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11896,7 +11912,7 @@
       <c r="H254" s="9">
         <v>1.82</v>
       </c>
-      <c r="I254" s="9">
+      <c r="I254" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11925,7 +11941,7 @@
       <c r="H255" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I255" s="9">
+      <c r="I255" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11954,7 +11970,7 @@
       <c r="H256" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I256" s="9">
+      <c r="I256" s="33">
         <v>0</v>
       </c>
     </row>
@@ -11983,7 +11999,7 @@
       <c r="H257" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I257" s="9">
+      <c r="I257" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12014,7 +12030,7 @@
       <c r="H258" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I258" s="9">
+      <c r="I258" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12043,7 +12059,7 @@
       <c r="H259" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I259" s="9">
+      <c r="I259" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12072,7 +12088,7 @@
       <c r="H260" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I260" s="9">
+      <c r="I260" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12102,7 +12118,7 @@
       <c r="H261" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I261" s="9">
+      <c r="I261" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12131,7 +12147,7 @@
       <c r="H262" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I262" s="9">
+      <c r="I262" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12160,7 +12176,7 @@
       <c r="H263" s="9">
         <v>1.72</v>
       </c>
-      <c r="I263" s="9">
+      <c r="I263" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12190,7 +12206,7 @@
       <c r="H264" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I264" s="9">
+      <c r="I264" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12219,7 +12235,7 @@
       <c r="H265" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I265" s="9">
+      <c r="I265" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12248,7 +12264,7 @@
       <c r="H266" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I266" s="9">
+      <c r="I266" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12279,7 +12295,7 @@
       <c r="H267" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I267" s="9">
+      <c r="I267" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12308,7 +12324,7 @@
       <c r="H268" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I268" s="9">
+      <c r="I268" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12337,7 +12353,7 @@
       <c r="H269" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I269" s="9">
+      <c r="I269" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12367,7 +12383,7 @@
       <c r="H270" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I270" s="9">
+      <c r="I270" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12396,7 +12412,7 @@
       <c r="H271" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I271" s="9">
+      <c r="I271" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12425,7 +12441,7 @@
       <c r="H272" s="9">
         <v>3.34</v>
       </c>
-      <c r="I272" s="9">
+      <c r="I272" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12455,7 +12471,7 @@
       <c r="H273" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I273" s="9">
+      <c r="I273" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12484,7 +12500,7 @@
       <c r="H274" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I274" s="9">
+      <c r="I274" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12513,7 +12529,7 @@
       <c r="H275" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I275" s="9">
+      <c r="I275" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12542,7 +12558,7 @@
       <c r="H276" s="9">
         <v>0</v>
       </c>
-      <c r="I276" s="9">
+      <c r="I276" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12571,7 +12587,7 @@
       <c r="H277" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I277" s="9">
+      <c r="I277" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12600,7 +12616,7 @@
       <c r="H278" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I278" s="9">
+      <c r="I278" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12629,7 +12645,7 @@
       <c r="H279" s="9">
         <v>3.31</v>
       </c>
-      <c r="I279" s="9">
+      <c r="I279" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12658,7 +12674,7 @@
       <c r="H280" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I280" s="9">
+      <c r="I280" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12687,7 +12703,7 @@
       <c r="H281" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I281" s="9">
+      <c r="I281" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12718,7 +12734,7 @@
       <c r="H282" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I282" s="9">
+      <c r="I282" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12747,7 +12763,7 @@
       <c r="H283" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I283" s="9">
+      <c r="I283" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12776,7 +12792,7 @@
       <c r="H284" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I284" s="9">
+      <c r="I284" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12806,7 +12822,7 @@
       <c r="H285" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I285" s="9">
+      <c r="I285" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12835,7 +12851,7 @@
       <c r="H286" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I286" s="9">
+      <c r="I286" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12864,7 +12880,7 @@
       <c r="H287" s="9">
         <v>0.35</v>
       </c>
-      <c r="I287" s="9">
+      <c r="I287" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12894,7 +12910,7 @@
       <c r="H288" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I288" s="9">
+      <c r="I288" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12923,7 +12939,7 @@
       <c r="H289" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I289" s="9">
+      <c r="I289" s="33">
         <v>0</v>
       </c>
     </row>
@@ -12952,7 +12968,7 @@
       <c r="H290" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I290" s="9">
+      <c r="I290" s="33">
         <v>1</v>
       </c>
     </row>
@@ -12983,7 +12999,7 @@
       <c r="H291" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I291" s="9">
+      <c r="I291" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13012,7 +13028,7 @@
       <c r="H292" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I292" s="9">
+      <c r="I292" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13041,7 +13057,7 @@
       <c r="H293" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I293" s="9">
+      <c r="I293" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13071,7 +13087,7 @@
       <c r="H294" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I294" s="9">
+      <c r="I294" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13100,7 +13116,7 @@
       <c r="H295" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I295" s="9">
+      <c r="I295" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13129,7 +13145,7 @@
       <c r="H296" s="9">
         <v>1.82</v>
       </c>
-      <c r="I296" s="9">
+      <c r="I296" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13159,7 +13175,7 @@
       <c r="H297" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I297" s="9">
+      <c r="I297" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13188,7 +13204,7 @@
       <c r="H298" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I298" s="9">
+      <c r="I298" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13217,7 +13233,7 @@
       <c r="H299" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I299" s="9">
+      <c r="I299" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13248,7 +13264,7 @@
       <c r="H300" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I300" s="9">
+      <c r="I300" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13277,7 +13293,7 @@
       <c r="H301" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I301" s="9">
+      <c r="I301" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13306,7 +13322,7 @@
       <c r="H302" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I302" s="9">
+      <c r="I302" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13336,7 +13352,7 @@
       <c r="H303" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I303" s="9">
+      <c r="I303" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13365,7 +13381,7 @@
       <c r="H304" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I304" s="9">
+      <c r="I304" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13394,7 +13410,7 @@
       <c r="H305" s="9">
         <v>1.72</v>
       </c>
-      <c r="I305" s="9">
+      <c r="I305" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13424,7 +13440,7 @@
       <c r="H306" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I306" s="9">
+      <c r="I306" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13453,7 +13469,7 @@
       <c r="H307" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I307" s="9">
+      <c r="I307" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13482,7 +13498,7 @@
       <c r="H308" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I308" s="9">
+      <c r="I308" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13513,7 +13529,7 @@
       <c r="H309" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I309" s="9">
+      <c r="I309" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13542,7 +13558,7 @@
       <c r="H310" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I310" s="9">
+      <c r="I310" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13571,7 +13587,7 @@
       <c r="H311" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I311" s="9">
+      <c r="I311" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13601,7 +13617,7 @@
       <c r="H312" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I312" s="9">
+      <c r="I312" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13630,7 +13646,7 @@
       <c r="H313" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I313" s="9">
+      <c r="I313" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13659,7 +13675,7 @@
       <c r="H314" s="9">
         <v>3.34</v>
       </c>
-      <c r="I314" s="9">
+      <c r="I314" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13689,7 +13705,7 @@
       <c r="H315" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I315" s="9">
+      <c r="I315" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13718,7 +13734,7 @@
       <c r="H316" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I316" s="9">
+      <c r="I316" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13747,7 +13763,7 @@
       <c r="H317" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I317" s="9">
+      <c r="I317" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13776,7 +13792,7 @@
       <c r="H318" s="9">
         <v>0</v>
       </c>
-      <c r="I318" s="9">
+      <c r="I318" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13805,7 +13821,7 @@
       <c r="H319" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I319" s="9">
+      <c r="I319" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13834,7 +13850,7 @@
       <c r="H320" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I320" s="9">
+      <c r="I320" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13863,7 +13879,7 @@
       <c r="H321" s="9">
         <v>3.31</v>
       </c>
-      <c r="I321" s="9">
+      <c r="I321" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13892,7 +13908,7 @@
       <c r="H322" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I322" s="9">
+      <c r="I322" s="33">
         <v>0</v>
       </c>
     </row>
@@ -13921,7 +13937,7 @@
       <c r="H323" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I323" s="9">
+      <c r="I323" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13952,7 +13968,7 @@
       <c r="H324" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I324" s="9">
+      <c r="I324" s="33">
         <v>1</v>
       </c>
     </row>
@@ -13981,7 +13997,7 @@
       <c r="H325" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I325" s="9">
+      <c r="I325" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14010,7 +14026,7 @@
       <c r="H326" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I326" s="9">
+      <c r="I326" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14040,7 +14056,7 @@
       <c r="H327" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I327" s="9">
+      <c r="I327" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14069,7 +14085,7 @@
       <c r="H328" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I328" s="9">
+      <c r="I328" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14098,7 +14114,7 @@
       <c r="H329" s="9">
         <v>0.35</v>
       </c>
-      <c r="I329" s="9">
+      <c r="I329" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14128,7 +14144,7 @@
       <c r="H330" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I330" s="9">
+      <c r="I330" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14157,7 +14173,7 @@
       <c r="H331" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I331" s="9">
+      <c r="I331" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14186,7 +14202,7 @@
       <c r="H332" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I332" s="9">
+      <c r="I332" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14217,7 +14233,7 @@
       <c r="H333" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I333" s="9">
+      <c r="I333" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14246,7 +14262,7 @@
       <c r="H334" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I334" s="9">
+      <c r="I334" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14275,7 +14291,7 @@
       <c r="H335" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I335" s="9">
+      <c r="I335" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14305,7 +14321,7 @@
       <c r="H336" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I336" s="9">
+      <c r="I336" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14334,7 +14350,7 @@
       <c r="H337" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I337" s="9">
+      <c r="I337" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14363,7 +14379,7 @@
       <c r="H338" s="9">
         <v>1.82</v>
       </c>
-      <c r="I338" s="9">
+      <c r="I338" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14393,7 +14409,7 @@
       <c r="H339" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I339" s="9">
+      <c r="I339" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14422,7 +14438,7 @@
       <c r="H340" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I340" s="9">
+      <c r="I340" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14451,7 +14467,7 @@
       <c r="H341" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I341" s="9">
+      <c r="I341" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14482,7 +14498,7 @@
       <c r="H342" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I342" s="9">
+      <c r="I342" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14511,7 +14527,7 @@
       <c r="H343" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I343" s="9">
+      <c r="I343" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14540,7 +14556,7 @@
       <c r="H344" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I344" s="9">
+      <c r="I344" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14570,7 +14586,7 @@
       <c r="H345" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I345" s="9">
+      <c r="I345" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14599,7 +14615,7 @@
       <c r="H346" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I346" s="9">
+      <c r="I346" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14628,7 +14644,7 @@
       <c r="H347" s="9">
         <v>1.72</v>
       </c>
-      <c r="I347" s="9">
+      <c r="I347" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14658,7 +14674,7 @@
       <c r="H348" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I348" s="9">
+      <c r="I348" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14687,7 +14703,7 @@
       <c r="H349" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I349" s="9">
+      <c r="I349" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14716,7 +14732,7 @@
       <c r="H350" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I350" s="9">
+      <c r="I350" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14747,7 +14763,7 @@
       <c r="H351" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I351" s="9">
+      <c r="I351" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14776,7 +14792,7 @@
       <c r="H352" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I352" s="9">
+      <c r="I352" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14805,7 +14821,7 @@
       <c r="H353" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I353" s="9">
+      <c r="I353" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14835,7 +14851,7 @@
       <c r="H354" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I354" s="9">
+      <c r="I354" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14864,7 +14880,7 @@
       <c r="H355" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I355" s="9">
+      <c r="I355" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14893,7 +14909,7 @@
       <c r="H356" s="9">
         <v>3.34</v>
       </c>
-      <c r="I356" s="9">
+      <c r="I356" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14923,7 +14939,7 @@
       <c r="H357" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I357" s="9">
+      <c r="I357" s="33">
         <v>1</v>
       </c>
     </row>
@@ -14952,7 +14968,7 @@
       <c r="H358" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I358" s="9">
+      <c r="I358" s="33">
         <v>0</v>
       </c>
     </row>
@@ -14981,7 +14997,7 @@
       <c r="H359" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I359" s="9">
+      <c r="I359" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15010,7 +15026,7 @@
       <c r="H360" s="9">
         <v>0</v>
       </c>
-      <c r="I360" s="9">
+      <c r="I360" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15039,7 +15055,7 @@
       <c r="H361" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I361" s="9">
+      <c r="I361" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15068,7 +15084,7 @@
       <c r="H362" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I362" s="9">
+      <c r="I362" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15097,7 +15113,7 @@
       <c r="H363" s="9">
         <v>3.31</v>
       </c>
-      <c r="I363" s="9">
+      <c r="I363" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15126,7 +15142,7 @@
       <c r="H364" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I364" s="9">
+      <c r="I364" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15155,7 +15171,7 @@
       <c r="H365" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I365" s="9">
+      <c r="I365" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15186,7 +15202,7 @@
       <c r="H366" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I366" s="9">
+      <c r="I366" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15215,7 +15231,7 @@
       <c r="H367" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I367" s="9">
+      <c r="I367" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15244,7 +15260,7 @@
       <c r="H368" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I368" s="9">
+      <c r="I368" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15274,7 +15290,7 @@
       <c r="H369" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I369" s="9">
+      <c r="I369" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15303,7 +15319,7 @@
       <c r="H370" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I370" s="9">
+      <c r="I370" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15332,7 +15348,7 @@
       <c r="H371" s="9">
         <v>0.35</v>
       </c>
-      <c r="I371" s="9">
+      <c r="I371" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15362,7 +15378,7 @@
       <c r="H372" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I372" s="9">
+      <c r="I372" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15391,7 +15407,7 @@
       <c r="H373" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I373" s="9">
+      <c r="I373" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15420,7 +15436,7 @@
       <c r="H374" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I374" s="9">
+      <c r="I374" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15451,7 +15467,7 @@
       <c r="H375" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I375" s="9">
+      <c r="I375" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15480,7 +15496,7 @@
       <c r="H376" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I376" s="9">
+      <c r="I376" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15509,7 +15525,7 @@
       <c r="H377" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I377" s="9">
+      <c r="I377" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15539,7 +15555,7 @@
       <c r="H378" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I378" s="9">
+      <c r="I378" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15568,7 +15584,7 @@
       <c r="H379" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I379" s="9">
+      <c r="I379" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15597,7 +15613,7 @@
       <c r="H380" s="9">
         <v>1.82</v>
       </c>
-      <c r="I380" s="9">
+      <c r="I380" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15627,7 +15643,7 @@
       <c r="H381" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I381" s="9">
+      <c r="I381" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15656,7 +15672,7 @@
       <c r="H382" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I382" s="9">
+      <c r="I382" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15685,7 +15701,7 @@
       <c r="H383" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I383" s="9">
+      <c r="I383" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15716,7 +15732,7 @@
       <c r="H384" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I384" s="9">
+      <c r="I384" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15745,7 +15761,7 @@
       <c r="H385" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I385" s="9">
+      <c r="I385" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15774,7 +15790,7 @@
       <c r="H386" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I386" s="9">
+      <c r="I386" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15804,7 +15820,7 @@
       <c r="H387" s="9">
         <v>1.5150000000000001E-5</v>
       </c>
-      <c r="I387" s="9">
+      <c r="I387" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15833,7 +15849,7 @@
       <c r="H388" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I388" s="9">
+      <c r="I388" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15862,7 +15878,7 @@
       <c r="H389" s="9">
         <v>1.72</v>
       </c>
-      <c r="I389" s="9">
+      <c r="I389" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15892,7 +15908,7 @@
       <c r="H390" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I390" s="9">
+      <c r="I390" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15921,7 +15937,7 @@
       <c r="H391" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I391" s="9">
+      <c r="I391" s="33">
         <v>0</v>
       </c>
     </row>
@@ -15950,7 +15966,7 @@
       <c r="H392" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I392" s="9">
+      <c r="I392" s="33">
         <v>1</v>
       </c>
     </row>
@@ -15981,7 +15997,7 @@
       <c r="H393" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I393" s="9">
+      <c r="I393" s="33">
         <v>1</v>
       </c>
     </row>
@@ -16010,7 +16026,7 @@
       <c r="H394" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I394" s="9">
+      <c r="I394" s="33">
         <v>1</v>
       </c>
     </row>
@@ -16039,7 +16055,7 @@
       <c r="H395" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I395" s="9">
+      <c r="I395" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16069,7 +16085,7 @@
       <c r="H396" s="9">
         <v>3.0300000000000001E-5</v>
       </c>
-      <c r="I396" s="9">
+      <c r="I396" s="33">
         <v>1</v>
       </c>
     </row>
@@ -16098,7 +16114,7 @@
       <c r="H397" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I397" s="9">
+      <c r="I397" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16127,7 +16143,7 @@
       <c r="H398" s="9">
         <v>3.34</v>
       </c>
-      <c r="I398" s="9">
+      <c r="I398" s="33">
         <v>1</v>
       </c>
     </row>
@@ -16157,7 +16173,7 @@
       <c r="H399" s="9">
         <v>1.0029999999999999</v>
       </c>
-      <c r="I399" s="9">
+      <c r="I399" s="33">
         <v>1</v>
       </c>
     </row>
@@ -16186,7 +16202,7 @@
       <c r="H400" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I400" s="9">
+      <c r="I400" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16215,7 +16231,7 @@
       <c r="H401" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I401" s="9">
+      <c r="I401" s="33">
         <v>1</v>
       </c>
     </row>
@@ -16244,7 +16260,7 @@
       <c r="H402" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I402" s="9">
+      <c r="I402" s="33">
         <v>1</v>
       </c>
     </row>
@@ -16273,7 +16289,7 @@
       <c r="H403" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I403" s="9">
+      <c r="I403" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16397,7 +16413,7 @@
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16409,7 +16425,8 @@
     <col min="6" max="6" width="16.7109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="9" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="9" customWidth="1"/>
-    <col min="9" max="1024" width="35.7109375" style="9"/>
+    <col min="9" max="9" width="35.7109375" style="33"/>
+    <col min="10" max="1024" width="35.7109375" style="9"/>
     <col min="1025" max="16384" width="35.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -16438,7 +16455,7 @@
       <c r="H1" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="40" t="s">
         <v>250</v>
       </c>
     </row>
@@ -16467,7 +16484,7 @@
       <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="33">
         <v>0</v>
       </c>
     </row>
@@ -16496,7 +16513,7 @@
       <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="33">
         <v>1</v>
       </c>
     </row>
@@ -16525,7 +16542,7 @@
       <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="33">
         <v>1</v>
       </c>
     </row>
